--- a/pages/BSP_Temp/trial.xlsx
+++ b/pages/BSP_Temp/trial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -33,24 +33,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Henry Sans"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="20"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Henry Sans"/>
       <color theme="1"/>
       <sz val="9"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Henry Sans"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="14"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
@@ -65,6 +62,12 @@
       <family val="2"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="9"/>
     </font>
     <font>
@@ -99,7 +102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1B74CD"/>
+        <fgColor rgb="FF06A2E5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,9 +217,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -243,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -258,6 +261,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,13 +394,13 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>106</row>
+      <row>242</row>
       <rowOff>0</rowOff>
     </from>
     <to>
       <col>2</col>
       <colOff>228600</colOff>
-      <row>109</row>
+      <row>245</row>
       <rowOff>19050</rowOff>
     </to>
     <pic>
@@ -415,7 +419,7 @@
       </blipFill>
       <spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="125501400"/>
+          <a:off x="0" y="377761500"/>
           <a:ext cx="1447800" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -753,16 +757,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G107"/>
+      <selection activeCell="A1" sqref="A1:G243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" ht="52.5" customHeight="1">
-      <c r="A1" s="15" t="inlineStr"/>
+      <c r="A1" s="16" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -798,21 +802,21 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Manila Bulletin</t>
+          <t>Philippine Star</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>Marcos approves gradual shift to old school calendar</t>
+          <t>Zubiri bloc may join Senate minority</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Betheena Unite</t>
+          <t>Janvic Mateo</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -827,27 +831,27 @@
       </c>
       <c r="G3" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19IV2RtdXVQVHd5bDFhNUc2eFdyLy9VVEFGNEJsTHpmN1VjRCt4WFoxMjBmeTBSZ3A4bFlHWGMwL29sM1dsWno3Y1A4bVh6cjdERGpBNEhpVStBTTJIakJFd0czcWxFN3hUZ0xmbDV1NFRXMHozalpSQVRQNHpaN01yNTF4WFloWElTYUR5bFpaT3ZUK3FmVXBINFYwWmhRV0tqTnUrd3lKL1hSUlQxSGpjZXpzZUx0dXF2WWhtZlp6OFF1eVdidHRoNTNJa3dQdg==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19PaW9NaGFuNm5wcE1WUnJMVDFUNXA2TVQ0Uk1Bb1lVZkhNRmFUZmhuT1lWSUlwODJOaGZmMnJEYkkyb2JDVEpqUnFCZFl6U3BGeUFhK09MVUdaclJBME5QTnhpYnlld0k5anZEakt0M0Fub3g3Z0xBbW8wNUVYRFpiTmtEdjN4RHYyOHMvQnVIU1JrYUJwQ3FYOXNuTmpDcW9MaW14L0hyZUlvdFc1UUZkM280NkR6VmYzaEdMa2lhS3dwYXZuUGlIL1RabWtPYQ==</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Malaya Business Insight</t>
+          <t>Manila Bulletin</t>
         </is>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>Marcos okays JulyApril school sked for ‘2425</t>
+          <t xml:space="preserve">Marcos: Security still top priority of gov't </t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Jocelyn Montemayor</t>
+          <t>Argyll Cyrus Geducos</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
@@ -862,27 +866,27 @@
       </c>
       <c r="G4" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hdFRSYWxjY21GaXZCQVVTb3AzeWdoN0JnMHVoTjAyajZqRnErUjhjeWtsYkNDajRtaFhvVXFiSFBiNnVJSFpYY2NnTUxUcm9mRHRQZjZVM0x0RFF3ZnZOZVkzR0pPMGFPOWZuNDBFMEVhdytSS3c3R09lY1Q0K1RKeFVDbkdTNnBGVEhGOWEzeTJKbkZESERqUDhkeUlUT3lBV21FUlA2T1JhOFhOS3gzY3ZLY0cwRzFHbGJBWVJJdWtpSDRSb01sbUYxQUFhdQ==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xeWhIT2tna2QzallmdE5iSlRUYlo5NWxWZ3BIb1lJVXdMOVFwYU5kaW1KVmZsWWxlcVVSUGNoRnlHTHNBclE3OUV5TWxXQnc3UEh1R1M2VFZtWFRxZWFLZVBDOWxQZCt0NHRtUld4QVg5eDBobmtFTFBKRXBNRmk4b0xRZFVZYi9wVDliNTNlOVkyM05QUXJZZ0ZHSFI0b1J0bjZ2dzFCZUwxaEVQRmxwMEhHbEl2aVV1WlFlSzFqMUVaMTZZSEE0TG5IQkdZeg==</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Philippine Daily Inquirer</t>
+          <t>Malaya Business Insight</t>
         </is>
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>CARLOS: CALL TRANSCRIPT ‘TWISTED, MANIPULATED’</t>
+          <t>1M families affected by El Niño: NDRRMC</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Tina G. Santos</t>
+          <t>Victor Reyes</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -897,13 +901,13 @@
       </c>
       <c r="G5" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19EaTk5a1RGQmdHKzQxRVpFb09OWTRIVmtaYVczbkJ2MGlDWHhVMkx2MUZFRDg0ODh5aGpUUFovUFJJSWFRN1JVT1l6RUdtR1QyL2d2QS9UREt6NW8wWGVVYnc5WEQrK2JNblRwMjZjWkZXelFkU0toZUFTMGN3YUtYZFkwQVM2UDNOa09YQmF3bUx0dnJXWHp5THlieko1ODRqTzk3dWh4TTZPMWI3ZU5sc2RGa0lVODE3Sitxd0VQQ3RIeDlFSFhBSmNqQy9EOQ==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19lR05FOHdtS2cyM3pGa0xrejY1UkxUU0h4LzRDblM3UVhJcVFWZlF6bld4RE8xNFpMdlNYRWJTeEZvTzlKbk8xWEp1cWpqRjVxZ0Zqa2x3bExGMXdnUUpkT1hLY2hpY2JlRGJBRHFWall6T2wzRjFSSzAvTVl6d3dkRC9nZDA1b2xGbnFVNElydG5PSHlxMWlyRDdwR2dWZFFmQVdscVE3NDIwK0JjQ0RwcGZKTkhnWEdvWUxaWGFGRE1raVJPZlVWRmdYbVZySg==</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
@@ -912,12 +916,12 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peso’s nonstop fall may stoke prices </t>
+          <t>BSP seeks to curb forex speculation</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Aaron Michael C. Sy</t>
+          <t>Luisa Maria Jacinta C. Jocson</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
@@ -932,27 +936,27 @@
       </c>
       <c r="G6" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18zcmE1Z1RrNmlYbEtlUDZQN1d0SVptaFhkNms1VzNYTENCRUswNjgzQy9YcHFESURTUHoyenFZMEh0UUlsVHlEUHlrZjVCYVhTOWpZK2pEYVhEcExtY2ozQytpMGlPdmE3NHZHZ3VOc2xRRXl4a1FjTlhJU3B1ZElNcmowT2RkaHZMbmdvaTM0V2M2eDN1VjZyVkdZZW1oeDlWZTFTWDAraytDV1J5WXk0aFZ0UFJ6d1psMStBeCtmVnVJMHZSMU5zeUNzMFRDag==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19XUUxmMWtwZVhROW5IYm9QZCtnTHlMSEtNeDZBa2xjVHNRVlpoYzc1VUJUZUxsamltaXZWUlk5dnc2d2lUenNSaVlZbjcwT2tqUTNiY1lwNmlReUxKZ2hmQ1NpSThvZ2tJL2RTdFVzNFFWWUtQeWt1czNuSlRYalMvVHBickZ0VlQxck1ROFh6aCtOVmtLR3RBa25XakNYVHpSUVdpRk9wTFRITVlrSXBGZjVMV09tVW50dk5EUUlTVlhYTGM5bUlndDBsV0pmeA==</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>Philippine Star</t>
+          <t>Daily Tribune</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sacked Wescom chief denies deal with China </t>
+          <t xml:space="preserve">Senate not Palace rubber stamp — Chiz </t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>Cecille Suert Felipe</t>
+          <t>Lade Jean Kabagani</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
@@ -967,27 +971,27 @@
       </c>
       <c r="G7" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19LTW81UEVwcWlOcWx5UlFxZkd1S04wRTJocXUyK1VJMEhsa2RVR0ttcmhlK0V4Z0Qxd1BxeHlhOGxBbkNndTlOMjBibWZlclVXMnR2OFd4dzN4enVVYXhJb3Q2WUROK1BlOUo1K1oxNGFKZVZaUGViUGIyUW1YcUY0NDdWMytiK0YvN3ZWYU5ROFg2YldOTG9BSEw0aFFiaklzc1A4Z0lwdlhJQWFDVy9SeWd4NTNieEd4QXRSTTZUZ2lmTVVXTGVkaWlVT2hmRQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX185WWZKRDkyZGlHa053NzE4L3VMem1RYUhtbnhFakRBNFhHdTIrTG01SWNhc0ZhbzBmMmUxS1dvTU1MMzZpaXVRL2dlSlVmU0d2NFJzc1QzaXNXZ2NnSFo2OXFBM1dmQ1BUUFVmQVhqS3lJVjE2K3NlL0x2L1FBcVJxeFhFNHhjZ1lOSys1OXcwZlkvVUExN0RSb1BEUlhPUjM3QktrZ21BSHFJKzZGSWRqYXg3c05NREV3dktPWGVvNTh5NVgyNEZvWG1iaGgyTg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Manila Times</t>
+          <t>Philippine Daily Inquirer</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>ExWescom chief says he made no secret deal</t>
+          <t>STRIKE 2 AT SC FOR MARCOS ‘ANTIPOVERTY CZAR’ GADON</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Bernadette E. Tamayo</t>
+          <t>Jane Bautista</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
@@ -1002,318 +1006,357 @@
       </c>
       <c r="G8" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX182bVRodDlDbmIxTUV1SUxVTVRKbDFLU05UN2F1dmFOQXN4QTVFOU1ydmVhRDhCSUNSNERvZWgyN01ySCtJZUd4cU16eDYrWmt4OSs5YXhnL1JjL2l1cVJyWWRCNkY2UjRsbVNGWDBKZWFHbnU3ajA4M1Njb2hkWE9oRDZrREl6V0NDNmRxRW8xbjF3N2w5NERacjdmbTM2cG1hUjF6cWdVdGMwQlp3cVZkZnRyQ3JMVTVkMmovSXY4MGhCNG84cGtENU8wNUlVTw==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX195ejhsclBISnFOYVpkV2dtemllUUN5WGFFeDd6ejdDdmxNUHJWaUhjV0s2NW5yT0UvNEJGdVM1K2NKV2dTSUVoRHhhZWhGa3d5em5pZjRHaXJZcU5aNmY2SFYvRngvSDlwTWtRek9KTjAwZ3Y1TVFyZlJSV2s3Ym5IcUxGdjZqRW5DMTBGOTAwNUE2WUd3ZnNxVm1aZXFvc1lTUjN5akFxbVNsZTlXaTgrdlM0b1VBMHFPR1dkMjkwVU1tREtKT29oUC96MmR4Tg==</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
+          <t>Manila Times</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>Nancy Binay eyes Makati mayoral post</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Bernadette E. Tamayo</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19scDVkblZBVUFyRjk2dUVpamNpckQ3QWhHb0ZWeE5ERklmaXQ2N1ppbU5CYk90M01VN0l6VXYxRDhYbjlwL0ZNaGxnc1lYVFlUVzNMZGpNV0wxSHlXWGFMOWhWSWsrbjRYd05ZUmdITDJDbDdRNE1PZUhRMVIrV2NPZzhLcmlqaDh3ZmFha2Nwc212N05MT1NwbjRJd2VkbnhFOHZaR0VsTEVHU0NHcXV0MklSU0VlL1BTY0ttNGNyaDlOT3ByVUU5UmhiUUZIZA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A10" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
           <t>Business Mirror</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WEAK PESO WON'T HALT GOAL ON RATE CUTBSP </t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Cai Ordinario</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xUE9CeWNSekRUN1pJYlEyZzhQMGNHeGFEamNRL0svbU5OdUNxYTJIZzF0UHNtOGN6Vmd4dTlzTWJOZzBGRXM4b1d6Vkk3WmJ1R2lkc3BvN0hYaEgyT3laYVNpdU5zaVdONGpvYndEZlcwVkVERmlwU2NCY2VlOVN5RWdtRW5kaSt1TFo3MGNPSExYTGlWcmpBUlNVV2RIWTJ6Y2N1bitxaDM5azJnWjVZcGxRMWRYMm1HM04vdHNWY3JBakdCQ1dsMWJPTTVMSw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A11" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Manila Standard</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Escudero: Mending ties with House 1st priority</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Macon Ramos-Araneta</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19qSUFKVW9rd1kxTDVVZjFWT25QNGdiQ1lXUDVZQzNRV3lWeFRrT1lITGI0WTQ1RFI2MHF4VmpSSElQTVpzZC92S20veEo2QU5xZnhTd1BzMitXZTdrUzU2dk5NY3NHb1RPRlRhck90RUQvZit5ZkI1QkVna2JZS3RickUzdlNBOWtXcElDZ0hNQk40Tkl0N1ArVS9lemVlazJvcytoRVlmeS8wV29lMVZzRG9jZDRVT0JUQU5GSzFDU0JibWM4ekRpYTVyRUt5Wg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A12" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Marcos approves gradual shift to old school calendar</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>Betheena Unite</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19tVjh3aXNpVkZTTEtyVU1raEtiQk0rZ2M5VGR4d2I5MzdBUkdaOWF0MW1lM1phRzVNRm5EK0FObHBSRzdPb21XMldtSi9zcHFLb3BROHU5QzFmQWFGZERTVkZUeElvbTFyRzZuN3NCaU5kcXJ0M2oraHFTWnVwdnVBMnpBbnZGZmRJSGM5OGU1RFlTSVRodWRDRmpZcklCNTQvaVVoMUZFZUFVMDdKMllPQ2tiWk8wZExPZ2NnN0x0OGQ2VFpxZ0h4SFVhSURGZA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A13" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Malaya Business Insight</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>Marcos okays JulyApril school sked for ‘2425</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Jocelyn Montemayor</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX182WjUxcWRObTdpdi9PYVlJMEl4WmZQNmoxSHVtQW5ZcWVBUVdMUzVOU1RUM0dGSjE4K3ZvKys3TVIwRXZFUEk3Tkc3b1VlU0pxMm5MMERQd1Z6N3FRTlRDckRMQzhZRmNyeUhIUjF1MXhGaER1UHIremJFcHUrS3VmalVJU0pRRHFDV25mc1lxcnBxem1adGxCQ3EyQ3FpWDk2Y1YwNHUrUnRsTEJkYnh5eTRwL3NyMy9pK3ZKaEpHYTVkTG54MTg2NDczbzFySg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A14" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Philippine Daily Inquirer</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>CARLOS: CALL TRANSCRIPT ‘TWISTED, MANIPULATED’</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Tina G. Santos</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nVVZGMTRvRWNMR0Z3NXBVYis5NUt2UGhTSjYrTXhkNjBLMzhjWW42bTg3WVlPYVltTHhWK2ZtZjhHL3BkYi8xMlhaellEemFvRUpEMjFsaytUQitQSEw0UjQrcyt2K0dLK0drSEE4b0FURmNSeGZva1N3NDhNclAyL2xjZTQwTm5WUmlESHI0bmpQVDBPNXlQQlJXanhoblM3VkJ1SGIvY2FqNkNNdC9UcC9DSU5pNEx3M282TzZSbUovTnFLamZjQjF0bnJIbw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A15" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>BusinessWorld</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peso’s nonstop fall may stoke prices </t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Aaron Michael C. Sy</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19Wc0xjVFlneVRoNlhWOXFId0x2QkxHeGNwNnlGL3RQSW1LN1lpK0xXVllqU1FDNmpZUG8welNlVG01RFFFMDV1Mm9WNFNuRkhiUVplLzNYVjBPcisvTWNhWWhrZTRkVHVSYTFGTGtkb2R6QnpUeDVCYWNlaDIvM2swdE5jWEp0RXREWUVtNnAybnh6TjBxQjEydWUvWkJaOXgxd21ZRko3bGVtMDJqK2orWGJlcDJlTDN3WUgxZHpnNUJ3OGtDQytZNWk1b29oKw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A16" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>Philippine Star</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sacked Wescom chief denies deal with China </t>
+        </is>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Cecille Suert Felipe</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G16" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19IUmdlQ2JncUNnZHNHZjRNSkpGbEgxc2V0Mm1ZVzZwaHVKanBoU012VVVlL2FiOE9UT0QrMVY5dXc3VzAvQnlTd3JkSkl5S3VFU1B4aWNaS0RPelNsY1hJRGNIUkpRRzlSbnlKV1lMcXdiVkJFUDZ2eEZLYmVBYW5QR2pnb09vRy9yT2FmT3hGU2MwMUZ2RHltUDVkbllyZ0JqVEwwMzNqZnI1d3JYMVNkM0p1aXZXTzlPUGJIU1ZkZkFPVUhmdSs3ODVEQ2JlbA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A17" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B17" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>ExWescom chief says he made no secret deal</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Bernadette E. Tamayo</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194Zm9nUmZNOXpxbE9INjlSMjRJQy9ZM2VQeFF6dWZXbTdJY3lybFhZVjVXbjMrOGx2NnAxODM1WVVQMlZUVGxoRUpQVmVtZDJBOHlWdlUrd1dSTmg4U2RrKzNydGlXUlJEa0hjeEJsS0MxSkQvQTFmUzVBWDYxYlFMZndwaVJzd1JhMXJEd3BwaUZrSEVqUGtFR01pUzNnZHVmS1daNStCUUhsSXhMREljek9lYy9PZmpqVDZPSHcydXVjWlh5Y1hwd2RPT2JVdQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A18" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>‘FOOD, OIL COSTS COULD RISE ON PESO DECLINE'</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>Cai Ordinario</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>TODAYS HEADLINENEWS</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX192dUV5NmNyd0hVSGRWdlAvSjZvNi9zUnk0bEJ2NURVMmIyQmtVbjdvNGJreHNTODJ3bXkzOTZJT2JkcEJ3Q1N6eDJiR1ZGMEEyRWdBUldxRXJwRDJsWVRwSzFmZWgvd3FhNEhlaGpwdDdYS1k1ai9FWFBIRXppYTBJNWNwUmVabm50VWpPMUJzYWljeWpDTDVOUlQ3NXgvUXRSU1dQQmNzMHpyWW1kaXRuYXNoZHNlQUI5RTdaVnMyNkRkNVM4SEdHeXdnSUYvZQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A10" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>Manila Standard</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>‘China manipulated recording’</t>
-        </is>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Macon Ramos-Araneta</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hUXQ5NFd4VFFiVERjNk1ZYXNveUhRQk9pSVdiRzNJM2QyOTZyMS90aFUvNHNzSEo5UXlWZVZPTGFabHExOW9sNWdBWnp1VjhhM3IwUkI4YU03UG0yY1V0N0MrVDhaZnBEYklZai9QUC8yMzJOUC9CTWdxZnBCdHpkRTdteWpMUmlsN0t3bENlS2Y0bnJ5bVczb3Jka0hJYU1oNWdrRm9rbDR2KzlFL2RrZTdzVmJobkNhbTR5YXlCWjNsSHNBRm9ZR3EzV0tGUg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A11" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Daily Tribune</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Phone call, yes; new model, no</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Jom Garner, Lade Jean Kabagani</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX190UEphQ3JTTWNwZ2IxTjIyeGRjWGhNUHd2a284Q0xlVGg2MmdFbmFka1kxWitHZHlYc0crc04yMkJSMUQwQUtlaG1ZaHJWQlRtUDRzK2c2VWY3WHgrTVVJL0NvYWNLVWhxUnd1citiUThUVmZaVWYrRUxYMFVnQWgvUnhuSC9HZHZpWHgrYmNCbFdHNnpTTkNrZXp4ZVZHemMzR29OeHRxcjJnMGJGMDRrSkQ0ZXZMaGhKYWkzL0V2NWsxc3orMVlzKzJsVnNjTg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A12" s="8" t="n">
-        <v>45434</v>
-      </c>
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Manila Bulletin Online</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Marcos OKs reverting of school calendar to old schedule</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="n"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Online News</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX181WVF3MklsSk5aSHVUWjBMWW5ZTmJmVjBrNzUyYkRIRHJram94NU9mSVBkbm5seEtQajdoS2g4TXY1a0FnbUtLZnkrV3hacTdBditMUVJ5aG1IdUZ1dzlMSytEL2RhL09VaTMwVnNLeDg5aWUwaFR5YUVzRGFQWm14Z3pRYnozWmIvZ09JRld2b3hOV2NkblhmYm5tUDl2cllXL1JlWmtDM04yY0lwakoxU081YkRJckhIZC82ZnlFN2l4dWxHd3N0V1hNc3RoeA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A13" s="15" t="inlineStr"/>
-    </row>
-    <row r="14" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>AUTHOR</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>PRINT</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A15" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B15" s="9" t="inlineStr">
-        <is>
-          <t>Malaya Business Insight</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>US FUNDS STUDY ON IMPROVING INTERNET ACCESS: Proponents tackle projects for Luzon corridor</t>
-        </is>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Irma Isip</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19OSnJrUW9zMWNOS1lZdkNEbEVDVzRtb1BFckJWSDB0M0VuMzYzTW5DTlNsWkx5WVBTMXliVTNTUlNXRmhzQWtEc00rQ2M5VHZOYjZZcHd1cnFGaGtTSFBjR0VKaWwrUmk1bzcvQ0oyOTZodEpWaFNKQVJCdVZyNE15cFRjRFpIb3hEUWFFNW41S3VZRG9NanZRNjNXS1FWUXdWTCt6RmlTanUxOEVWblgwZlV5UkgzbDFjWEtaOUtTZVdVbUpON2NWYkFMYnBSUw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A16" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Manila Bulletin</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Romualdez company buying mining firm for P5B</t>
-        </is>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>James A. Loyola</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19BTktBWGxhbzAwYXNTRXdXU09HR1lzRHBJVkt4cTJ1UWd3Q3c0UUs3N1hkcXR6OEVFRjRucTdlYUhNVlBhV2VWVGJoK3MyQUxsbUxrOU9KSW1YejlUQ25EZUpuL3lzS0xoalp1MHA4MjdGZmlsaTZPekI4VTNabS9BMk5US2FXbmVNSUpzbTAxRVdJN1pMRCtHNmVOQ21xRTB5NjMrdjFhbXNKRnNxNnc2U0NrTmhSUEIyV3NidFpFVTFRSnNINkVvdEg4MSt2UA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A17" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>Philippine Daily Inquirer</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>LANDBANK EYES ITS BIGGEST BOND SALE EVER</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Ian Nicolas P. Cigaral</t>
-        </is>
-      </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G17" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19IaTRqYjJYSkk2OVo2L2gyMkg4akZydEIyN2RDZS9YOVZRN1hMUm9NRjI1SzdaaEZSdDVYaFlEaS9wekRUUS9zRkVockNvWWRLL1JXMGtnd1BZdTZpVlRLMFlEUjVvYkJMZTdwRlZYVTlGTlI2UTZ3M2hoUTA5ZS9SUE12WWhiWHJWa3hYT3d5ZHIyWjB1WExVamRHRWFIUmY5Y3duL2VMRXo0YWw4L21GeXZNM0VyNnl5enlSakVuRXA1WEsyRXROR2ZHMHdsRg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A18" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>BusinessWorld</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Yields on BSP’s term deposits inch up</t>
-        </is>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>Luisa Maria Jacinta C. Jocson</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
       <c r="G18" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194S2pEZDZSVUVWM0wreWlaa2ZuYWtKbkZRSGF1NGZTMHQ3SjczWHJBVGtvbGV2VHBOOE5CUkRzMjQ3VWpFQ0RjV1NrbnlYbnp6eEVndk1TeDhNTm1Ua2p0RmpOajl0dUNGaFl6YURNdUxRRlRrUEZoRU1Lc29iTDB6NGt5b2lBMUhGZFVWblRwWWRtaTQ3Y1N6K0JuL3JvMTBVeUh6d3NTVUNKUTN0a0JIUHppS1dJaTVtRytNNVdhZzdrVHo2YnY1akY0M0ZSaA==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xY3M2ZHphR3FVVU9wNi9xTWw2Q0h1L2taejVwZmNYWFNoa0F5dmh6OFZ6cEI2bXBmUzhmNXRYbjNLM3BLdkpweTRyRjlZb0JXQ21SeUdaelM5eXE3YzVlamVOZU9LZXN3WHlsbWxheXZqaUcyOUU3L0tnL3VGOGJ5VUZPVnpCTGhOS2tzaUhxWVhCeGFrWUFyalVDcFRhc0xhcEhCOFdvZ2o4Tm4yaWVIbVM1T0xZK3haZFdPRVZjRXphZi9vOVA0WktJVnl1Yg==</t>
         </is>
       </c>
     </row>
@@ -1323,572 +1366,588 @@
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
+          <t>Manila Standard</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>‘China manipulated recording’</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Macon Ramos-Araneta</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19wOUYyMHVndXVERkdYUjltN0ZRdHYyZkJyTmc0TW5CS2JUZ1RMT3NqVXIxQmdqT1RkMTFQUWg3dWFBalc5N1VFb3V6UlJTNWV2RytvMFZqQjBvQnBpVHhsamVlR2VnTU9aSmhMOEs1a0E1c0M4enhncHZqeVFpMlRRTjBOcFBXNWpBOHhtcnYwL0pjRVdwaEVFV1NXT0ZWTFMyclZaWHY1SWFaVUZXUlZQQ1djc2tnaWNoZEVkUXRJUENDbWthZTZlK0h1Y00vUQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A20" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>Daily Tribune</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Phone call, yes; new model, no</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>Jom Garner, Lade Jean Kabagani</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G20" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19yYkpwR3RVa1JmOWNGMGZPK1p6MWpnUDRqcnU5dXhnVjF0aUQyeHdTMU1XTkkzbTlqZGQwYzM5RVo1cG9JT1IrNnlyN2I2R1IwQWZSQUVjdEpuMGdjaXFqZVdJOXF0eU9tY1IxYkZGZVpxbWJleEwyNTl6NFo3R3VaV2M2Vld2bi80bGlnYkRsSmR1cjZrb3M1aXIzMHBTRnYwRUcwQlRQRWlDS1h3aFFSS0FOTVBtb01QVGc1dWtBK25abzdoOGVaM3A5VSszdA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A21" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin Online</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Marcos OKs reverting of school calendar to old schedule</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX183MElJeGRKc3pGVXdXSXZ1eWlPTVo5WE8wTDZsakJaNGU4eXlEVWNWWmpSTU5ZWkZPVmVxVnI4Z3d6akNyejQyYW9YeHNySkl5Y3c3OU9nOFpMY2xxVldLQjNibldFR1hYTTZVZEJLUUlWdC9vWVB5aEtNNjcyZDBzaC9sanZEbTJ2b2ZlcDNBalg1NjFUQTducjRuNjdJTGo1dVdtandkbXZuWkxxek1sTHFpNkFPM2k0NHNKWGgyMnlLQ2FEM0RGWjZFWkhqWA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A22" s="16" t="inlineStr"/>
+    </row>
+    <row r="23" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>AUTHOR</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>PRINT</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A24" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>Philippine Star</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BSP moves to curb forex speculation </t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>Keisha B. Ta-Asan</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G24" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19MWW9lVmlzdHlSdGgwS2dONzBhYWw0bkhiYVpwc2kzdnZQWGFOWkFzUDV4dWRMNGxuTHBHMVZKRW1FTUNTck8xU3JZZlZjU3V6bXZrZzZ2Z2l2MC9SdGx5UjZodC9Wd3ZRNG43QlJxdzVWMnprOWhDYmxmdThBd0VtbjZnVVFtaVdKQi9aSUhldUtVZ2IraXcyTHhJbVJ6eVBvSzlaL0xkY1E0SmQ2RmpCZk1qNzRHYnRMUzNNSUt4ODRnRnhrMFExYmcrcUtvcw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A25" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>Malaya Business Insight</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>Govt posts smaller surplus in April</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>Angela Celis</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G25" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18zeVhUaWFtUUFuOCs1NDRYV0hJUEV0Q2p4QVAxNXltZlNXKzN3S3REZDZhUEI2a1R0bnNWTGtwVm9sUTNoQjg5bEJONG8venZQZVhMQzhXdDRSc3RWTUkvM1Q2dC9qdXV1N05yYWpJRms3QzFCUnF0eHdqWjRCTDZJS0poZ0E3ZWRJUWlCME9TNmw5TENZNWlBUWpSbGY4R24vVkU0YmUyNjgwaXA1ckMrK3Q0MnpwRFFwSE50V0daS3lFangvZURYUGVnU2JiVA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A26" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Financial resources seen at P32 T</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Lee C. Chipongian</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G26" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19wQ0xoQndyemZaMmQ5WXhqd3loOG1Pb0pac0pmbmVWRmExYUtvMm56Z1ZiOGRxSGVXL3pDNzR3c0I1VUdFdm9LRU95Ym9xTVY5UU5GVmJ2THFnY0pIV2RKVVErWUxsM2NnMmxudHRqbkl3U3dNNlB5Ny9kbGp1OGM4U3lZSGhackRKQTB2N0xvVllvamxreVBGejM2Zjdxa0VTZHlDSURDMDZLSHBpUmppa0NXZ1ViblJhVGpySmFDNHZ3Q2lqWFdObVVKOTY4Yg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A27" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B27" s="9" t="inlineStr">
+        <is>
+          <t>BusinessWorld</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peso drops vs dollar on Fed meet minutes </t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>AMCS</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G27" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19CcmpBQWZXekRvT0NoMngvNGtEVktDazRiZlhZbFgvU29NR3g1cGNZcXU3OXIxdmdFaFV6eHhuSXQxeFNEaE9XWnVmT1NBOTFpZDBXdUtjWGVsU0p6OXYyU1lmZktVWS9LTFU4b0pCbWdic0xnYVNIZUlCUXVNNWV2dmdPVkloNVZPTFFRMU82OVd3YzhKdmFCR3dRdjZsQ08zalZLRUF6aUMzT1FCUzNsZHBjM1ViVFU5dVRNUlZxV3B4alZLRThsZFJPcUVUcg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A28" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>Daily Tribune</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC upholds CA power row ruling </t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>Maria Romero</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F28" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19JbWpBb3gxSnN5LzFWSnZJV0xFWnBlaG1Hdm1BUDQvdUlybEFHS1o5aFBhTE8raHNYZE9YeHhmdW1FaExDWTdnSys1RVRURHJuKy91R1JNNjUvMVNNWmJWM2FHaHBsWEFPTVlVUUR0eEo4L3VBSGI1WTRQWDhpVzVmbzdITkF4THRsZ1g4aFI0cDVOc0NkMW5DQThFY0svR3RpZHZhMXFucHRobEt3R2lzSVRncEdXdXR5M1ZQZ3lhcnk3eTlPWmtQYlVGa1dWNg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B29" s="9" t="inlineStr">
+        <is>
           <t>Philippine Daily Inquirer</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Biz Buzz: Ho steers the ship</t>
-        </is>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>Biz Buzz: Phinma seen ‘undervalued’</t>
+        </is>
+      </c>
+      <c r="D29" s="9" t="inlineStr">
         <is>
           <t>Meg J. Adonis</t>
         </is>
       </c>
-      <c r="E19" s="9" t="inlineStr">
+      <c r="E29" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F19" s="9" t="inlineStr">
+      <c r="F29" s="9" t="inlineStr">
         <is>
           <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
-      <c r="G19" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WeUVUMWpLeUF4Ym9VZmVxRHN6aWNnYUNuSDhZZUpzU1FnZXRiNzJyN04xbUdYZXZURWprdTV2amZtcEJVV0FhL01SOFU2NFVaUlVKVlB4TWI3ZW9kMWNJYmI2b0dNaDlZSnQ3bnZkcmtBUzhHeE43b3A4VWsva0Y0MTIxUGkxamFzTnlIKzlSbUlhekUwK0FaSFV1MDYrSnhEbkhZNkp4UFcvaVJPN3JUKy8vYnpGVEpDRHgwbnFqVHB6amFQa25qY1JheHpFVQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A20" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
+      <c r="G29" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19oU21uQmQwRVhVYXZaNzNkblNzSnhKQXo1ZTZTdGhVSmVKejIwcUdGdjFwKzVNYWR0SnRQd2F5cTArSlc3RnhReGpEbFFSODFBSGJHN09uZzZPSW0rRmVNZDFpdldaSVk1NFRZcTJVT0ppMGpKQ1o4ajJxa3o4NnJORjNNc1ZyVTFIaHRoVnZyM3ptVlhRMHhlZzBxQkpyVjZKbHgrTW1vS3JGZHpmSGpPMHlHV3pRSXhsV0UyWmpoU3pKLy85bW1aQU9FN3Z0ZA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>Philippine Daily Inquirer</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Biz Buzz: MVP with the stars</t>
-        </is>
-      </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>Tyrone Jasper C. Piad</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>Biz Buzz: MB seats going vacant soon?</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>Ian Nicolas P. Cigaral</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F20" s="9" t="inlineStr">
+      <c r="F30" s="9" t="inlineStr">
         <is>
           <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
-      <c r="G20" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19QMkxyanJabkprVGRYREdDWXpLUzNYdzJmZDlCKyt6OTVJMnV4S1ovTHdUZlZoSFpodVhNckNwcFhFd2U0cEhxaTd1YmlEZUZJcUxzT0Rhb3AxK1ZSSVk5OEtOa2U4WTRTZlNKYW1DSklpN2NjZ1J0Q2NnczViNW03bUhwT0M0cURKTFJYaEs2anorL0pYYU82aG9VUXBiTE9DTkMyZjRUN0xxZWRQMjBjR3VXWnN0UU83WUNadTdWVStLcTFLOXF2QXBkYnM2Tw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B21" s="9" t="inlineStr">
+      <c r="G30" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19CT25XdnJ5TVg2TXZETDh6cG9lb1RzalVnZW1PMW1JR0ptODEzenBPV09pS3lQRHcxT3FPUWFFanJ0OWJvTkNQNUhZRXdzK2M4TCtzc1RVTFdkNURpQUJVL1ZOVWZ0WFpSSlJmT0hBdFphc0lhZFdLRDdDZDJSRzJ0WThRSGFxQlpQT1d0NU1ETEEyZlpwMmNmb0RNQ0NhZXUrcHBCcVZhZXBrdzNxYzZtZlRGRzBOTVNvMk52QmoyNkd1ZUlOS3RBNFR4MldFYw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A31" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>Palace could rule on MB ghost employee scandal</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>Niña Myka Pauline Arceo</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G31" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19tSWFaWU5zOXhhWFF1MXJFK3BFY2RsMldKMTZEdVg4VUx1M1BGaVVZZDhWTXhsMFNDYy9QbFZlMTM2TGR0bkh1Wi8yVGZqN1l3Mkdid2ZQWTFrNjRadHpya0ViS2Z5WWVzUmppc0hVWGwyRlZocUFGeWxyWnFvNS8xR1NJVHoxNVlaakNTZDlSZmo5TnZCNU5WbERGa1JSaEhGdWJmY2xYM1BiZ1dLQ2pMREp5NHJveVUza0c0VXQwSkZEQUZ2RDMxMURPUUg2Kw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A32" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times</t>
+        </is>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>Remolona: BSP unfazed by peso’s drop vs dollar</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>Niña Myka Pauline Arceo</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G32" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xaHJQM2ttc29XWXlJd3hJd3dqRjR1eC8wOEZZckJ5Rm1OdDZJUllrc2FEVW1FTXdQRnRyZXYzdFo3RmFCR3lNaGRsRGt1bUNpbFVZcGFjTTViS3pNNUg1UXJ2QmRiSFJJV2tnTkRaUnVESmQyQTc2d1AyL1BJQkY0OVdZcG4xcEM2ZkUwbWZyRDJvbWgwc3dSSmNxaEFZaURnbHBSayt4bjNEMW9nOTg1d05BN2pkVDRwbzNtK0NTVE9mcEZSb0V3cXNBSzBtTQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A33" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B33" s="9" t="inlineStr">
         <is>
           <t>Philippine Daily Inquirer</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr">
-        <is>
-          <t>WANING CONSUMPTION FEARED</t>
-        </is>
-      </c>
-      <c r="D21" s="9" t="inlineStr">
+      <c r="C33" s="10" t="inlineStr">
+        <is>
+          <t>Gov’t back to fiscal surplus in April</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>Ian Nicolas P. Cigaral</t>
         </is>
       </c>
-      <c r="E21" s="9" t="inlineStr">
+      <c r="E33" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F21" s="9" t="inlineStr">
+      <c r="F33" s="9" t="inlineStr">
         <is>
           <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hMU1SMEtldmhmdy9TdnFWQlBVNUJhNHZnTGtmSE1OU0ZaczRCd3NJY1FLN250RXVwKy9rSlhyMnllWERsWm1SYWZyMENidXh2UFF5L3Q1RkhQZklWR0pNczVDbW9zWnBSRWJLYXFPYTVCTWpwbVJWb1kzZm1uTjd5Z1V2THVvRUxTdGVUUHpGTkNieGJ5cnMxcStsS3EvalpudFNQWUVQbGp0cFpUU0FEZzhTNHlzaDc3YmtIMjBDdksxYlBBZWxibDQxUmpRRg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="225.75" customHeight="1" thickBot="1">
-      <c r="A22" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B22" s="9" t="inlineStr">
-        <is>
-          <t>Philippine Daily Inquirer</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>IRRS FOR ITA, TATAK PINOY ACT SIGNED</t>
-        </is>
-      </c>
-      <c r="D22" s="9" t="inlineStr">
-        <is>
-          <t>Alden M. Monzon</t>
-        </is>
-      </c>
-      <c r="E22" s="9" t="inlineStr">
+      <c r="G33" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX180VDk5OURwSy9sdWtReVRhTm42b3ByQ21TN2tVd0l2TVpYQmtNMzVDNDVnb25JVVIrbHE5b1N3eW5jYjdEc0xIS0pBcVVlYUkzRGpnK2ZTbHdIYU4wamppOG1Rc0c5SEc5TkZVNkRiMVRiL0VNM0d3VjRPZndXcDQwVksxdEhqbXFMV3NFeWkzdTE3dWt5RGlRZjd4cUNSLzNOeS9BaUhpWWRWMjJMZnpvckxyRy8xd1JjS25GdC9hYmJXajdIeFdJWDFhNy80Zg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A34" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vista Land income rises on strong demand for projects </t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>VG Cabuag</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F22" s="9" t="inlineStr">
+      <c r="F34" s="9" t="inlineStr">
         <is>
           <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
-      <c r="G22" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19QanpvdE8xekNLcEhwWkZ2RTBGeXl1c0x0Z2ZxY0svTXpJd0ZaUGFvRm90SFBJSXBkZ0NVek9lRkhmR0pLNmMwc0FzZThBQldXcnNrdXg2WktISGYwblZKNU5INGpYY1c2VndYQUdrSGNTN0x4L0FKTHoycFFoZ3FTMFU2cHV6TEErZm9KOHA4TEpkcnpid3NBUTAzQUkwQmJvVi9JZlZjYlQ3MDJiMlZPL3FOSEhEWFJFQ0tmZ2lVN3VhRFRTU2d2VGJCMG9jeg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A23" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t>Philippine Star</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NEDA supports stronger NEA role </t>
-        </is>
-      </c>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>Louella Desiderio</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
+      <c r="G34" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19HTWZSYlpqT2QyZTcwd3M1cEFXdzF4T3R3Vzd0Z0svU3oyWk5WdnEySk16QjVKbTU2d2NIN3FHUTVKOGlwelM5KzBMeEVaR3VNdXJRMVJQdnFFS0FzWUtVZVNmdUFKTmFNclU2YVJwZFJDTHVKZHpORmZVQlp3dStRK1B0Ri9EaG96QXBkUWNQWThSUFJxekNBZGNkclRpVDVpbVlJN2MzYmg3NXN5bFdSRTgwT3VZYTUrVjF1SEZySVgwc2FLSXBnT3hIN3B3eg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A35" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>Manila Standard</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t>Gov't posted P42.7b budget surplus in April</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>Darwin G. Amojelar</t>
+        </is>
+      </c>
+      <c r="E35" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F23" s="9" t="inlineStr">
+      <c r="F35" s="9" t="inlineStr">
         <is>
           <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
-      <c r="G23" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19JeXd3NGYwZnBIdUIvK1Vqd3VTcnhObzNTNDZJTnpOczcvbkJ0T0x1K3dEb0dCazNRdmlpeGs3Mk44NitaQ2dQTXJ6eG9kTEdlaklrTk1IalRVcmRlR3dsK0tveUFtanYzOG5CU2JCRERMSnJTN3RRU1RGak5XbVE3M1gwOUgrNUJKaitYOU9VYXArZFI0c2NOMU1QVVRHUURnODdFSFp6OC8rQ1VqSndrNGVSOEcxRWt4eFdTWU5NWlYrQVFwZkFyLzBLNElucQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A24" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>Manila Times</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Timing of BSP cuts uncertain – analysts</t>
-        </is>
-      </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>Niña Myka Pauline Arceo</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
+      <c r="G35" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19PQ3gyU1g5TExtSklqSUg0anZQd3pnb0RHdXhZd1RIMXNYZWxBclN5cGZOVmdKak0xTlpoeEZlTmJoeDdhcWxnZFNpNzhreTlKOVN0Z1RhTEN3ODdVVmlrN2o4Zy9CaVlGN2NGMGlPcm9iL29nSWhYVkZMKzRGTDdPYitaVzR6YUlSNU9obUNCNThMK2lLMEM3Uy9Qeno4bFBpT2J0bm9JSlJ5aVJSTkFTR0xCOWgxUXRVS1RCWDVYTmlDYzhGOXQ0Skd3VEZDRQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A36" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>Malaya Business Insight</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>US FUNDS STUDY ON IMPROVING INTERNET ACCESS: Proponents tackle projects for Luzon corridor</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>Irma Isip</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F24" s="9" t="inlineStr">
+      <c r="F36" s="9" t="inlineStr">
         <is>
           <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
-      <c r="G24" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19TcW9KYTdUNEM3bkZqUnVKSytHekxQdWpmUytGZncxL0xURDl5bTNTaWNZeklWU2xPSkQzL2p2UjN1Smxtbkgzemp2TXEvY3hwQVp4cUxDM00xV2xSckgyeUgyejE4S3NVQk9JUkp2UXJVSlBndFlITEptU2pWVHU1c2NSVGRyU3pabVNpek1QQVBFdmRlTjB2NHlTRDVpSmZwdExWZm9COFgzYzVmK3ZteWVxZkN0c2Z1R1JlVEJqUGowYWxVWWl0cFVuVENLaQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A25" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>Manila Standard</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>MARINA secures jobs of over 55,000 seafarers</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>Darwin G. Amojelar</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F25" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G25" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX191OXZXcmZrYlozOHhhdjkxaGY4dGE2RDNEdXlCdXY4dTdQRkUvd05QbmFPSVFyMElrRGxrek5sQjBxWGVCNE1xT0xobDFJMmVjaGxacGJRUzBvQUwrT3Bsb1VsSDNUUnpwTGRtN3dsZDZRalBjWUlLbmhYQkNZTzhMWWQrTXNDL3Q3SEh3WmdmWlBOd21US0hVUEx5aXRseVBFZ09YUEZYSTFQcnhpRmRoYkhwejY3SGh3UTlnQzVuVEU2UWlJVXkrMGVWZ0diZA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A26" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Business Mirror</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Alsons Power unit to shut down plant in Zamboanga</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Lenie Lectura</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G26" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WWTNtalJOZEVGR3lrSW9odGRNM1RWZkJFVXh5Nk9KdjV6Y3Rwall3eG5mMEZ0UDJDNGxlUmJSbXlUMzU0Z1B3M09zUHAxZFc5UGhLMmQrQ0pkYVl6YkVtT0xpR2lva2JEZDdUSUNITGtBNks3L21zU0xLeGZWbG01bFNuUjRNVWFpemNVeHIwYzJlK2V0dHdTaWV2eCtERFZxQUVidUNzYXpkS3lvZURTZmhtUVlBSlpyakp4TklKS2ZiRzgvU3VScVlFSytacQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A27" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B27" s="9" t="inlineStr">
-        <is>
-          <t>Daily Tribune</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>DTI chief seals Tatak Pinoy IRR</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>Raffy Ayeng</t>
-        </is>
-      </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F27" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G27" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nSHlROHpVNkxsWm9zTXg2RGlBMElFUE4xa3RwY0ZBekRNNkZzMm1kQTdkeGZmbTVHaXlNMVN6NjBPbTNSU1pBTkxybHFZaGQzRUI5S2tCYmRFaGwwT2RUWUZzL1U1TkpPeDlRMmlqOVBhOUFBOTdZUHZjTWtrSGFQTXJXVmQ5cmJnSkRwMXR3SGtTdmFDcmNTMWJDNVorQ2xnelpORE1sK2ZpMWtKTHZmeVVGME13U2QxU3BBSER1bGx4R1dXdnpxU3ZRYzZicg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A28" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>Daily Tribune</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>Hey Good News!</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="n"/>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F28" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G28" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19JU3BtbXEzZkhvMGxOQ0VrcnJVVE9nNUthRUFnbVA5TkVjS2ZrOElBMUorRDNRUjN5WmZSMHNBczl5Q0ZHSlpRMFE5SUt5SmNpWnJWUHJmaHprYlNjWm1RYU1Jb1J5eU55UHFFRkJHOFE1N3Myc2hSVmpZNlFmdG5nYnQ0aEhGVUMyZS9JaFoxYlBxQ3pFZXg0NjZ3ZVcreEc4OGRNb3lWWld6M2dWZmszaXlLMHVuZnpLaFhYODJVV1luSlQ4bmk4NFlLcUY2cw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A29" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Daily Tribune</t>
-        </is>
-      </c>
-      <c r="C29" s="10" t="inlineStr">
-        <is>
-          <t>Tricky immigration questions that can throw a lawyer off (2)</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="n"/>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F29" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G29" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19IaFdub1VZdDZaODlKOUtHaHpCcHlYRWQ4U2tWVXpLZHN0QTFFT3h1MVRGU05RQy9POTBCem1TK1pYekJEN29UeFJjT0pza3ZuRWNlT09SZ2xjV21pb0xEazZZQ05tY0U2b1hxbkNlZFVlL3Q4dFZlYkZIRnpiMFJNZEhPdTJUSHF3WEEwT0FkOFBOaE05NGtNMGM2eGxhVGVURGFZVXE3MDRPcTVzQk13RXk1RUVudWllL0hTa0JSRUNQL3RVYU1SaUJYd0JPaw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A30" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>Daily Tribune</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <t>Growth strategies unveiled at Aboitiz LeadCon</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="n"/>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F30" s="9" t="inlineStr">
-        <is>
-          <t>TODAYS BUSINESS HEADLINENEWS</t>
-        </is>
-      </c>
-      <c r="G30" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX195YTB2RTl5S2hSdklCdm5RM0ZneG5BU2hianZqUCsrVUZvbndYYktwcmsxK0hNR3I4V20vSUljaHNPY0FzbG9QaFNjb3ZWVmZra0RKUi8reTYvM2hJTHhLNXNBMml0Z0hGczN2bVZBQnA5RWdWWHpBaXFtT1JnZGxkU1ZseXRMRmJmS2xvVXY2VklTL1hEUUpwdDF2NFJsSFhpMVY0U3NMT2pLMWR5c054TFM3RGFXNWIyTVlna1RtNnNKcndnb1VydW1TbnVySA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A31" s="15" t="inlineStr"/>
-    </row>
-    <row r="32" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>AUTHOR</t>
-        </is>
-      </c>
-      <c r="D32" s="7" t="inlineStr">
-        <is>
-          <t>PRINT</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F32" s="7" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A33" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>Malaya Business Insight</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <t>GCash facilitates remittance, bills payment abroad</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>Myla Iglesias</t>
-        </is>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F33" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G33" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX184Z2ltWTdpMzRZSWtLNU03SW9vWitOeU03MmxNeXNGRDBpYXhPN0FkRmlBUndpU1FITnQ2NFhyNmtqUjlrcXdUbVRiYjdGWXlJRVBVaVp1Y203NkZOWXM3RnZFWnBkNVh2bk43SE9CSDlvcmRjcnVLdWltTVl5U0l5UTBvNnEwZlNyS0czU0tJL0NxMkxWNlFQWnRSMlRXK3ZIajNGSWZQdmVsU3EvaTJXdHRxNVhFWWg2YzdXa0Njbm9YWUZUMU8xRDFVdVpCRw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A34" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>BusinessWorld</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cap on creait card charges now up for review, BSP says </t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="n"/>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F34" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G34" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nNXZsYVQ3OUc0dzlueENFamQ5TjdrMW5PL3hJVVdaZVNEa1J6TmdCWllzMjA3U2ZkM3ZLM2hkb0ZaZUZma3JmbmZERldSSWIwa1dscGtkYXVPZE4wbEg4dE1DQnlEdDNqRzU2d2hINUw0OFhtM2lyaGFRajZjSmlRSUNRb0ZJTFkzM1l0WFp4dldvZFF4WEZVaUtGS1ZZVTZHSFlIOUxtRlBmdGhCbEEzcHBXMWRzckkvWHBpM2JvRjliNEF4V3BwOGpDR2s3eg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A35" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B35" s="9" t="inlineStr">
-        <is>
-          <t>BusinessWorld</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peso rebounds on protit taking </t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="n"/>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F35" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G35" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nTENjRzJoQnRORmh4eG5hMWo2dzQvTnlpOUF4aGJ2dzY5Ny9GekNDTkNFcDJya3Awby9DVWZwd2RXdXRIbVNHOVY0UzZnR1Q4cmJqZ2MvdWJORTB0YUpvK0lZUWEyejMyeXpWR0VSS3JoczQ2N2ZqdExSbWNjays4ZWNWcUp1Y0ZYSTJ3TWd6YVFBMjR5S1hydzY3SDFyU0R0SmQ5RkF1TzRId2lMWlNaU0pzeXUrczc5V21UZ3htMmQyc3JBVStSRytyZ0F5Qg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="135.75" customHeight="1" thickBot="1">
-      <c r="A36" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>Manila Bulletin</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="inlineStr">
-        <is>
-          <t>BSP requires report on payment system's use and compliance</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>Lee C. Chipongian</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F36" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
       <c r="G36" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX180ekJ4RzRRbCtzVWtvZkYvYXNVa0s2N1FRM2p0K1pXeVBBZHpXRU54K2hkSk1mZGoxNWI3VGRFWlNQNUdsTzhZZUwzNVJhcW1aWERzY1ora1hqN3kyV2cxc0U2c2lUQmFZMXhNeXU3M0F5T0E0c01FSjNjQW4yaWNJT3hObU1yYmF5cWg5M3NjbHhBMDhNcUlMT3RSZURQd2R0L1Y0TzRvNmhYVUhlYk1XT2tYTXNhclVWdjYwM1g1OUJuTTRRMUdOMXI0TVQ5WQ==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19tczFnZ0JYSnM3YlpRdkFLeVA4VVNRS3NsY3FBN2l5dWVFbjBnRDIxOEkzMmJNK1doSmF0LzFsclB6N0hWeDVpOGVldVh4TWV1OFl5TGhSUi83ZFg5NXdONjZESXJrcHB6RzFEQmlRTWFCUW5yRjNPVTdqTithN1pTVU1zSFByc1ZGNnNiSEQzYmVEb3ptZml5QURwQjlWZ1RxRklSeDVGbVRha1d5eVMrRnNHL1hEL2xKYVkzUzlNMThZZUhtQ3cvcGExeGE0OQ==</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1962,12 @@
       </c>
       <c r="C37" s="10" t="inlineStr">
         <is>
-          <t>OF SUBSTANCE AND SPIRIT: ₱58–₱59 per dollar: Déjà vu?</t>
+          <t>Romualdez company buying mining firm for P5B</t>
         </is>
       </c>
       <c r="D37" s="9" t="inlineStr">
         <is>
-          <t>Diwa C. Guinigundo</t>
+          <t>James A. Loyola</t>
         </is>
       </c>
       <c r="E37" s="9" t="inlineStr">
@@ -1918,30 +1977,34 @@
       </c>
       <c r="F37" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G37" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19ZZjFrUlZtUTh1MHJzQTUxR0w3cTQrSGtPQjFrMkxaajJSVjZoM0NvRmV1WStId2Z1VGtrektaallMV2hQQWxFcmVvMXZ1VjFJV2xNZEFVZUlQaTRKTGd5Wi9YQ2lyREJDeGJjNW9ySzk5eUdBbkxmRHE1a3g4cmZaS1p2N2FqZ0JKbGlKeXhycy9GL2NFSG5jblRyY0lxTVpBZHBicjZXaVpoTXlML0F0ZUJheDgxbTVaK3FUKzNiaXZCWU95S2ZHN0RYdVZ6dw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="18.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18zU1h0R1c5QXVNcjdkTWRtZGNpZTU4djRHM2U2SXpqWjcrL3ZNb210VWl6dmM3bzZnYUIxMkdxT25ZcmlYbkl6VGZPWjB4amVsYThSUzUyVlU1UHprRlFmL285di9NQUFFOEJLWDNNRnV4L3A0cWtVNldXVkdYVlljOVFZcVRaZmdFVnVRZXY3bW53VVY2NXZocFd1QjA1VDZnK2hPbjZTa21YaE5rSTEwaytmKzVmNCtEaHJxUWF1MWE2bjFaL3d2VDdiSnArNw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="120.75" customHeight="1" thickBot="1">
       <c r="A38" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>Manila Bulletin</t>
+          <t>Philippine Daily Inquirer</t>
         </is>
       </c>
       <c r="C38" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUSINESS OPTION: Setting the path </t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="n"/>
+          <t>LANDBANK EYES ITS BIGGEST BOND SALE EVER</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>Ian Nicolas P. Cigaral</t>
+        </is>
+      </c>
       <c r="E38" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
@@ -1949,32 +2012,32 @@
       </c>
       <c r="F38" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G38" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX196aW5EYjYwZ0FjSElabUx1VTY5VHhPcFE3L0FDZWU4VW1uSUsvOCthTVd4S0dLRjNPeFhDNWgwNlBBK3o0LzRtS0VsRklCZ250Q21rRDlqSTFyb3Y1WG1nVWg4ZUhZN1ZWak5lUW9DQ05qVHg0eExZbXQzM0Vpb0pBNTQ3aFBUTTF2QVkwUkE3YUVTSHNhektQTVdIcU42ZXd0S3VtMHlkTnNxT2VUei8zelUzK1FkdGVZc081ZUFOSVpYMjhpTGpndloxbDVmcA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19mdWtZeUxseVhwZ1ByaFRSZ3VqUFJEazlXVjBlYVRtekV0SnJWelJFdmlmZ2RlU1NROHE4OFc5SGpXUjQ1RnRGN216NmljTWdhRndTMkpsU0t2cE5FZmlhT04vNS9TTS90RGdGaXV5SFhYaHBSR3ZZRW1xVXNtNnlZenpiOG9JNFZGZUo2MDUzeGo4djNTYnFXdTd2R2ZvTm5HVitJYk1xVDR2MHhvSXhZU1JFYnc2RDBUTFh0dVhNcXZZYmorTy8zek1UTWZwRw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="105.75" customHeight="1" thickBot="1">
       <c r="A39" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>Philippine Star</t>
+          <t>BusinessWorld</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr">
         <is>
-          <t>Landbank plans record P50B bond issue in Q4</t>
+          <t>Yields on BSP’s term deposits inch up</t>
         </is>
       </c>
       <c r="D39" s="9" t="inlineStr">
         <is>
-          <t>Louise Maureen Simeon</t>
+          <t>Luisa Maria Jacinta C. Jocson</t>
         </is>
       </c>
       <c r="E39" s="9" t="inlineStr">
@@ -1984,32 +2047,32 @@
       </c>
       <c r="F39" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G39" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19yS0ZiaXJDZUJrVHR1Sm04Q0g3djB6dGN4cXd3MUlHUDdHcVN2LzBNelZNaksrOUlUdElqcTBHUE9LL3FxcVlQUHh0Z0svRUlZZUdaWXV1Z09IRWNqY2R1MzhxOFZMTkRTMDlobE9PYTV1Zk1JSVBzQWQrTWNvc1hEdlRyTmdXRFRud1oyc25VZTFHNWQ1TmM1ZWZ3VnYrUnBsbnZKVWFveUpsM1FCZWxYME5ZWEc3eFhib0dFWE5yRzdpWXExWStwNkc4Q2kwdQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="105.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19XcXZxMFpieElWMjFacHFVM1JvdDduc3A1UXpqNXltUUg5MWc2cklveEVBZkVEemRCZXRoNzZmYWpGTWpwSHNjdUJmYVc5UVBYbUd4aUVGODZxNlBHdFFNbzZzK3M0dEd4WjZMeXdIUVBKR0FWTFBTZFUzS095aTdYTUJWSURMaWptRG1vZmdoR1BNVHJOZ2IwZ1k3eEpPNzRaUElIbDlkYXYzRXNqeWV2dU5WYWdDYlgvRFVaK3cxYzhNMjROcE1rUTM2N2hhaw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="75.75" customHeight="1" thickBot="1">
       <c r="A40" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>Philippine Star</t>
+          <t>Philippine Daily Inquirer</t>
         </is>
       </c>
       <c r="C40" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">BSP yet to finalize credit card cap review </t>
+          <t>Biz Buzz: Ho steers the ship</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Keisha B. Ta-Asan</t>
+          <t>Meg J. Adonis</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -2019,12 +2082,12 @@
       </c>
       <c r="F40" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G40" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18ycDl1c3ZYbnRlbTlRMGpnOEpFUGUyUytoUGJidDRHWFcrOHBqWGNsVGZmWElvZ1ZOcDR2UVFxZFBqTGNUMUdkYUZvVzh6emVEQVBCUStSbGdnVFMyak4vWDlTd0F2cWQyR0loNTBqT2NjdXVBYXZEb29LRk53dCtqT1VSNDhRTVFJdnBERW5PZWdsMlY1V0xTdlAxQjhZS2IrNkpjcERhcFBBSXJkK1g3NUd2cmZ0OE1BQ1RhdWtQemQrQVlUbzUvbmdqcW4yUw==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xR2o0Nk5kTXZZTSt6cE9Wc2F1WHZPRHRDSnhyeHRVQXBiTktSZFBnK3lrVGpjckRLazgxTHZLTmJTQlRrTUdMQVVML0N0RnpWejNra0VwRzk4TitGTktWdzFWYks0RlZwMlg4YXlsdmVrOGlKM1p0dzZUZGx4THRKaXlUcjE5MXozc0phVUF5dXhHT0ltb1JDcXNGeDFldUJISVdnUkcvZUpaUUJySGJKeFdKM3h3TUNjSXc2VEhzZHpyRFFxaENvUnNSTFpCZA==</t>
         </is>
       </c>
     </row>
@@ -2034,356 +2097,376 @@
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
+          <t>Philippine Daily Inquirer</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Biz Buzz: MVP with the stars</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>Tyrone Jasper C. Piad</t>
+        </is>
+      </c>
+      <c r="E41" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G41" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19ZQ1l1aFg2VElGb1Q4WWJOTlV2RmRmZHMzbitBcjFIVldrMHFTWm9oNFZQVGc2clFvemY1ZnIxalpzU3c0UFJBeW0wQ01NRTc4Sm1sSW14TjR5QzFheXgzQjhJNkIxeEZyTnF3aDJJWXY0V05PNU9FQ2QzdjYvTzM3bFk0OVpaeVNpckZXSU93a3Z4S2srYzFMNlR4UGMrLzE1bDU4bFBhczg4UlNrWmF3TlRnay96Z2w0M1RzN0s5RHpuV2Y1aW0rL2hjR0lhQw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A42" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>Philippine Daily Inquirer</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>WANING CONSUMPTION FEARED</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>Ian Nicolas P. Cigaral</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F42" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G42" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19YRTBrZW5MSnhIN1N5ZmorVjdpNFpzb1BxWVl4TldpcDJWeEpCcjJqYVYxNjhPaFZJV2dhRTFxZllJODV5bGhsZzdsT2gvRUVMdHFwZ3BaZHM1Snh0dFVibWVmb013YlpHSndQUHdhOEhFdzlpWExFOTJOL0NIbUc5V25VVXB3UXJESW1ZRzJyTHJIY2lUUkx4TDZkMmtFdlRvc0pGSjEyVHRCUzNua1BaL0xDdHlXUlpqVWpacXY1Mkw3TE5DTG5hMkcveUd2OA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="240.75" customHeight="1" thickBot="1">
+      <c r="A43" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>Philippine Daily Inquirer</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>IRRS FOR ITA, TATAK PINOY ACT SIGNED</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
+        <is>
+          <t>Alden M. Monzon</t>
+        </is>
+      </c>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F43" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G43" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19DbkY4WkNPSC80bjNZdGFEVjhMWDV4dUFlelZsUThYNE5nZFZxZmNOMUY0Wi9ONzZtMS9BOTBYc3ZNUWNlb3prWk1QS2hzUzR3eW9xNTdCY2pWK3pFY1ZlOVFyZlI0UW1sc1UxY3hRQmg4a0luZUV4aEZRb1NOQ3lNVTJlN1ZPcE52MnloZHhpQ1JUT3hqZUo3c2tjTW1XMTk4bHR3MkxTcFNSRUtoMFdTY3pFQkJGdWNuWUwzdVBqeWRVbmVYSTEwcW9VT294bw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A44" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>Philippine Star</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NEDA supports stronger NEA role </t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>Louella Desiderio</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G44" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hUHF2cG1UYTh6bGoySE9EcGd6RXZpK3oydlRwWEo4NzF5d2ZEb2htTHgzZFl4NDY3SHZvRjhCVFlHZUdWMnU4dlp0Q0ZodExvYXhDcFNJOUZwdHNOelpkSWJienptR2JZdGppVUVLa0VrYUNoTFNrYzZ4aUMxeHo1YmYyRmlPWmM0RWFONVpCWXRYOUVNUldwNGRqLzRNc0J3VFNDWE1IempJeTN3RldkOTZjQ2RxaGJSSDk5MTNCTStGNGpxOWs3TkpyWjg0Mw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A45" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Timing of BSP cuts uncertain – analysts</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>Niña Myka Pauline Arceo</t>
+        </is>
+      </c>
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>Broadsheet</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G45" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194bXYxdndhYmN5RkNwNU8xM3VJU05uQWlvMHN5RlV1L1lMOVd4d2ErUFVaYk1QdmQ5RURjQVlmUmEzUGdTcGtWdHhmeGN1aG1GSmoyeFhnek9sdXhhOTR4LzRad29pZjVBT3BWOVdNbExaczlLTGF6OTV2ZVJ2cTZzblBwNGRxUzlxQklJMTdVWHk1dnhnVHFuRmp6NjVrWUZsaG5XcTJaTXU3cEsyUjZEeHFDZFgvVGdMSHhMMjZreHIxYUJ0dE5xMjZaMjIvaQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A46" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
           <t>Manila Standard</t>
         </is>
       </c>
-      <c r="C41" s="10" t="inlineStr">
-        <is>
-          <t>LandBank to adopt QR feature in cash aid delivery</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="inlineStr">
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>MARINA secures jobs of over 55,000 seafarers</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>Darwin G. Amojelar</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F41" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G41" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX190RWRnM0RwZmtsbUZEYlgvVWpoWVByWDlhVlJUU2kycndOcENCaWZVTXJacksra1NqK3NRaVpDSjh0aWYxdGVWY0VmSGFqVkZTVllGeENKSVQxdkhzVjRnUzV2eVNUR2VRTUdXY1g3RlBZRUtMSUlRbHBoZkwzZXBwdEdtYjAxc0NvajlGSkxPeE1FTFdBT0U2WHJReTEySk1TZVlYUnNIUExsVGp3NzU5UE5GTjVtbGJibmdDWENMcnNlMEdIaGVDSjBTY2Q2VA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A42" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>Manila Times</t>
-        </is>
-      </c>
-      <c r="C42" s="10" t="inlineStr">
-        <is>
-          <t>Peso regains ground but PSEi drops anew</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="9" t="inlineStr">
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G46" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hM2hiZ0ZaYk1OclUyVzFvMFA5SEFPTnBpUTQrU1hzVzVEVUdoSWhMRjl6WmcxNVhtTHNtamJCYStjUlJscEJBMUlpVVRKSUtRdmhOSXdxeno2UlVqWUVYZ1ZwU2paYmlDUE9OYlBaN2w2TVU0bVBwOHJHMllyR2JOWGp5NU5aNzlYM2hTRUNxWjNHWnpvcURLd0RLYUZlM2hFN0tibUozcFpITW1CWTBXL2FmMWRIZ3licHZldlpWMks0UCtYb3YrL2wyMU9hdA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A47" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <t>Alsons Power unit to shut down plant in Zamboanga</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>Lenie Lectura</t>
+        </is>
+      </c>
+      <c r="E47" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F42" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G42" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18wUWJOdzU2UmhnaWRrV1dxek40WFovbFRBcUFLMFllZFZYeUxjTmN4Tnc1Z1M3cTM1N3M5dklCbmdwbjd2eGlSdGp3OGx5UDJ4SnRZdVRnTnYwSzByTHUxTDhRREw2VzA2cGlkVlZpbjl2SWN4Y0RVQW9JSWZyMlZBWWE2Q2VpdCtocVA3dG5EQ21LVitzckl0THUxTWNmV2xDamZmamtsWnUyMVlCUE9vRUhYNGY5T0NkS3dmZHBTTTJqRDdTOGEwMlZjc3IrTA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A43" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>Business Mirror</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="inlineStr">
-        <is>
-          <t>OUTSIDE THE BOX: The peso depreciation</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="inlineStr">
-        <is>
-          <t>John Mangun</t>
-        </is>
-      </c>
-      <c r="E43" s="9" t="inlineStr">
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
+        </is>
+      </c>
+      <c r="G47" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18zbkhzcUpMTFlmNCtTM1Rvd0ZON3g0TU4yUzVGMlh5Vk9MSHRINWtJR1I5dDVaL0MxUGZKQ3o1VlpETDIycGlQemN1K0JrUnA3UUV6aGxUQkZXdnZBeDIrSmx6R3BFU1V6cU1HTS9hcGhaQ1BZV1JRa09mMEVIdE9XT0dKUzkrTElMY2g4bDl2WE44K21TVFV2QVlBNERDaXNza1ZYYXlQYkpIS2cyZmZvVFNWM2FQZ3ZLSnByaDk3UDNzWFAzbmN0MzFDVGdoNA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A48" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>Daily Tribune</t>
+        </is>
+      </c>
+      <c r="C48" s="10" t="inlineStr">
+        <is>
+          <t>DTI chief seals Tatak Pinoy IRR</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>Raffy Ayeng</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
         <is>
           <t>Broadsheet</t>
         </is>
       </c>
-      <c r="F43" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G43" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19aeVFGVDRPa213RlRablFybHJGWFd2MXlLTlFWdGROeGc0bEROZzVlOUN0YUNlWGRFbGJyU2pHcWNKMW9NbWJ0d0YwNTYrUnBoSUYwcWptNjkzZk1Ba29MOUZBNnE4cDFiaHp6SjJ4OW1xSGZETk9kNW5xdFBlNnFZeEdqaWZYRGhXVUFIcERseUxjbHY4Rm9UL3BwYU9ZbEhUVlcreWZZMVIrVXZ4Zm1XWVFheXU2VlNyeEhxZWxuRG5jb2MvMVFwaFFzV041Qw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A44" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>Business Mirror</t>
-        </is>
-      </c>
-      <c r="C44" s="10" t="inlineStr">
-        <is>
-          <t>LandBank taps Traxion for cards with QR codes</t>
-        </is>
-      </c>
-      <c r="D44" s="9" t="inlineStr">
-        <is>
-          <t>Reine Juvierre</t>
-        </is>
-      </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F44" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G44" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19qQVowY29odEtFazFNZkNjWk1PMHRmUXhmcVVQVU8wcjJvd0RwM1B1b1IvRXRKeXY2RksvMzgrbzBGdmhVcXBHRHhSR05wamtibytYbGg0TEVZUDRoaEhvb211UVNkS2g1S2pVUjNMWldBb2htVDJRRW8venI1VXV6TG0wOWlzVktqMkZuSjFreEU5Q1lQSE1wazhEMlNmRUJOUFliRVZxQkVWL3ViaGhBVGRsWmROa1VqWjNCbUxsblprRzk0Yi8xY1kzUHdseg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A45" s="8" t="n">
-        <v>45434</v>
-      </c>
-      <c r="B45" s="9" t="inlineStr">
-        <is>
-          <t>United Daily News</t>
-        </is>
-      </c>
-      <c r="C45" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peso depreciates beyond P58 to dollar during morning trade on in the 21 </t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>Broadsheet</t>
-        </is>
-      </c>
-      <c r="F45" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G45" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19NaTZaYjFDQS9heUpuTnRHSlQ3eUpUajVYVnNLamV4bXVhYVYxNytKeVVWOFQzQnFhZmhjeWhVNTJ4cWNPK1lEdjNLN0tMTGxzRWRNUXhvNXUxdjdSQ3hVaEZERnF1U1VHSWNudGVrektsZ000V0thUlQzT3pUV0VyTTh4TEpaN2locndoNUVpdHZLV2dYNXBYU2psM2tMbUtzQ2JBYnUyY0ViTWp1UXUrek5aeXFSbVlPUGJheVU1MmMwdXVpVEhaTGN3MjVlcA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A46" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B46" s="9" t="inlineStr">
-        <is>
-          <t>Pilipino Mirror</t>
-        </is>
-      </c>
-      <c r="C46" s="10" t="inlineStr">
-        <is>
-          <t>LOVE SCAMMERS NAMAMAYAGPAG PA RIN</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="inlineStr">
-        <is>
-          <t>Froilan Morallos</t>
-        </is>
-      </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>Tabloid</t>
-        </is>
-      </c>
-      <c r="F46" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G46" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19VRGNnOXVGOEhaUzUzbGUrZTMvS2x2VDgwc0tUNVhpWHB6c2h0S2QrdWxVL0tWNjJJbjU0bE9pdXdQa0J1YXREVUc2TEFCTWR1b1JIWGlRV0tnUFd5RVd1YXN0KzQ2Qkp2d0VsUW9TMmc2eGdUUE9vRStGYzA4S1FHeE5LaFcvMWEvaTczRlhQTUR2UHJuWjNLa1lDeUdNekZXZGdHTUx6dy9HTCtaVzcwWGQ0TmRnZi9LMXM5d2x6dEFsdEdlVmplNW54dTFtOA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A47" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B47" s="9" t="inlineStr">
-        <is>
-          <t>Pilipino Mirror</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr">
-        <is>
-          <t>PISO NAKABAWI KONTRA DOLYAR</t>
-        </is>
-      </c>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="inlineStr">
-        <is>
-          <t>Tabloid</t>
-        </is>
-      </c>
-      <c r="F47" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G47" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX195bU03SlExZGRSb1cwTStXM1NBM0NwZWc2T09reXZvOW1nWTNRcEhSRzNCSWJwaVQzVUlhL0ZMT0xBdTFLY2pmM210czZvUGhtNElMaVNNVm1EdnZoelpjWis2amJhZ3AwMFpOZFZ5ajJSQkk3OTRoT3dZOGROUDlSSzIybWZObTQ2b3FBZ05laExOQUdNWHRTUG9NYkc4d0VzNXJ5Y1dGY0FQMjdscXBFdVNvdlhLOVZWbjlUTTdBUjlyYldaYklXa0YrcjBVOA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A48" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B48" s="9" t="inlineStr">
-        <is>
-          <t>Radyo Pilipinas Uno</t>
-        </is>
-      </c>
-      <c r="C48" s="10" t="inlineStr">
-        <is>
-          <t>BSP, nagbabala sa publiko kaugnay sa mga text advisory mula sa mga umanoy agent ng mga bank institution at ewallet</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="n"/>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>Online News</t>
-        </is>
-      </c>
       <c r="F48" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G48" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WV2NMUWZ6ajBKZXppbEhmc3hmM3JucVIxbXd3NHRnVUdEMVZpZ0RhKzdRaWR3cjQ2QzdDOGN5YVgvbVBKcGdCb2s0YUUzeUFNdmR3b2prUmZkeGgvSFVKV1hmM1FtUjY2VGJBV2VKTFhvWEZQTUZGeFozeXdWc0RoU1N4VTRQU2lwQ1c1cUU0TFNrdE1GcG5BSGlpM2laN2RnemNpRVd3Qi95ckZsOGI3clViSXRPeUkvRXZHQmN1UTdvR2hSU2F5Q29veUhXQw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="90.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX182bkh2bWNHbW01RU5FNHpZdHhOTEg4eWRDRzFkblNYOVFzeXdwKzY0bFJXQnMyWVQ0Um5ISVFYdExieS94SWhHcXVNZmF4MXpCTUpTUlFyK0VFZU9ka1QyU0ZEbk5DdUhoQk84SGxybjVTRU5IQU5HN3FYWTd2VE5tNFFzcFZ4UCswWEp1WDFPSm9CMCs1WDJzNDhRN3VieGs2RFdqeE5XUi9BYmZmbGJEWDlteTdXdXM2SnhzaVlUTzZOR2xYV2d3SW9hMzBPag==</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="60.75" customHeight="1" thickBot="1">
       <c r="A49" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>The Market Monitor</t>
+          <t>Daily Tribune</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr">
         <is>
-          <t>Economic leaders meet Queen Maxima of the Netherlands The Market Monitor</t>
+          <t>Hey Good News!</t>
         </is>
       </c>
       <c r="D49" s="9" t="n"/>
       <c r="E49" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F49" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G49" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX183dTJXSWpxTFVWcTBjc3Q5bmJaVUY4V0t1c1FYM2JHVGc3NnpYcTBUcy82c2tsT2dhcjBKQk9FOTZQeS9adk15M1pYVzJhNDRERXhzWUtnYmluRi9hRTM1QVRySW5oQTJiZnNzZ2NkbGxkbXVyK3VJbDJDcENXVnYyM3hHUmdPeXNKQTczWHNEWkRaWjRhUlhEYm0rVTZxOWNheUhQWkdIRm44Yi85L0pzM05qVVJYQkNKbEluOE9wckF5WHNUSm5nTnpsNUFWeQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="75.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19vQWFpT3M0YU92MW9qV3daOElPZkxrbXpnTzBQSTh4UFpvNFV4SHFRalRCaDZQR3RDZ0srcXpIVWtWeEgrMkZndGxBRnE4V2UxZUtXbzJUeExRSDRMdlZ3WCtDWHRnOUN6N0ExMVlYdExHVkNLbTJMLzVkVDMrNkxNZ0JVRDg4ZHVEeDJxbGlUUHZSRzdOaFVLaE80YWJyMzBFOXNxdXR4QVROT3dKL2JqWkhGUFBhaHRsUGdKMi92dzlCWGFNbkxtU0hyYUZKdQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="90.75" customHeight="1" thickBot="1">
       <c r="A50" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>The Market Monitor</t>
+          <t>Daily Tribune</t>
         </is>
       </c>
       <c r="C50" s="10" t="inlineStr">
         <is>
-          <t>LANDBANK to adopt QR feature in cash aid delivery The Market Monitor</t>
+          <t>Tricky immigration questions that can throw a lawyer off (2)</t>
         </is>
       </c>
       <c r="D50" s="9" t="n"/>
       <c r="E50" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F50" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G50" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nYzdyREUxQTJucktlMFBsaHhXK2EwUEtpeHJXbTJodmlYUnIvUEh6cFNVRzJQaFhvcDVrMkRWZGN1ZFFmNGlzVmNoWFdycWtKTWRHS244dXI5aVR5VWxvNGZXVzNTc3dvTzlsMnpzTS9WdWVpcW5IOXdjWTlycUxMbHJ6a3gyYnk1anlJajZXN0x3QzJINXB0QWdXWCtnM1RUVFJIOURVdFJOUFAzMUdIakhtTE50dXo4ZTFBQWl6cW51SjM5MjNQSW5zTHQ5VQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="90.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX196S2VIMENuNTBVemZVMUFncSthc0VFWGJEOERXN3JEWHJlN2laNnhIdlhRQjNZS2xZeEttTnVQemMycjlVaTl4alBBUEpsbHFOb1g3dkNhWjJpeFgrcEV4eE1JaE94QVd0em5LM0tITnVjSTh0b0ZuY2hmVHgxR0N4R2hxekR5TUNXeXJQcktKR2pHMDhiVzVOTmJIRXBPazk5dHJ3NXp4UGxIVjF6OUEyNWJYVjM4TTVqRUFsZ3ZOVWNGVHNGYVNKeTl3alRTVw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="60.75" customHeight="1" thickBot="1">
       <c r="A51" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>Philstar</t>
+          <t>Daily Tribune</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr">
         <is>
-          <t>Air fares to go up as peso weakens</t>
+          <t>Growth strategies unveiled at Aboitiz LeadCon</t>
         </is>
       </c>
       <c r="D51" s="9" t="n"/>
       <c r="E51" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F51" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G51" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19XTW5KbFhJNmVDbUZ5M1dXSlJnVEdaMk8za2tTNVVrSzV2NFNXMEVuQ3NVL0dLRVVCeWNJcHdnckUxeUFoMWJFQ1EzcnoybWpoQXB1TW4raHpiVkdlOXI5V2FxbitST01LQmhVT0I3cXgxUmlPNFdNaXBUeHoyRmNtM3czOWZsdDZDNE80U0pIWW5PQ2w2MHhFdWhLSHZWNmlOZkRmakZ3TmhxaUVPd1A2S21VcWl6R1RDdXBoK3J3aU5rTlVPbzJoalFWendpMg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="150.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19jT1hSdlR3ekdZc0dUakFaek1sSzlyRFc0QjRXbXQ3bjEveEkyV2cyWUovb01rQ2xMQlE1OWU2SmVZZzExRDlaVkk3Tmd3ek0ySnJaYmJzUVRZRUNwOGVWT1NzaW9UMENJWXd1YmNKUXllb3JvbDdUZTBVY25BUStSQjVhbGdSRExZM0lwaEVVK2E2bmNuOGFKKzlWeHU4SWFXc2FRYmlxeUR3Rng3aXVKcWMybDFzYnFHY1hlTTZvK3hTQ3ZuK01xVWsrc2d4bg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="90.75" customHeight="1" thickBot="1">
       <c r="A52" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
@@ -2392,12 +2475,12 @@
       </c>
       <c r="C52" s="10" t="inlineStr">
         <is>
-          <t>Landbank eyes biggest bond sale ever</t>
+          <t>BIZ BUZZ: MB seats going vacant soon?</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Ian Nicolas P. Cigaral</t>
+          <t>Cedelf P. Tupas, Philippine Daily Inquirer</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -2407,34 +2490,30 @@
       </c>
       <c r="F52" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G52" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19Fb0F6MU10T2VIc2VlMlVNTXVLRG94N3RxUEhiOHVON1V5MFpCUTVhYWxKWXpEWUVQeGUrTmVreUoyc01pQzJjRWJJa2piSUpRTWpma0wxUW1WcnkyQWlQT3Y3UWdReWVSMU1KSkxUV20zWVVKTVZoQ1RXMFhKVW5hQXFVQXh3RGNGYUUvanVibFQzbGxEQVg2OXpmd2Q2bkNoMzV5cmpTYkRXZ3dIbkpZWUtTL3dhY3pRWjdYQnBOQU5peE5iOEpjWk11TU1qZg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="90.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX182ZklEbTdrV2NyUnkrMWx2Y1QyZVQ1eGxpWjB3WER3VnhPQmU1emJVY3R4QittcmVKMHRyVDFkYUpqSm1NVG9lR005aFA2VFpVSWdTNFhsWGtSYlQzWkt2S3R3VmNORG5GaCtuZWJ3RDIyaVAwTTlpZkFmdVh5OFE2eHB4VnVxNms2S2VKU1k5bzhKKzNXSGt4TEFNUDRXTFZDZmRIVGVQUGEzcHdrTFVyNGpwWnBTOCtXZEM2UDhHaUJMY1YzTnlJQXBvNkwxZA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="105.75" customHeight="1" thickBot="1">
       <c r="A53" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>Inquirer.NET</t>
+          <t>Manila Times Online</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr">
         <is>
-          <t>Waning consumption feared</t>
-        </is>
-      </c>
-      <c r="D53" s="9" t="inlineStr">
-        <is>
-          <t>Ian Nicolas P. Cigaral</t>
-        </is>
-      </c>
+          <t>Palace could rule on MB ghost employee scandal</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n"/>
       <c r="E53" s="9" t="inlineStr">
         <is>
           <t>Online News</t>
@@ -2442,99 +2521,68 @@
       </c>
       <c r="F53" s="9" t="inlineStr">
         <is>
-          <t>BSP NEWS</t>
+          <t>TODAYS BUSINESS HEADLINENEWS</t>
         </is>
       </c>
       <c r="G53" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19Ianh5bVVSZkc2eTR6NWVSL3JtSlBjK21jM0thM2toOGNXWkE2ckcwa3Z1ZElHV3FiZFU2M2FJYTVhRjkrbzZPckpHaUxWNCtISmZJWHdLcVE3MCtxZXhCb3h4T2MyNlJuZER5VFpNQnY2VWFNbUlMTU9JQkI0bGoyT0hCQmJSMkJ4d2o4dTRMTnM5T2hHdjN3eGdzREI5SHc4RkJQbHA4NmlVSUJ3TlNicTBNNEFRN1p5bGpod0NTRVB3WlY2eEFRQ21tbkFKKw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A54" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B54" s="9" t="inlineStr">
-        <is>
-          <t>Business Mirror</t>
-        </is>
-      </c>
-      <c r="C54" s="10" t="inlineStr">
-        <is>
-          <t>The peso depreciation | John Mangun</t>
-        </is>
-      </c>
-      <c r="D54" s="9" t="n"/>
-      <c r="E54" s="9" t="inlineStr">
-        <is>
-          <t>Online News</t>
-        </is>
-      </c>
-      <c r="F54" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G54" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19DWkVOT0xrQndTamdUUDJTdWMyQzF3MkJOUlYrWFFnUWZtcitROFNGQU91VWJwM0IzSDhnSWZ2S0VPTFZ4Tk9XMDRkZkJGZ2o3KzVWUFIrZG5yYWpqQWRFRjVCbDVqeDk4Z2VVUG9CaC9WejRXUFJRZWtyeTc0RGsvQStUbmJ5S3ViS3dTeDU4RjN1S0pJWHFBKzVtSXpMQkR3M3phajVlcnhmNHVGZ3R2MjM0UXpqekUyVm82RDJMTCsxaFRRdC9Ea3d3Nnd2Yw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="255.75" customHeight="1" thickBot="1">
-      <c r="A55" s="8" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B55" s="9" t="inlineStr">
-        <is>
-          <t>Business Mirror</t>
-        </is>
-      </c>
-      <c r="C55" s="10" t="inlineStr">
-        <is>
-          <t>'Food, oil costs could rise on peso decline' | Cai U. Ordinario</t>
-        </is>
-      </c>
-      <c r="D55" s="9" t="n"/>
-      <c r="E55" s="9" t="inlineStr">
-        <is>
-          <t>Online News</t>
-        </is>
-      </c>
-      <c r="F55" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G55" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19vUjZjZXhyRFpwejZvVllvM2JHSHp6UFVRWWVvcDRBN2ZES1pBRlRJbTZFYTBhUjl6VWNlTWx1Q2JZYmwzRm9Sczg3V3pxZzQ3TURoNHQ0SXdRa0tCeUNzNThnRGVZeXUwT3daUUdQWDRSZjV0bmJIMU44Q0ZNSDVYbzJKQ3NoWk1lc1duUkJUQlREZFNFbzFZbnczaFllUmwyVVptNXRva3lLRllYUGZ3dEZKZllUNjFIRkU4VkJQN0t4V3hQeEd2MVpONC91dQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="150.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19iQktvZjc0d0N5U0hidm5IRzFOaTlNWnp2UG1Ielc4ZXlSTjRtdUtRbkhlNEUyRlN1TTVzK1NIeExvV3RXQjNzL3o3L0RkOTVkL0F3MVg5MmxEMC91QVo0UGZkSlVmNnhqY0ZPdXN4dnhheWtHNllMdXZiV0pCRE5RSUxTUlVnMVowa21GOVdOeUM2cHFZUHExMm4rbEpBemw5OStLQXNSMDRML1liWEg1cWtGTGU2UFI0Z1VOYlhRcEhVQVRORklLWHZCTVc5QQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A54" s="16" t="inlineStr"/>
+    </row>
+    <row r="55" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>AUTHOR</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>PRINT</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="F55" s="7" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="45.75" customHeight="1" thickBot="1">
       <c r="A56" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>Manila Times Online</t>
+          <t>United Daily News</t>
         </is>
       </c>
       <c r="C56" s="10" t="inlineStr">
         <is>
-          <t>HEADLINES: ExWescom chief says he made no secret deal | May 23, 2024</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="inlineStr">
-        <is>
-          <t>The Manila Timesjaime J. Yambao</t>
-        </is>
-      </c>
+          <t>BSP wants wider access to pension, insurance services</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="n"/>
       <c r="E56" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F56" s="9" t="inlineStr">
@@ -2544,32 +2592,32 @@
       </c>
       <c r="G56" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19VeEVFVVFTS05hWFNqMjRuMmpyNmY5TCsxOEVYeUFrc0JvRkVzV3I3bUNiVVp2UG5DcHRReDAzNWx0SzBWTXpJUm1oN2daNEg3SHlkc2VTb3crcHZxL3lZbStxWkFvRVU3MkFEbmQ2QkhKMkR5MklXVWhVeWo0Zi9KRTZVNkxmejdjWk44RHdtWUJ3RFk0TWVON2o3RGxNdEdIemJGVCt1Wm1TK3gyWUlBOHF6U1lCdTFpMXlNNjB4WlZDSHB0cUs3NWYrMHhlNA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="150.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19DNEQyWVZtZmc5QVcyN2tzbFc3R3RSU0NGUElaemhHVGV4UjMrNmx3bVg1cXM3VUNZb0REREtYV0liVmk5c0orUzZ1N1A0SHlQZmlmeVBHRldlcDVaOFhkVnYwK1hINlZaVFIrbVNYSFNpTDJOZmRocGlWSUxDZnVUMGpENDZiVUxtYTZURGVtTXFNNi9tMTYvbERWWXpZWG5tckNGM0NFcEo5YklUTGhZRGpOT3VtUk1wZmI2Q1d3VlVFRDU4RXMwZnJaTVNrcg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="135.75" customHeight="1" thickBot="1">
       <c r="A57" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>Manila Times Online</t>
+          <t>Daily Tribune</t>
         </is>
       </c>
       <c r="C57" s="10" t="inlineStr">
         <is>
-          <t>Peso regains ground but PSEi drops anew</t>
+          <t>UN special advocate urges cheaper internet</t>
         </is>
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>The Manila Timesjaime J. Yambao</t>
+          <t>Kathryn Jose</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F57" s="9" t="inlineStr">
@@ -2579,28 +2627,32 @@
       </c>
       <c r="G57" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19SdDNZZW00b1VFM2FLS2tuVjNCbGtIWVVjTEd5T0dUWXBZbEJCTHZiRTE4akdsU1JMUHRWTzJxaWYvRk91azhyRmovTWRPL1E4VTBycG5LM0wwNHJSQ3RyS2pNUFh6MjhhYktUQ2w5bFpTQktPazZNVXRzZWI3RWdxNFNFQTR6Qm41MFpwTGJteWZOMUFrSlJWY0RyU293cTdHQk1HM2hScGR4bmQvSjMvRFZVNUtJZlBEWEtqSkNoRi91Rm5adHAvTU5BTFZicw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="60.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX185TmJwT1JEclIvOG85a2NVZjdYb2VTSXlUV0JDYjhYaHpUVHp5Nlo2T1p5ZHVpYmQ0WXVlRURrSXpTT1QvakNRc1RBUlpJckJWRzduY1h2Mm1xVnFTMTVTSEg0c2lKcHBUT25EbDFWWmVxQkNMTlFwdjIrUmM4VGFYejAwOUhuSkV0UStLMmhjQTA0Q0w0WE9yc1pIcFdLbmc4d3RNTk5YL3czRWNlVGF5dWRYdlp3Qzl1V1hCQ2tqRTR5eXR4N2lVMDJlNTBSaA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="105.75" customHeight="1" thickBot="1">
       <c r="A58" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>Manila Times Online</t>
+          <t>Philippine Star</t>
         </is>
       </c>
       <c r="C58" s="10" t="inlineStr">
         <is>
-          <t>Timing of BSP cuts uncertain analysts</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="n"/>
+          <t xml:space="preserve">NEDA optimistic on upper middleincome status by 2025 </t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>Louella Desiderio</t>
+        </is>
+      </c>
       <c r="E58" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F58" s="9" t="inlineStr">
@@ -2610,28 +2662,32 @@
       </c>
       <c r="G58" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX192cXpqZTBja0dlekVuWDVCVWNJYVE1LzkxV0dJU1ZmUUpTbkJGMUtVLzh6NDRSRGl0V08xZ3RuVWY5YytLVHU0SGZKZGVOVWFNUHFsOUZtVnZudG1qV2RwOEpLelF2YVlmY29BbFRUNWh4Um84YmVQZ0t6YzIyaDQ0dXJIcURWREVoNWx5Smp5Y1grdndDY3ozRlBtaG0yWGY2d3dhanduRFpiS1pSZ1pNbzI1Qk1SYUcxKzJ2YVpUbDlYRHBIbVZRc1k5QnVqUw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="75.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19LV25CUzRWWlJuU3pmWXkzVEFKUW1GN2xrbEFhUGZCMnBaN1lxQjEyWm90VU96enFmVTh0djZRVHBzd05qdU5BdlZqK3BpYldObjJ4Yk4rOUNxU1pLRGJDYlFtemg5MUY2WU4vQUJWc1N0RFZSTXI4c0V3d1RNRVNOZHJMbmVpVlk2MjJUMUhDZGRaM3FYM0FEbmdKV0VkQWpJd2tjRm9ibGJ4UTBGM01xVkRwUnI3dlg3YUU0WVdkLzY5cFhnS2l5MDlPUTRsRg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="105.75" customHeight="1" thickBot="1">
       <c r="A59" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>Business World Online</t>
+          <t>Manila Bulletin</t>
         </is>
       </c>
       <c r="C59" s="10" t="inlineStr">
         <is>
-          <t>Yields on BSP's term deposits inch up BusinessWorld Online</t>
-        </is>
-      </c>
-      <c r="D59" s="9" t="n"/>
+          <t>Of politics and policy divergence</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>Fil C. Sionil</t>
+        </is>
+      </c>
       <c r="E59" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F59" s="9" t="inlineStr">
@@ -2641,28 +2697,28 @@
       </c>
       <c r="G59" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194TTN6cDJrTld2eXNhUVNjQkNtMzFxV1dvQkF4OEQ5Qkw5QkdOUXdFUUJRaHlibEM4OUNxRmF1L2cvR0lCcUlPRGdWOTd3YmRBL1V2RGVvYkhZYU1qZVFyMTR1Y2NsbGhPTXlVc1FJWWVmb0IxUkNsVmN4SmMzTDBJM1EwQUUxMWV6K1lHR0xhOXVsN040b3ZaUXZEVG9YM0R6OFFvR05HMnl5WkJ0MHBreXdac1JjZzNidzUwWmxkbSt6MnRqaC85K3V3WTh3NA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="60.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19DZUdCdmNlcUtRNm1MRmwwV29ZVEhvcTRienBzWVFSTDRhaWo1cGhYbzVZUEs3eGtWZFN0K1U5bDk0WlAvaFZPTnVsRlN2eVA4R2hSUUd5bm9FNmdacTV3YSt3cnVSNGVUaWlZN3p2dDRiKzFtU015U2NyN1hoUXpQMzA1Q3Z2Z0o3OVRhUWFkdE1jUzJEZ2UwTlZ1SFhRV2FieC9VNWZycFpQQUg4dVRmL1FxMWNqSmhUTTByQndIWFZxZG5BZ25yQVBhMjhSdQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="120.75" customHeight="1" thickBot="1">
       <c r="A60" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>Business World Online</t>
+          <t>BusinessWorld</t>
         </is>
       </c>
       <c r="C60" s="10" t="inlineStr">
         <is>
-          <t>Cap on credit card charges now up for review, BSP says BusinessWorld Online</t>
+          <t>The other side of US fed Chair Jerome Powell</t>
         </is>
       </c>
       <c r="D60" s="9" t="n"/>
       <c r="E60" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F60" s="9" t="inlineStr">
@@ -2672,28 +2728,32 @@
       </c>
       <c r="G60" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hVFBnTmlGRlZMRU9yZmY3UUtFd2FCaDY4cC9naHZXbW40Qzlrb2NCcXAyUzdvREVaRFNNeXo4dmNtdFRNOWFibXpXaWF1aGcxM3lPRjFhcnRtV2drM0d1eWN2b0g3dFFYcFJxaWtuVHVIS3J1V3lXSEtucXZMOWJQUDFnT1BiYjd1TUxQK0JaOFFNS2xPMUF1akNXbklPSlRjcDBOUnNxTDhnUTQyMzIxNVlOYjhlaFJaM2Vuc3E0YWVqRTBuSVpnSDMzY3Fibw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="75.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hUjVzNnIzTzdITG5qdENmeFczTEtkL0EvQnAyeFlhdi9YVDB0M3dLSmNWYVNDNHBOcE5XREFxWlRHeEhOQTNhdXVrcFlhSWVQVUpjYWxMLzRUbVNyVCswVENrWmJkbU10RG1DMEhzVTFHckJFQmVZM2FFUGhDSSt6YnRiQ1ZLYVR2WnhHTWtITTYvSlkreUs1TXNLeHlHc0JYcUkvWDFjc0gxeUxYSUJmbVJjRGgvVy9ZOXpLdjlsNVFScGtNT1lXSllVeVBZLw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>Business World Online</t>
+          <t>Philippine Star</t>
         </is>
       </c>
       <c r="C61" s="10" t="inlineStr">
         <is>
-          <t>Country Builders Bank rebrands as Top Bank Philippines BusinessWorld Online</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="n"/>
+          <t>NEDA, Queen Maxima partner to promote inclusive finance</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>Louella Desiderio</t>
+        </is>
+      </c>
       <c r="E61" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F61" s="9" t="inlineStr">
@@ -2703,28 +2763,32 @@
       </c>
       <c r="G61" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19neWRiZHZnTXlDcGNVQzcvVkxLOUxOcGtpcmJHSUo5TFZrUFJJR05MYUFwaGg2VDdUSXlzQ2lURTBKTXQ3T2Fic0d3QjAxV3J6aVFWNFB1TElVcTBUV1MrcEl2YVp0Q2t1U3lWWWhlVVpLSFZpVWtCd2FiTnNERmJJV2hBaHk0cFZEcDdTQ2dzRlpSZnNJaG5pV1BQSWIyUm5IU0kySjlkbWJvUGo2ZUZmYW5vMWl2a1Mwc0ZFSkgyU2ZqcFJSZSt6Umh6V0FmUA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="135.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19mUDhGTXNubHk1blRYNVFFSlk4eXBPSGlxMWdVbUU4dnRnWlU4OW5WWHVaMlFnTUphNmZ2ejhMYUFLZEU4blF3czl5R1hDdjA4OUQ3RXpSRXFTMWRLaERYbnJwa0FmeHBMemZJSExJU0hDMmh3c0gwZHc1Z2tQSDlLWXVHUjN2bCtvSEVYb2FQV3VyUUsvbTZVMGJDOUg3QlhlT01IWkVDMlBRRXBEbDJ1d29tL2NsTEJIalVGTW03MFUyTXBhT1lIcTR0U3dqVQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" thickBot="1">
       <c r="A62" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>Pinoy Network</t>
+          <t>BusinessWorld</t>
         </is>
       </c>
       <c r="C62" s="10" t="inlineStr">
         <is>
-          <t>Analyst: 'Divergence' of rate cut comments by Fed, BSP abetted peso weakening ANC</t>
-        </is>
-      </c>
-      <c r="D62" s="9" t="n"/>
+          <t xml:space="preserve">PHL on track to reach upper middleincome status, says NEDA chief </t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>Beatriz Marie D. Cruz</t>
+        </is>
+      </c>
       <c r="E62" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F62" s="9" t="inlineStr">
@@ -2734,28 +2798,32 @@
       </c>
       <c r="G62" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19kaGV5dEt1V1ltUlNQN3ZJRHJmU25LNGxUZWtLcHJicEVpT25mem1BMUNYd3k0bnp2TVBBeVZyaGZmY1NhM21OcVozRGxDYzZmRHI0WWJPWnZHeVphYVJGVE44aFc3VGUwK0RTRnc5RDNLRUdKYzQ4ZG5CczN6TmVDNHVyWnBON3JMVlFjSUlHR2R4U2VVUUp5MXV0T3dISXBwR1gwdSs4WWFRZFFpbU1BeEppWWJNTkVyM0hsNkt4dEpSTjYrL3FEamJmYXg2Rg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="150.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19rNDNsbHdBMjk2cDhjYUNHcjNRcURCRE9QbENYNTB5ZU5WZlhXR2h0MjBIRmZvQU00ZWhBZW9VR0hwYjJyTzhZMWdyVHdWb0lRWEs5bTNIQ081eXFZUTQzQXZYNUZLWkRRK1M0b2tnT2ZObFJhRzV4VzdwcUVOa1IvRzFOd2k3YzJnV1BXQmdYcGZpSEhCL2pJMVpibitHMVNvSWh0d1dUZkhyaTY0V1hWUVg2M2hMQkpOQXJ5QW5oWCs2V2VHQVlQdmUydVFIVw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="135.75" customHeight="1" thickBot="1">
       <c r="A63" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>Business World Online</t>
+          <t>BusinessWorld</t>
         </is>
       </c>
       <c r="C63" s="10" t="inlineStr">
         <is>
-          <t>Peso's nonstop fall may stoke prices BusinessWorld Online</t>
-        </is>
-      </c>
-      <c r="D63" s="9" t="n"/>
+          <t xml:space="preserve">Budget surplus narrows in April as spending rises </t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>Luisa Maria Jacinta C. Jocson</t>
+        </is>
+      </c>
       <c r="E63" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F63" s="9" t="inlineStr">
@@ -2765,28 +2833,32 @@
       </c>
       <c r="G63" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19pUk1kcHByNEM3bThpNEJrQ3NhUUpWRjVldVczbngyQVVnSWV3bVR5ZGJLRGVvQ0owdUQ4K1JPN1ZjRCtaZ2l1T3RWeUFTa0FPc2FWQnM5WHVWaWk1NVVjWXhUUDg2bUZsN1R6SEg0TVVPQkxpSXB5TllvYlY4Kzc1ZzhPYUMvTm5PVVlhaE5jT24ycTZ4UTIrWC9BajIvbTFvaFJLMTAwemFUSlI2RXNQbHRoekJIampLaFJ6R21SWExCUnRMSHc0bkg2U29jdw==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19DVDJZaklIVXBRYmd5dldjZnp5ajZkd0c1SktwY0o0WlY4L1NpbEhVQ3lKeXhoZ3R6ZjlvVDROMGdkVTVCbXVGYWRNdlRHajJqRzhFT1RjUU1yNXJqN0l2cDBvaUVjR3lLSERTZmVkQU1ncGlBYURkZWpIUU9KVzJkSWlpU3EyeG11bGFSYVNsdWk0M2lRV05PbTJFRk56bGpVYzRkOXhDZ3RqQk9PVjloWWZYQTY4VUZQV0ZmOTlmS0Qra1ZqYnFNVmlxbHhheg==</t>
         </is>
       </c>
     </row>
     <row r="64" ht="90.75" customHeight="1" thickBot="1">
       <c r="A64" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>Profit Insider Hub</t>
+          <t>Daily Tribune</t>
         </is>
       </c>
       <c r="C64" s="10" t="inlineStr">
         <is>
-          <t>Cap on credit card charges now up for review, BSP says Profit Insider Hub</t>
-        </is>
-      </c>
-      <c r="D64" s="9" t="n"/>
+          <t xml:space="preserve">RCI financial backing suspension urged </t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>Maria Romero</t>
+        </is>
+      </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F64" s="9" t="inlineStr">
@@ -2796,28 +2868,32 @@
       </c>
       <c r="G64" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19yeE85Wmx0d0JVaS94NjNEd0gxWkZSSTFkdW81NTllbFBUN3ladFRWSmxsMDFwa1cxSU9oT1prQzh2OGFteEEvc1cwcjY2c0wrWXQxNG1BVmJDNUMrVE9BODh4bzl1VnFCYitLMndzS2FJUGtnQlMxOTFLSEhQLytvMkNEd2ZueXZhdmFONmpmU3orazhxYXZLZ3ZhRG4rMEVTOEdLLzZkbVFIN3NmV2c4b0JlT2RQTDVCQU4vVGlZUzJWVS9Zb1YrM1E5NzlSNQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="75.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX196bklRVzFwcGpSRHRaUE5BSFVnZ1ZwemMwbjJScThlY0htTW5nVG93dGs3NGxSK2s5Z3JPMXNtQnJKd3g2Q0R3eFpRUk5pK2FHS2YvdnBwcUVUamxqQTJtWlhEaDhNMXVSU05DVkVGSDQyU0hnM2htNDV5YzYyOVM4M0FCaWcyV0NobUUyZktWSURrUndobXd1aTlHTmtJaDNTRUxHTlhWdEVQVlF2ZGkyaVltWVR3ZDlhQmpBRzg3WUFPVmNuRmNaSHdRcU83eA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="120.75" customHeight="1" thickBot="1">
       <c r="A65" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>Profit Insider Hub</t>
+          <t>Manila Standard</t>
         </is>
       </c>
       <c r="C65" s="10" t="inlineStr">
         <is>
-          <t>Yields on BSP's term deposits inch up Profit Insider Hub</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="n"/>
+          <t>Nasugbu LGU asks banks to deny RCI loans</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>Jenniffer B. Austria</t>
+        </is>
+      </c>
       <c r="E65" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F65" s="9" t="inlineStr">
@@ -2827,28 +2903,32 @@
       </c>
       <c r="G65" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19aUDhGckRla3lNMjhzKzZURkZwQU1MaDJ4ZC90UFljQlB3ZUtSL3VSYnFWT0x6ak9zbTlxc21ydnJXdGVkeDlveVE5Z1ZRN2ovK3JPK2pNNDFlYTNvTU9KdHkrczl1SDlhOTYvaG9RdFlzNmNWY3FYY3R3R2x0YU5pUHFncVdleUxZVXpMSjRLYjl1bzhSazVnN3VNL2ZRQkVmSUREd3FrWWRMWjRIYlJ1S21QRy9jMFNFQWplTUozeUdWVzlHd1Jkbk1mRnJwUg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="120.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19GMmlvRDY3b3puOFlBYUR3MzBqNzZRSDl4dVJ3WTR6T05TM2k2OG12TnMwczROYlJQVm1ablN3MDFCUjNKNkZsMXBhU3FGZ3JncWpPbFltdWhyUXVLUDhodzg5TThsL1E3Q2FJdmNmc2pKeGJzSXVXWlBoeDVXMUJ3UDFTbGdpMzVzMmNXUHU0S3VGSThBUStxaHZ4dzNOOEZTU3pBVjNOUWJxdXQ3OWtwbjFGalI2MUtPQjZLZktGa1llK2hWck1KOU82MHRTdg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="90.75" customHeight="1" thickBot="1">
       <c r="A66" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>Profit Insider Hub</t>
+          <t>Business Mirror</t>
         </is>
       </c>
       <c r="C66" s="10" t="inlineStr">
         <is>
-          <t>Peso's nonstop fall may stoke prices Profit Insider Hub</t>
-        </is>
-      </c>
-      <c r="D66" s="9" t="n"/>
+          <t xml:space="preserve">ARE THERE ‘GHOST EMPLOYEES’ AT THE BSP? PROBE UNDERWAY </t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>Cai Ordinario</t>
+        </is>
+      </c>
       <c r="E66" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F66" s="9" t="inlineStr">
@@ -2858,28 +2938,32 @@
       </c>
       <c r="G66" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19BUkp2TEZIdEFSbWwvaGlzQTE1eW13eVVURzNIR3pndFN1S01sYmRmVklva0Y4c2duQXBYdlR1bnVLTDJKWitZUDEwV3l5bGhkd0Uydlg1cnVLSEMxMTVtbGsyMm0wVWdxWFp3cHMvOW9EYkZlakpuU01kRm9EaEpsbk5UamVsUmw5NXFkVEJHNUNWbzVIamJYL1JEeWpjb2JPNGM5MzB4RHZBVVh5VVJVK1FNSlJISWErVkVYZEpHb2pLSjBrdk15YzNZQm9aSA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" ht="165.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18wb3Zqb0hTQmR6KzU3aFc3dDNtNGZ4V1J6ZDA3ay9NSkkwTGl4bFFVMkZ2S0svTXJqN0xWYlpFTHI0NWpyTjZjQXd5ZHdCaW9zTHNseWFORlV4K00wbnVJcFUya3A0NWdvMnFlNlNSb3pnNFpaMVUzb3hIU3VKNXV4YzdaOW0wVVhBL2c5YmpEeEplcG8vZlJuSWRqOW5sVkRuanY1OVBsTUFXUmF0bWllWTRlbnVidkhTNnZxSXhXWTBMMW40VzllZjlobkhyZw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="105.75" customHeight="1" thickBot="1">
       <c r="A67" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>Business Solution Profit</t>
+          <t>Business Mirror</t>
         </is>
       </c>
       <c r="C67" s="10" t="inlineStr">
         <is>
-          <t>Peso's nonstop fall may stoke prices Business Solution Profit</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="n"/>
+          <t xml:space="preserve">High commodity prices make it hard for Pinoys to save—Queen Maxima </t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>Reine Juvierre</t>
+        </is>
+      </c>
       <c r="E67" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F67" s="9" t="inlineStr">
@@ -2889,28 +2973,32 @@
       </c>
       <c r="G67" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19aTGUweWpsaHVodSt5aFdYTEU3UmhjV2N0TzdweCtheWNsQVdrNTJNVlMxV2p0ZzY4eVR0YXN0NUtwSEQ2RXNSbEJLZmZ0VkFKaWtMK0NCdEN5M1p0YWR6SVAyMUREWm5UWElOdk9ZQ3duclI1d0NaM2Q5NGZhbUxlN3B6UXFqaDNwbVBmYzVlL3htbEdoQURGdStOL3ZNZWlORm54QzF2WVlmR21Mc0hWSWVtUFAyR01JeDRiZXYrbTNVY0lCR2RvcnNlM1N5bQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="165.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WNnM3UmVGSXgyaUJRT3lCNmJnWkZtQ0t2Y3ZJRTRZa2FMWVZpYUFYODlzYVZHOHVLaDRsa2F4dmIxMHB2dldCdEF1Y21qdWFZV1pqRlVVbXovZHR6SzJRS05haCtlRE9LcTdjWUFKWW9EbGpTcFlkUVh5QkhCNFREWjNDbkJrMzljMWhWZmNsT1NrLzN5SldvK25FeFN1RFZLc3JhRmUxeTNxc1crd0ZvYjhWaEUva0lLSVo2L0RHbk9ZN1pxalJVdzFKUldiQQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="120.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>Trade Like Gorillas</t>
+          <t>Manila Standard</t>
         </is>
       </c>
       <c r="C68" s="10" t="inlineStr">
         <is>
-          <t>Peso's nonstop fall may stoke prices Trade Like Gorillas</t>
-        </is>
-      </c>
-      <c r="D68" s="9" t="n"/>
+          <t>NEDA officials meet Queen Maxima to boost inclusive finance</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>Darwin G. Amojelar</t>
+        </is>
+      </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F68" s="9" t="inlineStr">
@@ -2920,11 +3008,11 @@
       </c>
       <c r="G68" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19XRXR2Q0xvMmorOUJnaHJXQlJMV0xIV0RDOUVWVUNaMXh3S1NzbGNNY1NCMjg0UCtJRHo4U2xzaHYxR1VwNjBnV0NuZDlKQTJVRHFWUU9uTW1IallpbE04ODlDUjRFS0pVd3lRd3NudGtrd1pab0VRaEZreFNtajJXR0ZuYlBDS1VxZVJyRnp0WmphSExTRHBKZnpFZFRrVXdmb1JtTHp6NmMzUjhaN0pSYVF1bUxHY0hrRU9YODlsM2VOV0JFeTBjeXhjVjJsRQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" ht="165.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19LYjVXNUdmOHA1MmhsYXNQMSs2OEtNOGlQaS92RmJOUUJ6U0UxU0xzdWFtcVZsNWRZVkk4QVMwWG5vYXZGc1ZTSEVGUVNHQkJCYXh5UnVodEhIV3paaW9LM0QyVjlWUHgrUGpURitnREphcitFRE54WmlQdWd0cUtseTJtZi81cXh3TkMycjliZXorQ0JLUENCU2FSYzFFT1hhS1hLNGJCSzZQK2gxUlRpRWlpb1ZxMWxXeFA5MXJnRjBQTlVjOWtUOFRLNW03Ug==</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="150.75" customHeight="1" thickBot="1">
       <c r="A69" s="8" t="n">
         <v>45435</v>
       </c>
@@ -2938,10 +3026,14 @@
           <t>GCash facilitates remittance, bills payment abroad</t>
         </is>
       </c>
-      <c r="D69" s="9" t="n"/>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>Myla Iglesias</t>
+        </is>
+      </c>
       <c r="E69" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F69" s="9" t="inlineStr">
@@ -2951,28 +3043,28 @@
       </c>
       <c r="G69" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xQnhwRWFMaVNWSmVZQ2tzUWUvZjZMMGFDTTJUU3pFY2VxUHlMaGlnRXF5L21ucUg4aDRTOFpJdnhZZlQxUnNWa2tFajdWQ2ZPTGNPZ3JoM3M3Qmhtb2xUNU56WXVhYXk5aldSWXhYSkNKS3AxSjlmdDI0U2szbmd5WkhVV3NkMGxFRkxJUFVGcDF5K01tVnlneFY1cVVxVHpWcS9MZzNMem5tSUZqSHI5QUdJNEoyN1h0K2ZaVHdSUEsvRkk4UW5IbTBWNUswUQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" ht="120.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19BMjhPVTNGbnhaR0llNUNNUlVnd0tqTk8rODMwRWo3SnJZV3BSN3JnT3pzTWdONGZRWisvWWFZS08yaVMvZWpobU04WTVtTkxqc1dXNlpvbU9xRTFwMjl6T3FYR0ROVGZsWDlSUjFzUDlBQVFBTkR2bmpJM1hUcnB6ZXY4OW04dXlwajlxOC9hb3pEN0E4eDlNZHByTTFIK1ZObVJYOG9KRXNkVy9UVlNhb0E5ODJhUWRoRkptSmFwcDRFN25NMEJVS1hxbWVjZQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="105.75" customHeight="1" thickBot="1">
       <c r="A70" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>Manila Bulletin Online</t>
+          <t>BusinessWorld</t>
         </is>
       </c>
       <c r="C70" s="10" t="inlineStr">
         <is>
-          <t>₱58₱59 per dollar: Déjà vu?</t>
+          <t xml:space="preserve">Cap on creait card charges now up for review, BSP says </t>
         </is>
       </c>
       <c r="D70" s="9" t="n"/>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F70" s="9" t="inlineStr">
@@ -2982,28 +3074,28 @@
       </c>
       <c r="G70" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18yQzN4U1duTUtBWWkwRVFGSE1WT2t5VUNuZjI3VDVseVdCNmJXNXJ5WEFLdFB5YlZFNng3K3g3aXk5bHNtY0FsRVRXV3laV2NKUk1Fa2J2SndlL3FpdFpzV25uWUJVblErSzRCUlcrMWNIZ3N0Ym14L1BQbk52THlKVTFtNTZ1MThEK3VZcGZNakJoQXFqRGFnbzFiZjFaNHhmZFZXREw4TlpRMllvdDl1L0Q5SDFPMkpsNGN5VThIVUw0b2pmajBMSUpZL3FUVg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="71" ht="165.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194RkV4QkxCYTlSVUc3MXlvWlFlaVNIeGg2NEJSUXV2ekZHcVEwZ2o0Tk5mdUpuYTlQTHFXZHI1NzkyOHNpNlhsemhHa3hVbHZwV2tNU1VET1diTlU0TEkwYU1LUjAzNVduUVVvZGxqM0oraFVOMDlTRjhPbXRzWnJlTjJtNzZRT1hZRitoTC9WOXk2eEFXaDllWnZ5T3BxQ29zelZkdlIrNUlkWjB5eXB3bVNBbFlNeUt1d241bTZscWlUUGdVT1pCQ0ZZL2ZKOQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="75.75" customHeight="1" thickBot="1">
       <c r="A71" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>Daily guardian</t>
+          <t>BusinessWorld</t>
         </is>
       </c>
       <c r="C71" s="10" t="inlineStr">
         <is>
-          <t>LANDBANK to use QR Codes for cash aid</t>
+          <t xml:space="preserve">Peso rebounds on protit taking </t>
         </is>
       </c>
       <c r="D71" s="9" t="n"/>
       <c r="E71" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F71" s="9" t="inlineStr">
@@ -3013,28 +3105,32 @@
       </c>
       <c r="G71" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19pdTdVN3hVY2hEVURFOU5vVmlCSS9DeGtXbmhZZ3pSZlRqVHFsR2RrcGU0Y1Y0MkFOQXdiTlVFUFlXT0tiZWUrZXBUeUNHcGpmelJNWXFUdUg0aENzTW1tdzFhNHVmSER0RGVsMENlc3hwUkVlZ2ZoRm9hM1VSUWFjTGdWOWFMZW5od1I1dWtnb3kzZldBc2tKMWVEa2FQRVVFRFZ4a0NpVHdXNWlLbmtKNGd3WEtmYk4yUWMxU1ErSlhOMU1reFIvc2ptQW4vTQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="72" ht="120.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX184ZGZub0d2azBPQ2tJcm1SSmxpSmVDOUxwellXNWVFQWlkT25WdU00T084UEpLeVlqZ2YvMnV5YW0wNnZ5OE1OdkMva0FwUFN5NXNMdUdqeTNiS09JZ2JnSy8wQlBwc1JOemFCV25oNGhDQk1Nc3RyZUpsVS9lcW1ETXpNejBLaXdSMmlEN0sxbTR6QjZRL0VIZmtLa2lMOVdua21vWklndjN6V00yU2VPaVhCeUpJUHlpSDNvTk81UVRRbEZBNko2UUVVeE1kUQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="90.75" customHeight="1" thickBot="1">
       <c r="A72" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>Pilipino Mirror Online</t>
+          <t>Manila Bulletin</t>
         </is>
       </c>
       <c r="C72" s="10" t="inlineStr">
         <is>
-          <t>PISO NAKABAWI KONTRA DOLYAR PILIPINO Mirror</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="n"/>
+          <t>BSP requires report on payment system's use and compliance</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="inlineStr">
+        <is>
+          <t>Lee C. Chipongian</t>
+        </is>
+      </c>
       <c r="E72" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F72" s="9" t="inlineStr">
@@ -3044,32 +3140,32 @@
       </c>
       <c r="G72" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19JR29LOG5jSzJVVWZXWmVLNTJ2SmRwQmJUR2VadW81c3Nmd0toU29NZCt5YU8vYUpYdE1VYzJwMUlEVlZvQ3JqSmN6YW1YdmxNWDlmcHV4TCtjK1JDYWRrajZrbUhEZWt3bWZTNHRab1dUb01hejhrYTlVNkRkTUk5b1pHMkpjZk9YSnBidk90THlpTkVDczJ1dHpKMktldXZVdC9jc2xkK0dSZ3NnWCt2OHF6RDhHWCtYS2V5S3ZreHl5UEE5djlRT1V5RnhBeg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="120.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19HRG5aYW9GUTBnYjZhRGJISEZqSkFYcVNoM1JpOTRybTlMc1lMVVRqWCtBTFpKREhRQzdJQSs5cEpmaGZVaWQrK3FBc21zTFY0bXZBOWRsZXVkb0pLSDFPazR2dlAzdGo1amRWanFFQ2dPRldhNk9YcmVWc1pjUGNvQU8wNXE3UUduUVVLVVE3Mk5ZZlN6RytxaHU1RlJZSStpa2dVNEFMQUpwUHdVVXc3cnVSSVEzV2tHUk0yWmNYS2JKcGFKVWsvTVZWdXZMbw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="150.75" customHeight="1" thickBot="1">
       <c r="A73" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>Philstar</t>
+          <t>Manila Bulletin</t>
         </is>
       </c>
       <c r="C73" s="10" t="inlineStr">
         <is>
-          <t>BSP yet to finalize credit card cap review</t>
+          <t>OF SUBSTANCE AND SPIRIT: ₱58–₱59 per dollar: Déjà vu?</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>Keisha B. Ta-Asan</t>
+          <t>Diwa C. Guinigundo</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F73" s="9" t="inlineStr">
@@ -3079,32 +3175,28 @@
       </c>
       <c r="G73" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hU2pWeEtZNmtkNU1rQUhOeUpTWmJ2R0Z3RWJPQUFwb3NPZHl2L1pZTVFWNElsQ3RMNmVUR29ZZEtXdnp0ZWV3K3lLVmhKMkJ4UTdxSEJCWkg5SHVMMTFUeklCSzNqK0owdkRqS3QzRWxzTFpMMzJ2Q0I0NXdzYnVUQUlyTTRWeld5SlIya2VYSy9pN1NKdmhrWE52SkJtQWNRNWk0VGpBSGF3S1I2ZXhpc0RFTjFjZmZsbzNMZDREZDJVNWZZMjY5eG5Vcm9EVQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" ht="120.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19pWW8xRkV3U3M2STdjL3VPa293YjNyR3NKbzYyeWtPWHE1RmZ1NWMraHlVeGtrMW84dGdlcWx6NkZ3elJpL20yWktZUFVKRWFRMzA2OG0yVDc3bEFiYzBXOUI0U3FtejB3SG12WjYvSnByUlZzODVzMkRVRW1zNjRxZXhMMUdETFpSZkEzejRER1VrQ25QekR2dUJOaUJ3VGx4Y2NnbVZQVCs0SFFnVGoyVXdiR0hTYmkxYkVRMjRQRy8xMXB1S0d5THkwcThtNA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="165.75" customHeight="1" thickBot="1">
       <c r="A74" s="8" t="n">
         <v>45435</v>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>Philstar</t>
+          <t>Manila Bulletin</t>
         </is>
       </c>
       <c r="C74" s="10" t="inlineStr">
         <is>
-          <t>Landbank plans record P50 billion bond issue in Q4</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="inlineStr">
-        <is>
-          <t>Louise Maureen Simeon</t>
-        </is>
-      </c>
+          <t xml:space="preserve">BUSINESS OPTION: Setting the path </t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="n"/>
       <c r="E74" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F74" s="9" t="inlineStr">
@@ -3114,28 +3206,32 @@
       </c>
       <c r="G74" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19haTVmeWtkdXNtNTdCNGxIZlpXNzU0T2VrdHl6eDVzVkUrMmJDMWcrZTIzTnAvckljRmw0VWowdnlDcmd6YmN4UWxLQWJXbmFvNmhlY2NrQzZ2eUM4TTA0QjNTYlBra1R0SHhHR2FIVGFhREZSOU9BZHBXV05Xd1U1a0FLUWF0cjdoZ3lHWHAwa0FRb2lmdkwxL01QS0MvNUIxS3BhT3ZURUd4MFpKc2RWZS8xS3l6dlk1dTdTcmFxOTk2WlBsWWNKdXB4WFROdg==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194clJmdkxuS2dTZVhrMFVpYXlQZlR0YUxGT2laVWtHQWZuL2Qya1dxWS9nbURCL0JtZTRPdGUvZTl0UXFZNyt6ZVdDYmUwMGdJYlRhUWg0Zld5NWNDYW9LRDRtaHdzY0NRYUlQc0FFL1A1NDQveElQTmsrb3NCTGRaKzQ3dGtJL1I5TTlRU1FmSHVUTDcwRjNyeGlLV1kyLzB1ajJxSWs3aVZSbTRPd3dMVENMOFA2bzIwRmpsY28xNGRHTjI1M0Jsc3NyZ1EwNQ==</t>
         </is>
       </c>
     </row>
     <row r="75" ht="120.75" customHeight="1" thickBot="1">
       <c r="A75" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>Business Mirror</t>
+          <t>Philippine Star</t>
         </is>
       </c>
       <c r="C75" s="10" t="inlineStr">
         <is>
-          <t>LandBank taps Traxion for cards with QR codes | Reine Juvierre Alberto</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="n"/>
+          <t>Landbank plans record P50B bond issue in Q4</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>Louise Maureen Simeon</t>
+        </is>
+      </c>
       <c r="E75" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F75" s="9" t="inlineStr">
@@ -3145,28 +3241,32 @@
       </c>
       <c r="G75" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19DSHJ3S3l1cXpSTWo4V2h5MllsajJrWUI0YXo0RVVyaHo4eERra2VpNlp1c3o3OTVxSktTZGZVOHZTcXJkemx5NkU0ai9pSUJyU0tHNnQwRHpWZTZCbzZlelNBV1hacGFTQUlyejdhWkY0UkZHMmpsRW1yZDhXc2dZOHRwd3FNdEVTTE5MQk9TN2xMTkNFYTBtTVFLZjdjaUNmSUZ5ZVY2ek9Qc3MwRGIrQmlnNW1waVQ2YnI5bXNDZ2JVeEQwVnRVV3pVNWI4Uw==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WeXhvZmM2V1NRSHlUUzBCMVk0VnM2aTVTdHRldFZ5Q0xUTlQ1dkhsUk14SzdJTlVta3hqQnQ0N1doRHBNTzNteTE3RnhjY3hqZ3lkcmpjQzVZWnpRdzIxUFN5RERSNnMwQjFWcWpxZjA3UjJ4SXdtZEowQ0VCQ2VQazM2ckxodGdYbWVkMmRCUldnWDQ2OUVJZE84aDMrWFpQR3JrZlZtSktMQjk3ekkvQzhuKzBmQjlhTmVXZEttcFcxeitIWHlDQ3QxbVlhLw==</t>
         </is>
       </c>
     </row>
     <row r="76" ht="105.75" customHeight="1" thickBot="1">
       <c r="A76" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>Manila Bulletin Online</t>
+          <t>Philippine Star</t>
         </is>
       </c>
       <c r="C76" s="10" t="inlineStr">
         <is>
-          <t>Setting the path</t>
-        </is>
-      </c>
-      <c r="D76" s="9" t="n"/>
+          <t xml:space="preserve">BSP yet to finalize credit card cap review </t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>Keisha B. Ta-Asan</t>
+        </is>
+      </c>
       <c r="E76" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F76" s="9" t="inlineStr">
@@ -3176,28 +3276,28 @@
       </c>
       <c r="G76" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19YSWtleEhQNUFybU1oMkZka3lQZVEyUmNhb2x6RS9zeEhaWFhvUytPa2tETTQzUDlpejFxNVFPbi9EN3ZWanc0QWw5dCtLNHBKVTR5OWdUODJvQ1BpbkptNjR6QlBoTElnZjdRajRGMUh4azExckhiRys4TU1uaEpLM2xxYWdzWFFJdnR1Y0tmR2NSeUpkcDBuUm9jTHg5VzNUeFpyL2h5bWR0d3hEM09oK0orQ2x2V1VHV3dFeFlPUlZWWjFDNk9CV1BnK3lIbQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" ht="60.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19SN1k3WW55bmFLWURMbmxtQ1oyYVRUa01wc204dm9VZXpNRTJrc0E2c2dqMGVMdVpwcFMvWW4vNlNXbjdOcnNvYlpjc0lmL3BnN1NTQ2ZOdU5xSkNEcm4yOStzQm5VNjRiT3M3ODZNczFWdkdxaFRMVHhBZTF6VUxHRU9qVGRGZ1hsNWNBbmFLajR2dzRjamZOczUwVHdwcm9lSkkwL1NlTFRiSk1xK2VPMEdBMk5lM1YrVVhERWxiRTF4bTZTZVZOYmZwRXNVVw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="120.75" customHeight="1" thickBot="1">
       <c r="A77" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>Radyo Pilipinas Uno</t>
+          <t>Manila Standard</t>
         </is>
       </c>
       <c r="C77" s="10" t="inlineStr">
         <is>
-          <t>NEDA at United Nations, magtutulungan para paunlarin ang inclusive finance sa Pilipinas</t>
+          <t>LandBank to adopt QR feature in cash aid delivery</t>
         </is>
       </c>
       <c r="D77" s="9" t="n"/>
       <c r="E77" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F77" s="9" t="inlineStr">
@@ -3207,28 +3307,28 @@
       </c>
       <c r="G77" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19BVTVaOW56bWZveVBGcUVPWlhNdXBtT1ZlRzE4b0NESXFaVzlYUWw2YmhONkVVcHQvUmxUTzEzT01FdnV4WjdIcWo4ekNrdUdIOFh3c3Jwc1IrSkxQS0lHc3huNXVpWWc5SzVmUnowbHBNWDQvakwva0JnMmoyd0lJbGZ2ZkRFTGhLek94ZFJhSEJKaCtEcUt5c2ZmaDUvZjVXc05zWFNUZldkdlhKZXZRMVRtV2lmNnpHUnBxc0k3ZWlET0piTk1oemxGUmFTOQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="78" ht="90.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19iQ3Q5cnI5bGRpSGpBSEp5WnFSVnFrN3BDZ2ZCc3lJZHVISGI1RVVTTUxXek5EQ2xFazgwYXhqVnBQMFYvWHhKRnc0SkhFRXRqMjFYOU5wbm9VaDg3TjVaRUx2M2FURVIzQllBTWRsNnQrdnJNaXFoRjcrZDZKQVpHTXBCNnZjbGtMcEk2ai9qSkV3dnovdXJqSHRyVlhEcmZlTHUrUzN2N3ZaU1ZlbjUwYzhhQ1p0d25YWWFTcnJKRWxUUVQ1NkMyQi8rL0ppQg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="75.75" customHeight="1" thickBot="1">
       <c r="A78" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>Business World Online</t>
+          <t>Manila Times</t>
         </is>
       </c>
       <c r="C78" s="10" t="inlineStr">
         <is>
-          <t>Peso rebounds on profit taking BusinessWorld Online</t>
+          <t>Peso regains ground but PSEi drops anew</t>
         </is>
       </c>
       <c r="D78" s="9" t="n"/>
       <c r="E78" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F78" s="9" t="inlineStr">
@@ -3238,28 +3338,32 @@
       </c>
       <c r="G78" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194NnhZa21IMHRVLytKNUl0eVFERGtJWm5WSWR5WlZicHdxdWJrSitrVS9FaTNGUWRjMWlRaHZnQ1dleWx3UmQ4WWwyZDArRkovVkhkOVQvaHFiWlgvemFhZC8vT0dLRE50dlZ5alk0QS9WN3NVVDFrZHZSdDM3Q3RsWlh0MHJ0UlQzbnc2Y2xrbzVBcTQ4Vyt1MGlyQTlYU0Rtc2o4bGVZdm5zeExDVEdEZkJKVzJqY3Q5RDlsRVZUNmRENjVwSzBLOVVHTjFkbA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="105.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19RREhyVWxvaURJZ0dFbytNVjRJNXpiZy9yU0NHYVZEcU43WlVzdi9LV3ZpWnJVMGQzeDB0dHdwYlVVRXVQQVRZQmxkTDdYTFh6ZFZZMC9oeU1tMlIwbzVPeUIybFEwN2RoOFhVMWlKRm8wOWhtUTA2cWFiNzZMeitZU1JzK2JhZDYxSWFUMzlWTlM2RktacTdSRFNYRkprU0xnelpMUW54b0pRQ2FvbVF2WVQ1L1hPRlZhMHZkUEwvemFKN01OZkp0TmlLQUVlRg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="135.75" customHeight="1" thickBot="1">
       <c r="A79" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>Business World Online</t>
+          <t>Business Mirror</t>
         </is>
       </c>
       <c r="C79" s="10" t="inlineStr">
         <is>
-          <t>Tatak Pinoy programs backed by P350 million in funding BusinessWorld Online</t>
-        </is>
-      </c>
-      <c r="D79" s="9" t="n"/>
+          <t>OUTSIDE THE BOX: The peso depreciation</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>John Mangun</t>
+        </is>
+      </c>
       <c r="E79" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F79" s="9" t="inlineStr">
@@ -3269,28 +3373,32 @@
       </c>
       <c r="G79" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19xcGZ3TGxhRytrSzFpN1NwSjlnOVMzM3Z0dDNDSzFkL3RObkI3eFlyQWRWTW9QUi8vZTNjVGxkSTZjUW56NkFJdStkZ21Fcnh4K0ljRHdoR2NnNU9jUXhNZi9ZR2pXTXJNcDE1ZGdVS0xTN1hydVBSV0hjVy8wT1BxR2hic0NaNm13anF3NHUwUVRsM0JLbjBCbHduTXFyZ1lSVnU2Y05iSkJQdmh3WDIxQmpuOStjejgvS0FnaC9mZ2pFZFcyRVhqUkNncWUvMg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" ht="90.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18yb0sxaDE5eVpZYVU5OTkzMytocHY4ZFl2RUxTaG03Qll6MGQ5c2M1S1ZqaXRTQkMxNXdzczR3NnZyVTVKR1Z1S0FaRVI4K1RhUGNPUlhXaWltNVZzUHFtM0kvSFo1SFhma1Q1YjFaS29OMWFlditVRU4rTUZMaHltRDZNVVdETlpaY0VwS2xWSnlxOTlaMEtDY1RJNWZvaWwvL0oybThpa21VbTFaZlc1bkd0Mis5QXJqYi9QREtNNjZFbVJyMFBtWXVyWmpLNg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="120.75" customHeight="1" thickBot="1">
       <c r="A80" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>Philippines Times</t>
+          <t>Business Mirror</t>
         </is>
       </c>
       <c r="C80" s="10" t="inlineStr">
         <is>
-          <t>Ipinakilala ng Pilipinas ang Bagong Single ETravel Code Philippines Times</t>
-        </is>
-      </c>
-      <c r="D80" s="9" t="n"/>
+          <t>LandBank taps Traxion for cards with QR codes</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
+        <is>
+          <t>Reine Juvierre</t>
+        </is>
+      </c>
       <c r="E80" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F80" s="9" t="inlineStr">
@@ -3300,28 +3408,28 @@
       </c>
       <c r="G80" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19VRFFPMXJ4cS9OR3ZNNU9PSzh6VFBqV2JFbk1MK2s5U0tPZDY2cnI4ZFQwQzRCbG0wSVB5VXo5bDg5SUd6enVJTkc0K1RuclJscmc1dGFUQzhoYXU3ZjE5MjZtenFyUG55cmZ3bGl1TzFOY1VRNU9udEZ4SmN3b1hSdGh0RHFXbTJ2VVF2amEwRXhEVDZjajNkRitNandFZU5zNmMzYTM3V0tZRVFBM0l5TWZxKzdXWlozWWRjRWZxeE80OExTdmZiVkdWNHJTcQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" ht="120.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19rZHhVc3RLcEY3L1hFMVBMVisrS3A1QTl4ZVpoSTRXM3RuQ1NZYVQyb1pXK08zUEgxQ1dnMExOd29UWExCQ3VQVXVDK1BmbVhmTGhZREJuTy9FSEtNdkdhYWliakFYLzhwUCsxS0RwYVJxTEZBajVWYjU3VCt5a0xJdmMwS3h6MkcxazVWQzFaRHQwS0pWdWZnNUYwbVlOMmxDUEI0WHNESzR2THNWNXFOdmdjZW5aL2hhS3I5VVFpbUh3YS9sbGpkUmFQbDMwdQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="75.75" customHeight="1" thickBot="1">
       <c r="A81" s="8" t="n">
         <v>45434</v>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>Manila Standard Online</t>
+          <t>United Daily News</t>
         </is>
       </c>
       <c r="C81" s="10" t="inlineStr">
         <is>
-          <t>LandBank to adopt QR feature in cash aid delivery Manila Standard</t>
+          <t xml:space="preserve">Peso depreciates beyond P58 to dollar during morning trade on in the 21 </t>
         </is>
       </c>
       <c r="D81" s="9" t="n"/>
       <c r="E81" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Broadsheet</t>
         </is>
       </c>
       <c r="F81" s="9" t="inlineStr">
@@ -3331,32 +3439,28 @@
       </c>
       <c r="G81" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19NMVRHWXRGYjVoUVIzdFBBbFhuOFpQdkxkWFVzcFBBZFF2SVd1ZSt4N2hBUDVEWmFTK2FkS3huS1NZVjR0Mlh1clJHZ0VqR3Y4WkNlSEVNTGkycUc0R3k1a1ZoaTZ0SzJoaUplb0lqUENXb3BRV29KWTVPTEF5WU9GNEh5ek9lVnY5ZGZUY1kxNUNQK2NFTTlBd2U4Q2c3N0dzL3R4bUtodTMwL3g1YzV2cmlVc2pic1VQa00ycDgwMXZINFlWaWJXQjFZUGNLNw==</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" ht="135.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18ya2tMd1VucjZaN0s3eVI0NFFFdCsrbDR2ZnBWQTcwelgxajd2WFhCTlVnRVYrbVROcDB3YzlDanAxb3RoeDk4UDRacno3ejU5aXVLdklWL3NlWXovQXdhZHM0R3RmT2lXaW04YklHOGxRa2pYM2tONm8zR1dJajBCWWtGUjJ6L1Q4cUJoTUY4ck16aU1ndkF0UE9tUFdMdTl5SnI1cjk4bDVQekhNTEVWb1I5bVdxUXB0QjNnQTAvRzZ1UkcrcDU3Y0RxNEErZQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="105.75" customHeight="1" thickBot="1">
       <c r="A82" s="8" t="n">
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>Metro Cebu News</t>
+          <t>Pilipino Mirror</t>
         </is>
       </c>
       <c r="C82" s="10" t="inlineStr">
         <is>
-          <t>Peso Weakens to P58.27 Against US Dollar, Weakest Since November 2022</t>
-        </is>
-      </c>
-      <c r="D82" s="9" t="inlineStr">
-        <is>
-          <t>Aljun Cainghog</t>
-        </is>
-      </c>
+          <t>(Target ng BSP) MAS MALAWAK NA PENSION, INSURANCE SERVICES</t>
+        </is>
+      </c>
+      <c r="D82" s="9" t="n"/>
       <c r="E82" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Tabloid</t>
         </is>
       </c>
       <c r="F82" s="9" t="inlineStr">
@@ -3366,28 +3470,32 @@
       </c>
       <c r="G82" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX182NjBtT3pnTnoyaFE4ZWlpM0thYm95cDV4b2I2MXl1L09LMyswTDFCTDhjT0F4d1NGSCtSUWl4L3gyRS8yVTR3STNuSDZIUG9hVVMrTER3T3JKRkhMRnhwd2s5S1UvaDgrakVKOUtFNEJ3SG1FcWlranR6L05LaVBVNG5BbG5YM0FKWDBSSXBTS3l0YWxqdGt4RjBGNjd2Ri9XVnZSU2Y2SnBlOFZYbTZzTG82c3pyYkE3WCt4bG01dWNHRnFoeHQ2VFM4c0lhcg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="83" ht="45.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19zM0dyZ1JxU0hPTjZaQnlXL0dVVG9aQVQwVGg5d2kyTTQvdmp0V2NGUlF1UW9zSFJBc1hoNHNDM3dkZUZHVFVhT2huM3NPTzJYZyt4RldDUWZtcU1HVU1USkVaZ1ZqZFkvcUJYSUsvR3lZWmJuS05xTUNna2RGWVFkUmdFZWtLaXFYcVJuR0NFWGlQT1VMd0JmK1VoZXQzUCtoa2hwNlJuc2IxVkswQlU5VFduYUY0SVVzL2d3cXRkUXVSbUprTEllWmVWUGEyTA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="90.75" customHeight="1" thickBot="1">
       <c r="A83" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>Head Topics</t>
+          <t>Pilipino Mirror</t>
         </is>
       </c>
       <c r="C83" s="10" t="inlineStr">
         <is>
-          <t>Peso rebounds, but still at P58:$1 level</t>
-        </is>
-      </c>
-      <c r="D83" s="9" t="n"/>
+          <t>LOVE SCAMMERS NAMAMAYAGPAG PA RIN</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
+        <is>
+          <t>Froilan Morallos</t>
+        </is>
+      </c>
       <c r="E83" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Tabloid</t>
         </is>
       </c>
       <c r="F83" s="9" t="inlineStr">
@@ -3397,28 +3505,28 @@
       </c>
       <c r="G83" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19SRk1BOVphQUwxYXZUaUgwOVBlYUg5MGtTeUFzeXN6Mm0xeTE3bDc2aUZFREUwTzNJcDVXdWhrZk9INzZhL2JIQWFvSlVJWHE3MElPeDhwNFpwRU93anZWTlhRQ1c0M3BBcm8yQUgyaThuVlkwY1BhQmpyajJsOU41eEJ6SmRNc1FOUUxxQ3QyM0E2WDdZVFpGSFE1OWZ4bmVDdVRpYUFQUTNiNW1XNE8vejh5VzZEWDVJSWVram5LZWNnTjFkVVM4VVhlelJKOA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="84" ht="180.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19Tam9YMWhtdnEyOE1KbUExS09wN2RQcmE4dHJTVEF0NElRUno0SEFvZ211T0RzQVFUOW9Ybm9oekZlZ1BpTVRWYitueUZhc0VVOTBOU21pc3N1QWhBOXd0V29VbUdjRkhnRVoyOFdFVnZuSlg0OTBGZTdaMm9xNWR2ZjBmVklCTnFPODhQTVlnRnIwa2hxV1hUN0I5dUlLUUh4OFVHK1owaHlwcWlkbkVzaytLQlJza0I3b0R6U0NLdzlMd1lpeUpuQUZqU1NnQg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="120.75" customHeight="1" thickBot="1">
       <c r="A84" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>Gmanetwork</t>
+          <t>Pilipino Mirror</t>
         </is>
       </c>
       <c r="C84" s="10" t="inlineStr">
         <is>
-          <t>Peso rebounds, but still at P58:$1 level</t>
+          <t>PISO NAKABAWI KONTRA DOLYAR</t>
         </is>
       </c>
       <c r="D84" s="9" t="n"/>
       <c r="E84" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Tabloid</t>
         </is>
       </c>
       <c r="F84" s="9" t="inlineStr">
@@ -3428,28 +3536,28 @@
       </c>
       <c r="G84" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19EN3pDRnVDcWhGUXRXcTlIeGZvZytJUVhBRGhzVGlxNWtDWXdTWlVLVVNlRFRlQnh4Vzg3d2IzTmtJZFhwY2sxQjNoWnFJOGZnYXhSak5sTzZuc1BPRjE0b0M1ZHVoNUNwbWJGSDk3R2NPcmM2TnhTell2M1hBU2Z1a1J3RXl6cjA4UmJ4b2lxQWlWOE1JNnFyRVBtaCtySERNNzhsTHFLbnpaSzdCV1ZYYncrNGlJbjFRY1JuRUl0SnRwV3F1cU1zcnRHMExmUA==</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" ht="120.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19lbHZvbXF0UVRhZENMS283bk9qN2w0MUR4QXo4Sm9uVDBQa0NQRi9Ca3htbnVVQ2FQZzVSSnJ1VTVkV2c3ZEEvdFFCbjZkbVNRM29Pa0F3R1FKK1M1MlFuQmU0ZVFQdEZrdXQzRVR1SFR2Rk9odmhDVWJzUWc0S0xxN0JsVk41aEpETFJiay9SU0FoTnQ5b3cxZGd0UHRTUWdJZGw2dkNSdXNDdmF6enlwVE12SzRrdUl2SWJoeDBySHFDdkxFUk13RkJ6VHRkaQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="90.75" customHeight="1" thickBot="1">
       <c r="A85" s="8" t="n">
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>Gmanetwork</t>
+          <t>The Daily Guardian</t>
         </is>
       </c>
       <c r="C85" s="10" t="inlineStr">
         <is>
-          <t>Landbank adopting QR feature in cash aid disbursement</t>
+          <t>NEDA and UNSGSA partner to enhance financial inclusion in PH</t>
         </is>
       </c>
       <c r="D85" s="9" t="n"/>
       <c r="E85" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Provincial</t>
         </is>
       </c>
       <c r="F85" s="9" t="inlineStr">
@@ -3459,32 +3567,28 @@
       </c>
       <c r="G85" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX185OXBPZDRiQnlSQnR0SDFtSGV4a1p4MEdsQnZBWlEyL0ZrbzJFRXlPU0FQVkp1WjJXMmNibnVNeXJBL3BRTy9za1U3eElQdVJxMEg1eVlYcEN4ckhDQlpuYU1HWmc2MGQzSlk1cE00b0w5RzQzaXluTUpGUlFhLzBrVDlueE1rM0R5Tk5TTmN2ZEhiR3E4K0EzY0ZmdlhhZVlWZHllVDBlcGlLZkVSMXE1OENlNlJBWTZHam9SekJDZ2h5UGdJNGpnd2FNbDY4Sg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="86" ht="165.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19aSE1ycmdBMGVuRVpnWlhHTkZNWEk0dGF4RnpPTEYzb2RkaDZFR2ZOQzlCR3lUN2E4OGFBYjdpcDl4Wlh3YXJKODdWVXR2QkZlTlB6TEhUYitKVzhZYkt5bzZKSFJCcEVNNTBadEtsQ2NQVzhBV2NKc3l6S0d0N2s4a1UrL2Y1UWxOT0xOaldYTXhWV1gvb2NjRDNxL1VJaDFVS3BYamJ0RHJsNURPTVBJNHYvdzZraEo3VkYxWWxoUzBFSjBMbnpMUHh0MUFjeQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="105.75" customHeight="1" thickBot="1">
       <c r="A86" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>Opinyon</t>
+          <t>Business Week</t>
         </is>
       </c>
       <c r="C86" s="10" t="inlineStr">
         <is>
-          <t>Queen of Netherlands visits BSP</t>
-        </is>
-      </c>
-      <c r="D86" s="9" t="inlineStr">
-        <is>
-          <t>Rose De La Cruz</t>
-        </is>
-      </c>
+          <t>BSP wants further cut in banks' RRR</t>
+        </is>
+      </c>
+      <c r="D86" s="9" t="n"/>
       <c r="E86" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Provincial</t>
         </is>
       </c>
       <c r="F86" s="9" t="inlineStr">
@@ -3494,28 +3598,28 @@
       </c>
       <c r="G86" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19udDhzYXV0YXk3RXNlYkwzZXdTODNlV01PTTA0ajkzc3pUOEJhTGd2SzRRamM0MWpId1dpUWNDbTdNdU1PRHIrQWNvY2czemhsZW9VZFVTendGL2Q1UEoxNDRuK29jV2pkYXh4bmo5bU5YKy9KOUxWTTY1UTRVWnVQcmpsdU1PQnhTbTZFbldub2ZUUW5oOHhscEZoWkg4dXFocENBOThhZ0RxdGMyYnBQN0VOUTA1eTlFSXQzbnFXRTFVZmVOTGVBZklDR2RoUg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="87" ht="150.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19XdjNwcTJ5Y3dxdzdoZTRacm9EeEl4cFVLV3Fta1VhMWpDK3cxNjAwRnRXcWZ4ejRjYXltV3lWYzlBMEJwdEhFblFDYytsbWh1WkdveXJ3RmFWU3diR2pDYnFBZXlmMklzdGNiLzVXZXVQc3pEd2ZHMjgxbml4TUtTZk01MGNVaERVazZvMmgvN2ZyS0ZFN3pWeXU2NE1pbFBuUmJlRFI0Ky9zNmVDL3h5bDR5K0hWdVBNU3NLR3p1NU9mWmlqZTBYUEVMVmRScw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="105.75" customHeight="1" thickBot="1">
       <c r="A87" s="8" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>Manila Bulletin Online</t>
+          <t>The Daily Guardian</t>
         </is>
       </c>
       <c r="C87" s="10" t="inlineStr">
         <is>
-          <t>BSP requires report on payment system's use and compliance</t>
+          <t xml:space="preserve">LANDBANK to use QR Codes for cash aid </t>
         </is>
       </c>
       <c r="D87" s="9" t="n"/>
       <c r="E87" s="9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Provincial</t>
         </is>
       </c>
       <c r="F87" s="9" t="inlineStr">
@@ -3525,28 +3629,28 @@
       </c>
       <c r="G87" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19uRHNFT0Zuc283ZkJzZzRJc2ZLY2RSb1VuT0UvaW9PeW5qRUVCdGR6VGJmalFKYStockNmc0I1VkNaM1lRVTkzUG90SVF2V25IUHBaMUR2NnJUQzJPaVVOTG5zSEVJbW9FVENmb2k2NGNyTnB4dHdFcUl2RmdlWm1uZlpIS0ZXbWJaOFgrRFZMRG05Mm5mc2tYbnZUSGlpZWtiOThLWm0wYTBEODZhT0hySzcxNkZIc3ZyeG9JdFNESjdxWkhlYnBWVmJ4cjRpSQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="88" ht="135.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19xRk5wbVA1UEhOZVJ3U3A4QVdyT3NkMXJuaS9UKzFjM3QxOXJEbjgxL2I1cUc0cC9RaWtqN21HSlByMlpuRk1Qa1VzeENDem1MczE4N2FHTU54b2dhd09OdDdZNEI2ZjQxVHdpekJWUVV6a0dOdUowdTBNRkcybzJrdEExbHJiNDNoQ1N5MnZ1SFdWdENFRlpxVWtQemduYjlmMmJMSTVaWWRkdnlWZWRaZ1RwMXp5UXJhZ0pRKytQc1FzTFR5Und0dmU2OG5OYw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="150.75" customHeight="1" thickBot="1">
       <c r="A88" s="8" t="n">
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>Amazing Jing for Life</t>
+          <t>The Freeman</t>
         </is>
       </c>
       <c r="C88" s="10" t="inlineStr">
         <is>
-          <t>Home Credit Philippines: The financial ally for every Filipino</t>
+          <t>BOP swings to deficit in April this year</t>
         </is>
       </c>
       <c r="D88" s="9" t="n"/>
       <c r="E88" s="9" t="inlineStr">
         <is>
-          <t>Blogs</t>
+          <t>Provincial</t>
         </is>
       </c>
       <c r="F88" s="9" t="inlineStr">
@@ -3556,7 +3660,7 @@
       </c>
       <c r="G88" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WSG9pV1l5d2Q2cFBWeVVMLzJKVVJqQ2d0Y0pEdVRFaTYxUmNCcjNEdE5lNE5kOEp6NklqSDBLa2hVSDlLWW45ZTFKNlhkOHhUaFZTaitUV0hvbGEwcXpxbUQyLzcyUHFkNDZsa1lTZG1pazlPMG9kNlNVQ2xWM2FveC81YjV3UU0xc2wvNFAxSU9UemsvSW9hYmk1R251YThQNkdrV1RSejdHMVZXTVJlcytuR1hhMVZKWTJMVVFHRXdZcEFhSTg0R01WYTF6eg==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX190NjNkdU5TOC9QOUMyQUtiMkFRYWFES3VQRSs5eU9jV3hKa0tIL01raFRsMW0vZmFrZmdiUG9DeUNmQkNCZUpSR3o2S0NNTEpkQzhiVCtRakluK01ic0tHM25JbHhpYktNRTZQTkF5ZTBuYjlTS3luMFdMV1pSM0Yra0t6bHp1SWtFVjl2aEJFRW5DZXNxNlBJbU81ZXFHYUkzaHRRNGtXY2Z5bFhlMjQ5dVF5ZHBpSWZ5VUo1L0M2T242Yk1uanl0NVJ6VE9TUw==</t>
         </is>
       </c>
     </row>
@@ -3566,18 +3670,18 @@
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>Dot Daily Dose</t>
+          <t>The Freeman</t>
         </is>
       </c>
       <c r="C89" s="10" t="inlineStr">
         <is>
-          <t>DOLE MIMAROPA and Palawan Group of Companies: A Partnership Empowering Unbanked Beneficiaries in the Region Dot Daily Dose</t>
+          <t>Phl lags in ASEAN credit growth indicators</t>
         </is>
       </c>
       <c r="D89" s="9" t="n"/>
       <c r="E89" s="9" t="inlineStr">
         <is>
-          <t>Blogs</t>
+          <t>Provincial</t>
         </is>
       </c>
       <c r="F89" s="9" t="inlineStr">
@@ -3587,7 +3691,7 @@
       </c>
       <c r="G89" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19JUGNhMjNHZkVYRW1iY29RMVZLdmVmWWFDallUaUlLZEVXU1drRDA5djl3dGFqNXBwV3hlcEtmZlRWMTI5VGZFZ3VnU1ZONFpxZFJWK3ZBUHhpbmc0emlNc2s3SmFUUmRVMFVUTHNpSUhqQ29kUnY5M3JhQnZlMEJ6MXJMbWlIVDc1VkpNMTAyOFRPWmw0bmdDakRIWXJLcDRpMU9kalI4N3dPUG1JM0RXZGp5QkNNZitOSzZqOXJLaXhGZUdVUTlva3pHT2dNRg==</t>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19aV0xQWEdpTnpLT2NkSkFodDZhN1YxVnU3TVNZNmZWSFFpNXlMdFhkWktOc0RycmpYbWloMGgybWdnSDQ2dWlSRVRLQ041UFBYQ29XK01ubFIrYWtmb3RPK29FeHJ2WVRVamU1b1QzM3c2THFMaHdUcVpDa3FpZHBabDVNVTZFZG1yYnVyeFZoZXdJcHpoNmZHVkFRUmw2U3NEUGZ1OGIvQjhTZkQzbFlMN1crYStsNENaU3lvaHFlYTRpV1d0RUdyM04xamp4SA==</t>
         </is>
       </c>
     </row>
@@ -3597,18 +3701,18 @@
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>Business Diary - Online</t>
+          <t>Sun Star Pampanga</t>
         </is>
       </c>
       <c r="C90" s="10" t="inlineStr">
         <is>
-          <t>GCash Makes Sending Money From Abroad Easier, More Secure Through Official Remittance Partners</t>
+          <t xml:space="preserve">PH posts $639M deficit in April </t>
         </is>
       </c>
       <c r="D90" s="9" t="n"/>
       <c r="E90" s="9" t="inlineStr">
         <is>
-          <t>Blogs</t>
+          <t>Provincial</t>
         </is>
       </c>
       <c r="F90" s="9" t="inlineStr">
@@ -3618,72 +3722,4356 @@
       </c>
       <c r="G90" s="9" t="inlineStr">
         <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19TTjJzMEw0eWViWjZGM0l5N0dtaEtrbzdMMjNnT2RVdDVCSVU2N1JJYlhwTlNNTUlRQS90NWhveU5oYnhFamtPR0NseERoRXArbG5FUEcyMEhDQ0pDRDVjaTd1cVBqbmpPYjBRN29xVENOQkRyYmhvekN4SGR0N0NFQk1naEpwMTkxVVhnL1Zpb2Zrd2tyWTV3Mi9MajFDazEweWVWc2Z6cFU1amt5QWJqVzh0d25GcHY0WXFGUks0cHQ2Z0QvQ2ZibjBjVzBqcQ==</t>
-        </is>
-      </c>
-    </row>
-    <row r="91" ht="90.75" customHeight="1" thickBot="1">
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19waWNmeEdhTE5TbFJMdTlkK0hLVVozYlFpbmp6Q3haNjZBZStKSDM4dWpVWWxqSzdObk1CclNmWFdnaG94bjNEQmM0OVB4K0NGcWdlTWlIVDBmRTFFdU5Cb1pJOVJFTG1hdW1TMEpLd2lNRFhGZEMwVUNMbUtWa25CVSt5S2M4Ymlyb0VVSDgwa09XeHFUb3Z3bXQ3R0huakM1dUhpWkhCM1RHK3FoaHZCcEQ2RHgwUWxQRmJyYW43enN1TVFWUnBKMjUxWDJlbQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="75.75" customHeight="1" thickBot="1">
       <c r="A91" s="8" t="n">
         <v>45434</v>
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>Currentph</t>
+          <t>Mindanao Today</t>
         </is>
       </c>
       <c r="C91" s="10" t="inlineStr">
         <is>
-          <t>Peso drops to P58 to a US dollar; delays in policy rate reductions affect</t>
+          <t xml:space="preserve">Reuniting the Surigao treasure: A golden celebration of Philippine heritage </t>
         </is>
       </c>
       <c r="D91" s="9" t="n"/>
       <c r="E91" s="9" t="inlineStr">
         <is>
+          <t>Provincial</t>
+        </is>
+      </c>
+      <c r="F91" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G91" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19yS1dUYm5NVGZKa3VjdjBkbUhWQUhxN0RHSW02MmlnSVdPM2xZR1gzN05FOXJodVRjRU9iWkpadENCUmR2bHNOVlZ6aC9rdzNQZGlIbVhkVisyaHphbzJxa2VSeUNSV0s4aTJnbG8vdFNUOGV6eGthZk5haGxSd0NvNi9aS0hWc0hWSmtXQU9QRGRxMkh1UnNtVmhsREdOSGNRZGZyYnd2VWFqaTNYbVNtVHp0SjhIbDhURHFQMzlxanYxR1FrY3Q0U3dpVjJUeA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A92" s="8" t="n">
+        <v>45437</v>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>Pilipino Mirror Online</t>
+        </is>
+      </c>
+      <c r="C92" s="10" t="inlineStr">
+        <is>
+          <t>DTI REGION 2, BSP NORTH LUZON CHAMPION DIGITAL TRANSFORMATION IN NUEVA VIZCAYA PILIPINO Mirror</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="n"/>
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F92" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G92" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19PdkJWNVIzRFpVTlZuQytJRVRPZVV6N2tOQUdVTzYxS2ZESUt6ZWdrZVNsSXNBb2lhU3JaYnR1VFo1K2FZQy9SZ3BWd1N4MnJhN2Q3WDJJb0djYk9jdkFvNXRzNW1DTC9HYmQySkFEem1CWnhMRmw2TWpwOFRRKzQrdXR3NDZDTFQweGNXSlZpVU1Jd3NacCs1clJ2QkFDNmtxajY0bkZjbTJBdDZIRWxTVjZsclNNQitGWHZuNEJaNExtMjVLLzJoU3U3T1NrWA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A93" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B93" s="9" t="inlineStr">
+        <is>
+          <t>The Market Monitor</t>
+        </is>
+      </c>
+      <c r="C93" s="10" t="inlineStr">
+        <is>
+          <t>Queen Maxima's grasp of Pinoy realities The Market Monitor</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="n"/>
+      <c r="E93" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F93" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G93" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX190YUY4RVdJTElFV1BLb3F5bm4ya0xjZ2tWRmFyUTZVYS9pRE1qMGFMQnZnUFd6Vi9aek9LUVlmWFZZZUlFaERReHhyaHdFc0U4aDZFd0RYSGIwNFJLRm1HU1RuaXBnaG1wR1FzME1Wd0tsNi83Z1d0VDl4MXV1NkFCTHZ2OTRDUXRZN1kzUHVieHp2RWNnZFdoNjFNandvNUxsRE4wa2ZhMHM5RkI3YUZ4dWl0UjFwczZvekdDb3p3N29aaG03RzFKeTJoVENkcA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A94" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>Philippines Times</t>
+        </is>
+      </c>
+      <c r="C94" s="10" t="inlineStr">
+        <is>
+          <t>Masyado bang mataas ang mga bayarin sa digital na pagbabayad? Maging ang Dutch Queen Maxima ay tila ganoon din ang iniisip Philippines Times</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="n"/>
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F94" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G94" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19MT2ZaN1g5UHNOQVdDbUc4ZnZ4Vk8xL0dKMFlQc1VvdFJSY2pBMSt5Yi8rVHg1V2tpY0NtSHJWeFNsa2JTOTJ3VW4vY1BBTldtOEtQZjhaSHlNUk5ZWjVhci8rY0M0dDF1L1pqVUNqTjlMbjZVNU52WU9NWDNLYm9ReVhwQ2NHcTZZcDVqVmZIVkZPV2pIM0hIN09IMWYxWkY5a2JQV044cWZQNTFWYlNQVW9tNnpQMlpYdGl4ZzUvRHNHRWJLbk0zNUN4dnorWA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A95" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B95" s="9" t="inlineStr">
+        <is>
+          <t>Head Topics</t>
+        </is>
+      </c>
+      <c r="C95" s="10" t="inlineStr">
+        <is>
+          <t>Are digital payment fees too high? Even Dutch Queen Maxima seems to think so</t>
+        </is>
+      </c>
+      <c r="D95" s="9" t="n"/>
+      <c r="E95" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F95" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G95" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19xaUg3N0RHWHdBNVhCQUY3clhnb1FIdHFMRDhSei9RZk1OY3VTbTg3NFVENkNoOHVHKzFkc3QrNERaOTZyeXlTcDFhL1l6S0E1eUppTFlmRzRRSVhrQXNNQmx4TzZnT1BhQUp2eXdreXN5TGZHejE3STNvR3VubFpNYmxJMFlxWEE3WENkcWw2V1kyOUZQZ0phSTJLUmc2dnA1dVJZQXlic0ZNWGt6VmpvakFaZEdCVWY0T0dsVGVjL3VhZVcwbkQ5UHQ4UWtmZQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A96" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>Rappler</t>
+        </is>
+      </c>
+      <c r="C96" s="10" t="inlineStr">
+        <is>
+          <t>Are digital payment fees too high? Even Dutch Queen Maxima seems to think so</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="n"/>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F96" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G96" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19KeGlYZ094ZklxZUtUbHpwUjRSeEhCbDlvRDZHaHp4TDBCOVUvVkJVa0svT0d5YUZCZkl4Y0hyQTdmZkNnWlRISGExRndlUVZFZ3FrbmRFLzdUZVp2UnFNcTV1dnV4ZDEvUmlaTG1QdWRTeGZhK1NmMHArakZGT1FJK2hEY1ovc0tPSE9CRTRyU1VBL1hmdXBrRXBXalZOanpQOFZNczJaeWxTUUZDMDc2OGRiMWdiT1NGeTliSUxWVGRWOUd2VGhUcW5jNktiMA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A97" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B97" s="9" t="inlineStr">
+        <is>
+          <t>Bilyonaryo</t>
+        </is>
+      </c>
+      <c r="C97" s="10" t="inlineStr">
+        <is>
+          <t>BSP intervening to 'control speculation' as peso tumbles to P58:$1</t>
+        </is>
+      </c>
+      <c r="D97" s="9" t="n"/>
+      <c r="E97" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F97" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G97" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19BcW40OHN4bE1lYXhLMDVKcFUvVkNJMlJSSkdsdmZPZk5mT042cklVRFNsNndiSGZqaVFxNzg3K1hmaDZWYmRZR2FmZnJDQm9rd1BFVXo5eGFyaitEaThPZEtIamQyUlQvMDErQ1RMQzY4eElIWjN3WUh5NmVSZk9iQVcxWEZWb3dUbi9yM01SU2cxM3FJR3FlTDlKamlLbHFwbDN4T01xNnlNZnJqRW1NVXN3NnZVS2RpOFpYYzQxTjZVNGRKM0lhbWpxczhlZw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A98" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>Pinoy Network</t>
+        </is>
+      </c>
+      <c r="C98" s="10" t="inlineStr">
+        <is>
+          <t>BSP Governor eyes promoting open finance ANC</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="n"/>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F98" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G98" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nTHFGVVFYaUtkdzdrcVEweEMwdnFNVXVnRFM5WlZ0NzA0a0ZMNG9iM2RDYmR0cGw5U29PaUxWOHNqYVpEWEM1aEhsUUFoRmg3OUFtd0hUQUd2TkhVQ3ZqRDRRUFdjaE1Najd0M216UWZoaitUYmEwVmh4aUlFRUk2QzZ4bFZaTW5jZ2RVZEZqa21nbTNHck1OdUVUMUpQL2U3NjdTQ2tmbFBFcTF5MEozdnZGVmZPSm44SGhKN25PNjkxekJXdlptKzZJejdpWg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="225.75" customHeight="1" thickBot="1">
+      <c r="A99" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B99" s="9" t="inlineStr">
+        <is>
+          <t>Journal Online</t>
+        </is>
+      </c>
+      <c r="C99" s="10" t="inlineStr">
+        <is>
+          <t>PDIC shares initiatives to strengthen the resilience of rural banks</t>
+        </is>
+      </c>
+      <c r="D99" s="9" t="n"/>
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F99" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G99" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19Sa2JsVElHSlJyTi9MR0FablIrOVRQeDN4bTVhbkdjdzAydm1EMmdMWWEraXRmcHBScnFHZGFMa0U4dkVEQTdIb3FrU2VWaSs1NmorN0pKaTVRK2FadE1EZmRyWEZtQUhoWmk2SUZ2K3AySUtOSkRLTVdBc2JwVDVtcWVPczF6NVUwQ2xBTjI3LzcrbmZIeUozS3U0clVYbHNEMWthTDZWTWpHaEZ1MDIvVzNpeDBhcHJvMldXcTQ3Sm1LZU9GZ0VYRDh6OEc2UA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A100" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>Philippines Times</t>
+        </is>
+      </c>
+      <c r="C100" s="10" t="inlineStr">
+        <is>
+          <t>(In This Economy) Lumalapit na naman ang Peso sa P60 kada dolyar. E ano ngayon? Philippines Times</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="n"/>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F100" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G100" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX196dUp1RWxoQWxTZlpKYjdtVFVHTGlRMSt2WWNkclFrQnVlRmFYK1p6bEF1NjdDU09nM0JGdmlkRnp1Uk9KdXdYd1RiOSs4OWdDbWwzbTBPcHVhdXN5RXJtRE9YS2thVHRQa25DN0lIM1Z2cTNKblhWTytHVThuWDlmaEhPMFRSUXBxRno2UllPZkcwNlBvWmZTbjQ3c1RxdTlOUVgralBmclg5dkl5NnIxYnZ5am83QTI0b3RWeDV5SlM4aUhNQ1AyY2VpUUJVSQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="315.75" customHeight="1" thickBot="1">
+      <c r="A101" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B101" s="9" t="inlineStr">
+        <is>
+          <t>Gmanetwork</t>
+        </is>
+      </c>
+      <c r="C101" s="10" t="inlineStr">
+        <is>
+          <t>Peso ends week at P58.19:$1</t>
+        </is>
+      </c>
+      <c r="D101" s="9" t="n"/>
+      <c r="E101" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F101" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G101" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xMFRjeU5LQVdUdi9NOVZoNUNXK2Ird0RvekJpbk5Gck5uNVE1V1ZRdjBTT0haU1l6ODFuMW9RYUNtTUJDb055d2E5ODUxRDVtcXBjQUVnaUUxcHVPUTFUTm5GUHM2c2x4MVhmeW1qcE5LbWhSbFM0Y1ZtOXB3YkFackxzRTRLdmU3akVVcCttdE5Sa295YUlLcGFFQzFOSkJMWkxQdVNtdGhuOW50VVg4T25zZUU4bHRBTE5qem9ZSVBreFEvd0RoN2IvdmsrTw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="180.75" customHeight="1" thickBot="1">
+      <c r="A102" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>Esquire Magazine</t>
+        </is>
+      </c>
+      <c r="C102" s="10" t="inlineStr">
+        <is>
+          <t>LandBank Eyes Issuing P50 Billion in Bonds This Year, Its Highest in History</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="n"/>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F102" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G102" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19RZmNtaG9DUS9XU2Q5MnRaa2N1QmoxZVBVdDdBZ1RER1gzaTZubFZqWWhaaTZQZDcxU0krcEVtcExvbTRTNlVqN044a2JkOGZkQ3J6d0M0K2xxTk5EbDF0NXFnZDEyU2J6M1VMNXhkejdENnhqWlV4WWJHWGFTVTFHOFhSNzdZTDdvUFc3VVNnN3BiRXFId2dES0pjbFRHOEVDTytlMGVhNEFCdXp4cUNHS1R5WkNGY1JSMHhLQkN4MVE5elhlZlFJWEZ6SVlVdg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="180.75" customHeight="1" thickBot="1">
+      <c r="A103" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B103" s="9" t="inlineStr">
+        <is>
+          <t>Bombo Radyo Philippines</t>
+        </is>
+      </c>
+      <c r="C103" s="10" t="inlineStr">
+        <is>
+          <t>PDIC shares initiatives to strengthen the resilience of rural banks</t>
+        </is>
+      </c>
+      <c r="D103" s="9" t="n"/>
+      <c r="E103" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F103" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G103" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xdlZlUmYyRTZFT2NvOGk0TkkrdzFqVUNqTEJqa1ZNQjZNeGNCcnRhdmRHZUliV2VsVlJmc05WWGkvYVBFcnBqVFppcHpDUXVvclE4aVFQeGV1WDFFM1hETlpUNnZqSFM2MzZhc0ZoNVBEQ1RPVWN4aVY5MjB5TzdIU2R6UDg0R3RmWGNXQ2xHSWdMSGJBc041V0padGNNQ0V3VkFVb0E5OTF1UkY5VnJ4aUV2L29sQS81R2tadDZxK0oxa1F1RWVhSW1SaDVJaQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A104" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin Online</t>
+        </is>
+      </c>
+      <c r="C104" s="10" t="inlineStr">
+        <is>
+          <t>BSP, Queen Máxima promote inclusive finance in Rizal province</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="n"/>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F104" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G104" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX180dmhLWVREcEtHWjZWejRXZGtvZ1M5L0ROWmUvSnJGVEVIWDQvUFRzakc5cHZBdkZ0MzArVzE0eG9Ub3hvZi9TMmYzM0dkTkc4NytyME11WGN5T2xEU0UzVW42WXBMaWo4WlhNQVZWMU9IWWw2NkRFSENrRXlCMy9NVGZ5bVBuUWxlOWVCeGl4NGE5UDNhYjd4a2JEcGRReXM5dE8wR01PNzFza1FoZVNrRHorUVhEWHV5OFd0UU5jcEtLb2lSQ0c2MzNPQUhqUA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A105" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B105" s="9" t="inlineStr">
+        <is>
+          <t>Diyaryo Milenyo</t>
+        </is>
+      </c>
+      <c r="C105" s="10" t="inlineStr">
+        <is>
+          <t>BSP JOINS UNSGSA QUEEN MAXIMA TO PROMOTE INCLUSIVE FINANCE IN RIZAL PROVINCE Diyaryo Milenyo</t>
+        </is>
+      </c>
+      <c r="D105" s="9" t="n"/>
+      <c r="E105" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F105" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G105" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX192aFZ5Nlljbko2eVBaVURCWUNxTkpSdXdvUTJFa0pYUXBKVmJzZmJpaGJGcDZuSHcyaVFDaE9ES05XcmVZdVVyYlErZUFKKzFEekZSWnBwZGhqUk1PcU0yRVA0QndYVzZabWFtN21hN0pCSDBxUXo0K2FTRFBpK3A3SXVmZ3N3cnZyQ1dZYjZ2MUx6dnZUN3BhTkYvemQrRHhRK2xXeDgxeXRhcjlnQVNqVmQ5OWhrU2pEeVJlbjlweUxwNWcxMnpPcytDclN6Yg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A106" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>Head Topics</t>
+        </is>
+      </c>
+      <c r="C106" s="10" t="inlineStr">
+        <is>
+          <t>[In This Economy] Peso approaches P60 per dollar once more. So what?</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="n"/>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F106" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G106" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19KUFdibENISlhVMVBnUFl5RVpMUXBQeGp6b2wvWFhmOTNWSGlYWWw2TDN6WXhsMUszcmRQeHdleHhFMS90cG9JNnlBQ3JrbEkwK2VUZE5tNmRCRXgyOEpmWmRCallNVTh6dFlUYjhZNjZJNGU3L2NrTEJWQ3hITjZPMVYwTFAyYlhuUythcjNzS2pqUmFWbWxjcVdBaDIvVU10bnRkaHBLTjE0TzhpYTRZWW5EelpSaU4yU1hITVVtU2JZZUhNWHlwM3N5QVdvRg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="225.75" customHeight="1" thickBot="1">
+      <c r="A107" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B107" s="9" t="inlineStr">
+        <is>
+          <t>Opinyon</t>
+        </is>
+      </c>
+      <c r="C107" s="10" t="inlineStr">
+        <is>
+          <t>April inflation settles within government target at 3.8%</t>
+        </is>
+      </c>
+      <c r="D107" s="9" t="n"/>
+      <c r="E107" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F107" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G107" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19IMnhGVmhHU2VUbzU0VFBHSjRlT3kzajRPWVgzWjhMQ3kzMGZDdjI4L2tvZFlpNTRUVUtoQWRjSGlxUVpHaEpaR0xmRmE1dVJETkJWNUVaTGxkd2J1SUFjOW1iQ0dGYXJoMkhBajNHUU12dHIvMlpnaFo1RXNDSHk5UGgxMzNiMWU2NnVuNHd3OUVMMGlNUnIvMEN1amZnZjloUG9LYlZTb01MVWJVajN5NGIyRmlvdXp6cFUwTms4MTlqd2NQNDlmUzVoYjd5dg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A108" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin Online</t>
+        </is>
+      </c>
+      <c r="C108" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BSP unlikely to cut rates ahead of US Fed analysts </t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="n"/>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F108" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G108" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19sTU5vcGxjUlN0RjBOd3NLTURTUmowVHpzM1AvYlFQNGFRVmNtTnpIWm9PWU1SVENPdDNhY0xWam9KdlVyQ2tjUFVoNFVOY2oxajkxMWlYUHFzQWt2SVVzZ2pXeGF4NkFVcDh0eFc0Sk5ZOU5COGhMOGJKWlcxZXRpRlZ4UHZ6SHZjbTNtYnNkUFdoMUhDTk9PZk1zQzVVb3lGa3NUZGxhOUxSdjVGUXVCeGlLdEZ0d3ZsbDJ6Z3NrV29HV2FLSm9DajlxMkhoeg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A109" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B109" s="9" t="inlineStr">
+        <is>
+          <t>Rappler</t>
+        </is>
+      </c>
+      <c r="C109" s="10" t="inlineStr">
+        <is>
+          <t>[In This Economy] Peso approaches P60 per dollar once more. So what?</t>
+        </is>
+      </c>
+      <c r="D109" s="9" t="n"/>
+      <c r="E109" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F109" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G109" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19NVkRtSGVLMmJHaENMVklEVDNQRnZZVW9TNXNzeXhMVlZTZ3Npa0k4aHN2alo2blFYUERJdnV4ZkxpL3k2MFlwblNaTUR2c3hVUGJmWlRtbXg1Y3VCMXhhclhrdmI3U01SVkVmQ3hGNmRNbXZLbWxENE9BdmphTjA5MHk4dS9zWW03bElTNzNhM2IzZVcyMWcrdUVmajBFQWdZK3lDYWVndFcwZjcxZlZLek95ZWZidC9aVFU2bXVhSkVtSndUUE5zeHVkU1ZCNA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A110" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>The Philippines Graphic</t>
+        </is>
+      </c>
+      <c r="C110" s="10" t="inlineStr">
+        <is>
+          <t>GCash makes sending money from abroad easier, more secure through official remittance partners Philippines Graphic</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="n"/>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F110" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G110" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WRUlmOTY0WElNYU80dm9EOURmbWdMZ3N2ZU5hN0svdXoyQlBNRVR5WGFvVWg0c1JNRlB3UFhlMkZoR2tGc21za2pFRGZveEsrcXdZODdmZ2NGQm1tN0MxUmd0anZTRTFDL1VrMkZ0UUdlV3dmM1F6UnRPb0N2MUxpOHpoOUM2L295N0hTWjE4RkU3MVRNRGVhT01NcXpvTE4wditkeDd3bWhlckQ1V3UyZUk5ZjhEM2V1ZjhkNUs1c01HTnlDTnNBeFhUaDNydQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A111" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B111" s="9" t="inlineStr">
+        <is>
+          <t>Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="C111" s="10" t="inlineStr">
+        <is>
+          <t>Domestic trade value, volume climb in Q1 Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="D111" s="9" t="n"/>
+      <c r="E111" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F111" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G111" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19sVTF4TGRiTnk2Qi9MWGptZkhPZDhiQjFOQlNHZEJoY2VMUDZueXNpTEZHOUFOUDQ5dEFpcExtQ3kwUXdPYkVJbncwM3NNK0dyQ1Q1Z0ZQSlNlSXcwZUJTTEI1blNxZ0swd3ZQbWdJcldLKzBYZGV6TW5veXJBcjhEYXNWZTRMV0phcHU1MlZGL29LaUJIQmRtUFJ1RnFnU2hVUEV4S2hZV2lhQ1cxYjlGOWlicUtzajdFQmJ3WXhmSDFGaGZFM0JHMytUdEJOTQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="240.75" customHeight="1" thickBot="1">
+      <c r="A112" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C112" s="10" t="inlineStr">
+        <is>
+          <t>Domestic trade value, volume climb in Q1 BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="n"/>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F112" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G112" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX182TlNPWlliVC9odEFKWXFmNHpVZ21rdFVzdy9wdk9mQUpHbnFrbEcrVFA2UGpoaFphMGhxdFBSSUVwTndzOGhiK2plN3BVb2MrSXArTHh5dm9NSGZvVGpybGpkYjhNUWJkOFBxVWdPajVOMzdCL1hadlZIcVU5dnk4TWgvQjBXbU1BRGR3anl1UVNHaDF3WmM5OWZJNGlCSWJsTkxFR1Y0YTVjQkxMenJNWGt1RGJia0k3d040akNzU29qVlNWZHZpY3V2OUgwMg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A113" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B113" s="9" t="inlineStr">
+        <is>
+          <t>Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="C113" s="10" t="inlineStr">
+        <is>
+          <t>Domestic trade value, volume climb in Q1 Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="D113" s="9" t="n"/>
+      <c r="E113" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F113" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX193VzdzUXZhNXdMWWx2a05vNlp0YWg2UG5vckJldDE4VndycVZwYjhqWUYra0lUZUJWVGhmc2pHYm5yeEgreWdNSngyMzdmYy9oN09xWGplYzFQMElvcEtUa0hWOVhpam14eDdueWVyNDE3Z3dhRWpzNkZYY0pzaTFaelF0enk2ZlhJcjJoZEdhM0FraVhDbGtHdmJlbFA0U0NuYWxTa3FFdkM0OGx4STBRc2E0UzVhUHVKQUFpaFZSa3BVV0tJU1ZqVHhUY0hSMg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A114" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="C114" s="10" t="inlineStr">
+        <is>
+          <t>Domestic trade value, volume climb in Q1 Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="n"/>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F114" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G114" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194c1ljUlF2R0pCODQ4a0EwRGRyZGZMTlFadVJPSGdHS2ZUM240eUhJa3FPZXVLTUpPZWdkNFZhNldnell0azNFT0FIY2d1OUwrNW5za2k5a0Zkdis0UmRlSjNNdG5vNmMySFZkbG82QkQzbDZDVC9vM0h3eWplUzNOQlJYSW0xR2I3UFQxemNlMDJOMit1K0FjSHlrUFRjbi9KU3ZUSU56NVBXZ0YvdkVmTGxkY0VLckIwK2ZpSkNBN0M4aWN0MkRxbG1ycWlIUg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A115" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B115" s="9" t="inlineStr">
+        <is>
+          <t>Gmanetwork</t>
+        </is>
+      </c>
+      <c r="C115" s="10" t="inlineStr">
+        <is>
+          <t>Marcos renews promise to finish land title distribution to ARBs during his term</t>
+        </is>
+      </c>
+      <c r="D115" s="9" t="n"/>
+      <c r="E115" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F115" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G115" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xV05Sa0tqYXU1SmFvbkYvN1JkUHlnM0xvL3Zub3Q0ZWR6MnlRWXhmSkMrai9QTU14SVBSQ2JveXZFQWNKcFBNSHd1eXJ4dUlvOWpWVXVLdytkTU1aWjJNckRVZy9jU0xhVnBrM1k0SzZUUko0TkUyVGtRN002T25GdXhrZm5SOFJOQ2hyTVFqalB4ZWJ6WXV3VWJwdThSOUw0VWJxamtPVzhBYk1tdG03ZEJwTk1ZTmhlNGpaTmJodHhWelhBTThLUURLbVlLSg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A116" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>Pinoy Network</t>
+        </is>
+      </c>
+      <c r="C116" s="10" t="inlineStr">
+        <is>
+          <t>Queen Maxima ng The Netherlands, ikinagalak ang pagunlad ng Pilipinas pagdating sa financial inclus</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="n"/>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F116" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G116" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX191a0NKUTcwNjZFTExYUEorV1JPdHg3Smk1VG1BVHIrLzlMNHd4cHkvcDF6RVA2TFNVbUdUY3duTXkvYVJ6NVhiaTJhU0hPaStDZHNDTVpaZkhoNnRJUmNJanA1RGRGbWUzd2UwbmIySVROK2w5OGV1aGY0eWVOUTYwd1liUXQ1bjlWZDBmWUhhMjhtMm01OXNVM05teEhrNnZIVTJpTGFUU2pxdzBqaXE3M3lFdHBFWCtiZGZ4aE9SajZ2ZWo4dEgva3Z2Z2h5OA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="255.75" customHeight="1" thickBot="1">
+      <c r="A117" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B117" s="9" t="inlineStr">
+        <is>
+          <t>CebuFinest</t>
+        </is>
+      </c>
+      <c r="C117" s="10" t="inlineStr">
+        <is>
+          <t>Streamlining support for Palawan's unbanked: Palawan Group teams up with DOLE MIMAROPA CebuFinest</t>
+        </is>
+      </c>
+      <c r="D117" s="9" t="n"/>
+      <c r="E117" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F117" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G117" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19zeEF0dHRIVDdYWEFZZFFEOXZmakNwVU5NNTV5Y3VsNmxjTE5RNUM2VW5CQ3dBWmU1dW1BK2d0UXk3cS8zUlBVLzVDRlluVnlJNFNoeHowUHZwdi9EWkEvWnJKTndzUmM1aVJUWUNxNE5QWkJsU2R0R0U3RForTlhjd1czL2QveW5GaFhQdThUZlphbFczamZwSkdHNzgrOUVTR1pLRUVTa0w2cFN6QkhBcFlJRjRnQjFUcFU1dVdvU2FjNlk4K2JFR0pncFc5Nw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A118" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B118" s="9" t="inlineStr">
+        <is>
+          <t>Philstar</t>
+        </is>
+      </c>
+      <c r="C118" s="10" t="inlineStr">
+        <is>
+          <t>Focus on onboarding Filipinos into formal financial system urged</t>
+        </is>
+      </c>
+      <c r="D118" s="9" t="inlineStr">
+        <is>
+          <t>Louella Desiderio</t>
+        </is>
+      </c>
+      <c r="E118" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F118" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G118" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19lbUVzaDNOeEV1bUc2OHhSdVRiVkFDTVlpN3d1L2oxME9paENJWGVRRTdTZzUrV0xFYStaT3pRdjdHSUNrUlk2bzNDWDBVM0pSN29tcnZ2UHJ4NWVSL0ttVmRxU0hKYmN4U2VnVW5XamovS09tVThwaXlBUlZmVGdkMXRKNklRSkVpeSs4eWxtTFJDcEM5NEhrYTlNYlh6bGVvTFM0Zm5XVU5GcE5zcFZIb2c2RVdielA5d21GTmx3Y2RxT2NpUU9aWjFqaUtncw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A119" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B119" s="9" t="inlineStr">
+        <is>
+          <t>Back End News</t>
+        </is>
+      </c>
+      <c r="C119" s="10" t="inlineStr">
+        <is>
+          <t>Gov't agencies sign guidelines on Internet Transactions Act Back End News</t>
+        </is>
+      </c>
+      <c r="D119" s="9" t="n"/>
+      <c r="E119" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F119" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX196UVZkTEcwb3N1cmNiaGhvNUpuZkNpUU41M3ZqVEtGR1A1YmEyZnZJeXQ1clBjWEdaK01oVVVQbXRlWXJ2Yi9aY050U2p2dmRqOHVRSXdqdTVxcDRHbklTczZSK0xoT1VlcVVha05xUXBOUGFqYWp2UzBjZ3Z5Y2ZENFA3M3lYbTlCLzQ2VU9EeVJ6ZTFDa1hhNmYvVHp2bndSalhSK3pjN3I1Qy9PSmErRUNlM3o1b2FGZXZwWmh0YnptV2hPdjU2ZVdnMVJTYQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A120" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>Watchmen Daily Journal Online</t>
+        </is>
+      </c>
+      <c r="C120" s="10" t="inlineStr">
+        <is>
+          <t>A golden celebration of Philippine Heritage Watchmen Daily Journal</t>
+        </is>
+      </c>
+      <c r="D120" s="9" t="n"/>
+      <c r="E120" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F120" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G120" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19HTmJnTHJJb1VaaFpreUUxQXpSYUtERXRjcmpTbWRPYkNjcnE1b1dEZ0I5azRhOExmamRWenoyTWdlemtQc1d3OEdpVmxVNUpRSVRBNDc1dU14WDBlcEM0N2o1Y2dLNnA1U1FSa2xETGlURStZaFVJenQweGpjcEtiRTh0ZTVlbDRYaTJXYWlkSDZiWWRpZTZSMk9FZGl6TWlOTUs0dGpERkJrS3lQNzNURm02SXp6bXc3bFJjMnlRTzRiWk5Bc1VQWVh1WCtQQg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A121" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B121" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C121" s="10" t="inlineStr">
+        <is>
+          <t>Weak peso won't halt goal on rate cutBSP | Cai U. Ordinario</t>
+        </is>
+      </c>
+      <c r="D121" s="9" t="n"/>
+      <c r="E121" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F121" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xbE4zRlBJTTJhZ2ZlOFM0VEJZVnJ3ZWVvd2l3TTdNeVJaOUozUFFJQjV0cllwb0dodkZ5bjFhRTB1VnU2bGdpZ1djNU5TYWYxMWltdThsQndxMHlDOEJXMVQyUU5IN3dETmttekFuREN5M0tNQUFhR0h6aGE3L1FjT0czZ2s3a0ZIa0w4K3hJNm1DbHZNUEZxTDZhNVVpS0YyaGNkeHBZaVQwRW5tU1V3NDRsNW8xVWxRS2Y5TlBEOXU5bEM2aEZHU2hwTUFGdw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A122" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C122" s="10" t="inlineStr">
+        <is>
+          <t>Are there 'ghost employees' at the BSP? Probe underway | Cai U. Ordinario</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="n"/>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F122" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G122" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19jTlZOa3BFSzY4OEl6VFh1Mm5qZjFaTW9jL0wyRTFnMVBwNUhHVnZtdm1RWUhOMDQvOHp5aFg0WjIzWk9sNkx5c0xBVjZDK3lOU1RMSjJGTjJYUFBFNXAwUjlPUlI4RDVQa0FrK2NTZTFLeVUydWpGc3ZaUVI5ZGswUDhIc1RKRmdJdGZhY1ZUNHZQODZYWEF0WGl1dWJnbHJYZ2Z3aDVYSytBdUFEbE9rYmV0R0hMdXlRYUxQOVZ1Qmp5Q2VQMWNVUnk5QzZTOQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="225.75" customHeight="1" thickBot="1">
+      <c r="A123" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B123" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C123" s="10" t="inlineStr">
+        <is>
+          <t>High commodity prices make it hard for Pinoys to saveQueen Maxima | Reine Juvierre S. Alberto</t>
+        </is>
+      </c>
+      <c r="D123" s="9" t="n"/>
+      <c r="E123" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F123" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18zcVVLMDNER3d5VnYxWC9ZbFBnNmFkRXkxaGVkQlI2L0puQXlLQzJjcXlsRVJHNTFLdjkwb3BiaGZyc2tDaDBoenU4czZ3U0Z0blgyMW5EeFRHQ0N0SFVIOEFpTFJwZHZuNXlDb2lNbEdUdWJBVTJpbmNOeVVsQW5rb2c2UmlGbnRoSVUxMEs1SzFjWWsxSkdaNXEwNmtzYkVtQWY2RDc0VUVjaDRvUzQ2ZmFLUlJuQ1M5YS9BNjJ4dTNJUGFxbTMvOUE3Nk10dA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="255.75" customHeight="1" thickBot="1">
+      <c r="A124" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>Philstar</t>
+        </is>
+      </c>
+      <c r="C124" s="10" t="inlineStr">
+        <is>
+          <t>BSP moves to curb forex speculation</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>Keisha B. Ta-Asan</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F124" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G124" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18xYmhJNmk2ZEc5elJLUmNEWTY1RFNxZ01XbVJXMjlWaVBNRGdSRG5NQno2QTZpVkhMMkxGLzdIR0s0WnJiZWRVaE5lZjJ2RW5uMitKQ3EyZ2NQSmwraWF2eExsMWxWYzU0WGIyT3ZkblZ0Sm11SWdQV1Rrdjc1bmEyc2ZTZXBuQittTHB0TVBxeFRtNHhINGdwemtZeHIwenFTZ25ERzVFOFBPYVNmMlNmMFQvRzdnQ3diUVpkWnR3dEtZK2ZEdktFSlptOEdaTw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A125" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B125" s="9" t="inlineStr">
+        <is>
+          <t>Philstar</t>
+        </is>
+      </c>
+      <c r="C125" s="10" t="inlineStr">
+        <is>
+          <t>NEDA, Queen Maxima partner to promote inclusive finance</t>
+        </is>
+      </c>
+      <c r="D125" s="9" t="inlineStr">
+        <is>
+          <t>Louella Desiderio</t>
+        </is>
+      </c>
+      <c r="E125" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F125" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G125" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19tWFQzNE5XM01RV2xSY3FrYnBWZXhROVF1ZHY3Vlg2QkxTVE02KzVYQi9tRlVwbHE0bk9odnlBUmR6bVFvY3haZG52UjVtWFgwMSt0UjZTT0FSRE5BdnFQbUNkTzdzK0R2eitBYk55enRuem1FQ1l3dHFmNkxYVFFKMnRLOVdOSFR5QU5hWE1kazBqV3grSzd0TERlbDkwQ0l2QmMvdS9iMlY4K1U5OFBrRks5L0g1NmdRY28vS0NsVmVRdFRqcWNCckJwWXBQUQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A126" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>Philstar</t>
+        </is>
+      </c>
+      <c r="C126" s="10" t="inlineStr">
+        <is>
+          <t>NEDA optimistic on upper middleincome status by 2025</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>Louella Desiderio</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F126" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G126" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19KRkxMUnljV3VMR01MNU5yOTNQVlN0ekw4U20zUmRPcmYwL3RYdzhZajdhOXZqYmZXR0dnd1Bza0JXZEl4SzlFR1czeDlyWkJQRTBpWmZVMW1NN1pGdmhYd2hqTHhsRC80RzBSTVZ4Q0ErWGtOTmpuVVhDV1p1K0d0U2xGZkhhQ3h5MFI3T1dZaDBrV3RzSmVUbUlXZU14bGE3dXNqU2Joc1VNb1owUk1WTTBSbnNCQTR2TWlVcHhMQXZtNjZDOHQyZHJOT2hQMg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A127" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B127" s="9" t="inlineStr">
+        <is>
+          <t>Head Topics</t>
+        </is>
+      </c>
+      <c r="C127" s="10" t="inlineStr">
+        <is>
+          <t>NEDA officials meet Queen Maxima to boost inclusive finance</t>
+        </is>
+      </c>
+      <c r="D127" s="9" t="n"/>
+      <c r="E127" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F127" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G127" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX196YU9Yb0o4UUwrZ3hpMldDdC90TnVLR2VQYzM1Q254YVI2L0ZvejVZQlFyalN1by8rVlRwdS8rT0JxY3l3VDU4RjZxUzRFUitka2hSMTFiRkxTbHJmeU5XMUpQbE14SWkzbkpDYnJBVC82OHRIeUNZQkJFOEtBZmJZWWVSRDAyTzY5UkhsSEJRWlRRd1RZd0F6TkRXc0FDV2JsSWRMSzdNUndLazBQWkJEc0JCNW8yaHYzM0pvQmUwNGN6aXdtQmFlQzdhWTlCSg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A128" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>Manila News</t>
+        </is>
+      </c>
+      <c r="C128" s="10" t="inlineStr">
+        <is>
+          <t>"100 pc voting done in favour of BJP in all phases of elections in UP so far," says Tejasvi Surya</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="n"/>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F128" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G128" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19tZ2ZoRVFYRHFQWndsSHlzcEwzRHdGZVlvemVCeU1zOUh0ampXVlNYQit1M0Y0ZWV5NG50RzZ1aHFvalJ1VmZmbUxHQVZUNHN3S3NEdGJrQzhrTXFGME4zdCtTdm5RZVpMekVLOUIzRVNPeFYxWE9DQ1FMaFZrTWJONUFLNmgxMzJGMVE0ZkZWbzJMN1JtRWRwbzFnMk1DQ3l3dmJvdWR3R3dsWUpHNzUrMWt5RXNsUjZqd0hESTJkZGtMTUZZQ2w0MDM5OFpqTw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A129" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B129" s="9" t="inlineStr">
+        <is>
+          <t>Head Topics</t>
+        </is>
+      </c>
+      <c r="C129" s="10" t="inlineStr">
+        <is>
+          <t>High commodity prices make it hard for Pinoys to saveQueen Maxima</t>
+        </is>
+      </c>
+      <c r="D129" s="9" t="n"/>
+      <c r="E129" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F129" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G129" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19SZVpqdzdRS3crZEsrdEUxcW53cWZrUk9xLytHa21rbVNYRkR0QkVaK1FVdXNZWXdDZ3FxN2tPUFRKOVpWR203aDRpeXozbmhuajBSUjZabUxwZUYyOUJVdm0yMFlYTjFqSFdHYVc1OTFQSmtZWXVOV24zVzdRc1JxWk5tTlJ6SElCOGdRY1VxOUEzc2VPb1I0WXJwcm45SDB2c3ZYWndNSC8xWE5zSFF6bDhLMnhlZnVOR2NqTHZBS0ZSdlVtdUNRUWdaamVTdg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="225.75" customHeight="1" thickBot="1">
+      <c r="A130" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>Inquirer.NET</t>
+        </is>
+      </c>
+      <c r="C130" s="10" t="inlineStr">
+        <is>
+          <t>BSP chief unfazed by U.S. Fed's hawkish signals</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>Ian Nicolas P. Cigaral</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F130" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G130" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nUmFUcnA0RHdBa0NGa21WTnZobHprYU1QUGR1RWNETVM4RGN3Q1ZsVEtXNEZhMG0yTkNBY0FIcEdNYm5jNzBkNlBmbndlc3pQTmFSZFM1bExTeElSUEI5cDRRMm4vbXhWV3ozYnZzOE1CYWs3OXhiNEVydmxaUTl5VHo0T3dTNkphYTlXK0JGQWt0MG9xT2d4S1VTenVzSUZoU0ZaQ2NmbGowZGRuWGtwTVlxM3lhUFNJeTc1YWR6M0ZpOUVZOWhTL1hWR1N4TQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A131" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B131" s="9" t="inlineStr">
+        <is>
+          <t>Philippine Times</t>
+        </is>
+      </c>
+      <c r="C131" s="10" t="inlineStr">
+        <is>
+          <t>"100 pc voting done in favour of BJP in all phases of elections in UP so far," says Tejasvi Surya</t>
+        </is>
+      </c>
+      <c r="D131" s="9" t="n"/>
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F131" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G131" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WZ3N4VFlHM2hPNGhqSFg0UFJSNm5OY3BwTWNnRVdrNm50b3loaGZOblJZTU94WWxxZG41cXJHS3h3cDZPbGJ1QXVZOXJXQWFxcTFwazNvUFJxNFBQLzVOWFhnUnZ6N0laVWtOdmw3U0R1VGNKeEtERFZwdEFnS1JEa295cmt3eStlMkg4b3YrQVprZ2l1UXBvREUzS2JpeENFeVNjYzVQTnAxRS94M1VTaiszdkJoK0UyYTQzWUlnRVY2RTB3UC9Ja3Rvcjlyag==</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A132" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>Panay News Online</t>
+        </is>
+      </c>
+      <c r="C132" s="10" t="inlineStr">
+        <is>
+          <t>BSP wants wider access to pension, insurance services</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="n"/>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F132" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G132" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19pWG9jRlk4b1lxNjRTUlNYQzdLOXpaaElLZXZUcDlxekxpNnBiOEFkeDRzcFlLVEl1UWdkNVBVeWEyUGlEMG8rOU1IMUtERUVhZlRXMU5qUUgvbzBiMEc3amV0UDEzWVFMM3dJOWZnM1JIZ2JmK0RORjVxZmE2cnA4NGc4dS9saENIY0R1cFRuZnc1UnBTL3oyYnErbTZqYnNvRitRZHhqSjJmbXF6eGt5a3krSzhLV2N5cE5uLzJHcUhId3hkT0VvVXZnWS9xUA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A133" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B133" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C133" s="10" t="inlineStr">
+        <is>
+          <t>Budget surplus narrows in April as spending rises BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D133" s="9" t="n"/>
+      <c r="E133" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F133" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G133" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nTFZjTElsRm5MZC92V3VLNmFaZ1JSNkh1Y1VNMk5nSmJINy9OQ2ZGSUFyYU5EM1ZJVktzcFQwdHordTU5dG85aklQNkdwclpUcUlPT0lyS3YyWW9CSTdHdS9pNjZXK1hlanM0M2hGRDFuZ3Zzd3FmNE8yeXMvWnoyMTJQUHNFTDNNemNGWGVadlg2WXhHL3JVaU81cklpU2VKMXI5ZUIwTzlKQmJhSmV4KzZLcFBkQzF1aHlEMEx4SnVWdmRyM3N6TUtSa2tRbw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A134" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C134" s="10" t="inlineStr">
+        <is>
+          <t>PHL on track to reach upper middleincome status, says NEDA chief BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="n"/>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F134" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G134" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19rb1FNYW83eUFuQng3OTVwdE8yYWlmN0ZLQjd0cDNSNkYzSDgyMkE5OE1TRW1zb1RSbjdvUnlhTzRCa0VlZURzU1BtMWM2TzRsU2w2a3BTSVRtV1ArQ3BRdGNxcDgvc0FUNFcrclJmdEZqVGpaMTh3eHdBVkdLT1I2NFk4U3FyWnpmZnlWQXlPSFlwUGEwdm9zcURMaWdwalZEWGhSQWtVMjlOR3NmWEJ1OFdjT01Ea0xMcDAxQTdSMjdBWll1dzdOWGR1L2twOQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="210.75" customHeight="1" thickBot="1">
+      <c r="A135" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B135" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C135" s="10" t="inlineStr">
+        <is>
+          <t>BSP seeks to curb forex speculation BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D135" s="9" t="n"/>
+      <c r="E135" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F135" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G135" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19USWxwZ0tpMHo2OGdTbFRBY0lXRk8vMUlhYjJnK1ppNWVHUU1jS2lISHhIa1JMK1JEemNPYjNmc3ZRTWFKbExTOTNQRzNqVmR4UEtTUFhUb2ltazJQeXQzVXkrVXUxeVZ2RDhYa1hoZE43UFg5cnJETHBHM3h6cFZXem9STjcvbVh4dXVuQ3hac0p6anVlMSt5ZFN4b0FxUEd1T1pIOS9CZytlcXloK3h6RjZMOEU0TzVyd2tJb2JxdlRiVFRJL001dThzZVdCUw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A136" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times Online</t>
+        </is>
+      </c>
+      <c r="C136" s="10" t="inlineStr">
+        <is>
+          <t>Remolona: BSP unfazed by peso's drop vs dollar</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="n"/>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F136" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G136" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19IQkIycWZ5bWpKeS9ySWx4UytHT3NTYWhpbkIxd2hycUt5K0RtUWhOYUtrZXhzT21pcm1GcTdUWnJaSWZzM1hGck9hNTF5OG9XMkRTNExIazg4ZzVaUVV6ejhSM1lTODZWbkFVWjhwYXZSZU5IR21qU2dONGI4dVZGYTd1cHc3UkhmcEt5QUhENnNLR2IwVG5aOHlmOWRvUmk0SWY2VlAyVkdkTjU4NkhQK3NFRHBpdGxFNkkwYTBiOGhtYVdJcVJELy83WW9RRQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A137" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B137" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times Online</t>
+        </is>
+      </c>
+      <c r="C137" s="10" t="inlineStr">
+        <is>
+          <t>Dutch queen pushes PH financial inclusion</t>
+        </is>
+      </c>
+      <c r="D137" s="9" t="n"/>
+      <c r="E137" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F137" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G137" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194dVNlT1haSU9PNTFXeGFVSUQ5eGh5YUVpZW5mWDlXem1hM1JPK3EyMlpQOFVsL1NhekQzUE1Vb2tzMXBuUEh4MWNUSW1ubXV2bHVpRWNuYjUva2MyeEZGb0NZZUt0bnlJSGovNWNhUjh5WUZPYnc5S2JHZy9Fb1Z0WXpvcGZ5WHFIVEhXWkZLRzl2bmVvUnVzVzRxaDBvakpXTHhMMEo2dzBmaS90SDRoc1Z2WjBPcFI0N3JZUVpvZmRFT2VJbk4zNVQ4ZXgxcQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="210.75" customHeight="1" thickBot="1">
+      <c r="A138" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C138" s="10" t="inlineStr">
+        <is>
+          <t>Internet transactions act guidelines | BusinessMirror</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="n"/>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F138" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G138" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19ZWGJ5UGVQUU50Ym1wc240aFp2clJZa3JPVENYcE82cjFWbk5oRjlRSXE1b3ZGTUhLRGptRFR3VDFqV21Lc2k2bisvY0V3M0xzTm4yb2ZjYkVQSVhCOFBiK2wyWWZsNnVvRFEvVEhvaVl0cU9GV0h2WnFlUFhpOHVKK0JkWWhtMkpDWWlXcHZFTE4wYWZKMXpxRlkzeGlmR0xySzh5dGsrSUo2bHRGR3FPbVZVWS9LODV0NExxa1ZNbU5qT2JlN1RvVnVXWDhOUQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A139" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B139" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times Online</t>
+        </is>
+      </c>
+      <c r="C139" s="10" t="inlineStr">
+        <is>
+          <t>HEADLINES: Nancy Binay eyes Makati mayoral post | May 24, 2024</t>
+        </is>
+      </c>
+      <c r="D139" s="9" t="inlineStr">
+        <is>
+          <t>The Manila Timesjaime J. Yambao</t>
+        </is>
+      </c>
+      <c r="E139" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F139" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G139" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19YSlhNT0kxWUxiUk4xaEt1VG9RSzN0NlEyd2ViY2pacVlMVEtpZVdLWlFwM2t0QzFUS2xvNFZQNHNkSlhkb2tNTVhLUStjV3BhaXRWL3NvVUc2MjFjbzJjRGoxazNJUC83RkU5U0NPb2kwQjZpOVdNMnJUT2JCUTlqemJFVVN4TTdCRzZZL2h5S3hVUSsyYUczbFBMeVUveVpsUW1jSk1SU0hUa0dEeERRMTNtb1EwUUVEbU1ld25YZkF6UE5zN1R2VmFyaml4MQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A140" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B140" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C140" s="10" t="inlineStr">
+        <is>
+          <t>The other side of US Fed Chair Jerome Powell BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D140" s="9" t="n"/>
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F140" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G140" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18wc1loc2ZHamhQRU85TDZCWC92S2F3UWZ6SnhoZnFwUWtTdy96dkxyaElCZ255WTR3akd5OU9VWW5lVlVwNlY3ZjhEYk8rYXRZS05OUmtZRHcyZlIyVGtQSnZxRGFmckprWm9MUE9DN2FVWmQ0MTJheEIvTWxaWWxMOVNrMFBCelBVQXdKb2FGSUczK2FSZDFKSytUQmorV25heWxpZVZSY2NXQW5wM0x5Sks0cHlaU2YxU0NYakxtTldYdGh0UDY5dkJyN1locA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="195.75" customHeight="1" thickBot="1">
+      <c r="A141" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B141" s="9" t="inlineStr">
+        <is>
+          <t>Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="C141" s="10" t="inlineStr">
+        <is>
+          <t>The other side of US Fed Chair Jerome Powell Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="D141" s="9" t="n"/>
+      <c r="E141" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F141" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G141" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19NMVI1VmRpMytkKzIybFFyeUwxS205VHNka1hQbnBPQlVqczN5dlgrLzQrYTRQMUdzTWRCYVN0b3lsbXdYUTFsZnZGdEJKY1Z1ZXNsVDN3R01JamxldXFPcnZ1dGh3RGk2ZW1xSWxya2svMDRNVjhKQWFKaEU1VGNHTmd5dW4yK0QvL2JyYkJIckl2aU90L3owSTFGWUdtejUwUHZMUVI2TzFvelZwOGhTVGZrVS95dXMrMDNydlVKeDEwZVc2YTVqYTJtWi91aw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A142" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B142" s="9" t="inlineStr">
+        <is>
+          <t>Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="C142" s="10" t="inlineStr">
+        <is>
+          <t>PHL on track to reach upper middleincome status, says NEDA chief Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="D142" s="9" t="n"/>
+      <c r="E142" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F142" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G142" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19pUmExZWNCaktyYlI4Q09PTDJ1dCtBODlCaTczZ2ROS3VGRUp5NFBxNENpZHBxWnFSUWVLUSt4aU9sQ2diZEYxVHJ1bG1JTXFPSTRwaytENzQwMERkWTBRU1h5N1poSklCdEVmZmd5MGE3NHNGbzhzTktzRC92V2wvZml4Qjl0T0FOMFNiS3ZNOHhjcHlHSCtPTTN2Ui9oekxGL2ZrOG1CcTFGbmlEaDFVbGVLTGQ4c0FSclFPQ3g1dVhnbUpReitobVVteHNDaQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A143" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B143" s="9" t="inlineStr">
+        <is>
+          <t>Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="C143" s="10" t="inlineStr">
+        <is>
+          <t>Budget surplus narrows in April as spending rises Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="D143" s="9" t="n"/>
+      <c r="E143" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F143" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G143" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX195Y2dFM1k4V2xrTTZjSU1ERE93a1lheWZMV3JhN1F0dzdMSDErZFUydTdIVlJrY3ZYU3JiS3VsWE1Uc3JwREpmWHg0YVBBUW9NRVU1R3M5bUZXVTRabTRKMTBBc2tlS0ZaK0p1NU9yZ1VrYlZCcTZGV1RTZjdMNmlmVXdDMDB0RmxXeWY4c1BIRjZTTzlMZG5RRGczVFJ2RG9kZTZmaGFidDVhVHFGeW1EWm93MDNPM2tEY1FPZXMxU2xKU0NyMGxpYzNCN1BLbg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A144" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="C144" s="10" t="inlineStr">
+        <is>
+          <t>BSP seeks to curb forex speculation Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="n"/>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F144" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G144" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX180RjZRMnlPckNOMmNVUkhNR0x5VzJsYm1xN3c2cGg3Smc5c3l3Y3NVZHY1M3NCNHloWTN1SzJxT09Ca0ZuRUQvMExQL1VORjR3RWIvUlhiY2VSalFPQUJ2UnFhT0NlWUJlb1dWdXRqSG1Nc1ZNWjhkWCtBdVp1ZDdIa0dXTVYvdnJLOUZ6WVNCWFlpWjU2WFRUME5ueUtWbTBHOXJmaEFPc3AwZU01RzM0OGl0RVMrZ0dRMGw4RVk3c0tPVlljenkyTXpHcGFMOQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A145" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B145" s="9" t="inlineStr">
+        <is>
+          <t>Pinoy Peryodiko</t>
+        </is>
+      </c>
+      <c r="C145" s="10" t="inlineStr">
+        <is>
+          <t>Pahayag ni Senador Sony Angara sa pagpasa ng Senado sa bagong Govt Procurement Act Pinoy Peryodiko</t>
+        </is>
+      </c>
+      <c r="D145" s="9" t="n"/>
+      <c r="E145" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F145" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G145" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19QTzNHWDdmTHJWL0hTMnlsR1MvNDVGUHhnR2h5Q3VoaE50WE4velZ3TXBLNmlCR1pSY3RJOXhkcE1WS29UY2FlMHpjSXVoZDB1MVhYd2dNWlR1aU9Wb1dveGhaY291MTV0SDBpWFNoSDVucDRtZmIzeXZKV3Z5bUQyZmNvekZRcllDUTNrUlBMK0dMQ1cwQnRXQXVjRld4dzdubnN5bEVFbzh6RnlWT1BRbHltWEgrQ1FmU0dnOTRKUytDMHNrb0FpdjFYRXVhYw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A146" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="C146" s="10" t="inlineStr">
+        <is>
+          <t>BSP seeks to curb forex speculation Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="n"/>
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F146" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G146" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19RaDhrc0tVZzVUTEZoRGZmQ2hTeXhXQnZVRENhNi96NUpYZzlGOHdrR1RkQnpFTko1bFVDK2piUnE5MFZQaHdiR1IvcnJ5S1NOYVZCMnJqaEZhYjZMNE9OZEM2eXJBVFNpQjRBcFlTM3NidFdnYjN3MmRGZ040RzJ3WFdUZHNpWGo0VGhid3p3ck14L0IrU3Ixczk0a05xUUN0MCs2NFBHR3RtNmpkNzl1TkMyNWNCQnlGeWFEcDUxaDhjR2lwWVExOUxpTWIxcA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A147" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B147" s="9" t="inlineStr">
+        <is>
+          <t>Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="C147" s="10" t="inlineStr">
+        <is>
+          <t>BSP seeks to curb forex speculation Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="D147" s="9" t="n"/>
+      <c r="E147" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F147" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G147" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19LaFF6aW9XSzZ0UldNYytaZFcybUtWUkt5NkNhU3dpVHdXWkFvYndsSXlyVXBMT3ZQRXg2NXlTU2pNYkxpY1l2MmdsTktHN1dZSGNZRCtCak5TT2xYdHoyQStyQUFxbGRIQk9hL0MvUTgyMzk5T216VzNqdlY3ZGR3bVdYYmt1UHRLSk9aS2JsZlBpY3JYVHNwYm1lZUIzcFhSY01CcDZ5QnZGd3g4QjZoRzFFdjBweEprY0RBakZuUGpVWlJDdWZLS2FiNzc1bQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A148" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="C148" s="10" t="inlineStr">
+        <is>
+          <t>Budget surplus narrows in April as spending rises Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="D148" s="9" t="n"/>
+      <c r="E148" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F148" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G148" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18wVWxLS1hQeUMxbkw3TXhua2xNczBNS0dRV2pwZXB3YjdHOUt3SkxJckxCczI0RkFROEx6MUxWK0dXM0pXRXJuc2NTVzQvQlVLL2VIKzJTV2hvSm5tUVRTei9PK2h6aHY5aVlIQVdieWlkT0hvRHhuZk4xTU5mRGN0TExZelpUWktBeTluSmx0T1c5cStlbnc2VFIwUDBpS2VMZWNwZVRYOUdPRmhsVHZzYjBhTTd6SEZOQUxGT0Njb2tBdVFMYWlnZ2VES2xHMg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="195.75" customHeight="1" thickBot="1">
+      <c r="A149" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B149" s="9" t="inlineStr">
+        <is>
+          <t>Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="C149" s="10" t="inlineStr">
+        <is>
+          <t>Budget surplus narrows in April as spending rises Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="D149" s="9" t="n"/>
+      <c r="E149" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F149" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G149" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19TOVIyRlE3V0RCaHF4TVczTVRhNjBuZndiZzdjQml3SUQ5QjZ4cDU4NnZBakhyeVl4Snd4alZjcHRUMEUvVGFCWjVpdjhQbk1BNWRQaTBldjB6RGtjQnFqUU9SNk5uRkNmNXF1ZjNBTEwvbmg0eEdlUEhpb1JkUUlRd3U1UGlpNXdncGl3cEUvQjlpWEwrbU8zOXFyaEhyUVhNSEtXeGZyM2NmWXl2RFpSVFdjK3FNR3JsbEdwa1BXVklSL2xsZHIwdGUwZEYySg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A150" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="C150" s="10" t="inlineStr">
+        <is>
+          <t>PHL on track to reach upper middleincome status, says NEDA chief Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="D150" s="9" t="n"/>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F150" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G150" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19xWWFXb08xbWdMSEtzQnJROGVwd1hRR3g0bGViOFlKVFZqamVyMmdCZEZuSHQvOFY3NzNsRTFVWGxTNGtZSGorSmpkdXlFaExWZTZMNk1idE05a1ZuaUpxNFBXVFpqa3Zsb0xsQWhWdHppdXNOTVhnRVRzdkRYakhEVDJibTQ4MGJXOWI0N2ttQ3NMVW9laWxEaWhNaGNhSzhOeWFKMDQ0b0MyYUdIU1NRbDlra3VXTmlNRmdWWnlKdEx6cGdmRlFyaFVVdkhpOA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A151" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B151" s="9" t="inlineStr">
+        <is>
+          <t>Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="C151" s="10" t="inlineStr">
+        <is>
+          <t>PHL on track to reach upper middleincome status, says NEDA chief Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="D151" s="9" t="n"/>
+      <c r="E151" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F151" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G151" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX181d0pONmlFSEJTRnY1M0U3V3NnQTlQbXhDNzRzK3ZZZG1lOXJpb3F2VjQ5Skl4Z0xFSHR3T1lrOUhWeG5CampIZXp2cG5USmlmMSt6SjlDK1YzclBXOTI3cW9NcG14S2VsMUZSUkkvanljWWt6a1VIdENpNnFMdjlIaG1vYzB4cCtEbmx6OGs3andtbk5IeTdDeUdmNDZ6R3labm1aRDQvZjIzSW9QVU1IZjZoWlE2V3BVOWVqYXFFdEhLMi8vT3lFS1p0Q0drUw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="255.75" customHeight="1" thickBot="1">
+      <c r="A152" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B152" s="9" t="inlineStr">
+        <is>
+          <t>Daily guardian</t>
+        </is>
+      </c>
+      <c r="C152" s="10" t="inlineStr">
+        <is>
+          <t>NEDA and UNSGSA partner to enhance financial inclusion in PH</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="n"/>
+      <c r="E152" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F152" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G152" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19uQ1NuRGhSaXJjbG5BT2VxcGlwRGpUcUhWZHd3WlltTWZaekF2bllyWW1sVWxRUDQ1Kzc3ZDdXcEtYUTdtTFZSY2lLVVRJdnlJVDJXbVlmeFhKRk80RUYvSDQ1KzI0QVpoZUYyTm9QN0kwKzJYaHcwRDY2UjRvSWJFWk1Wc1JMV0lKZlhoMmEwL2tzOVBpZmluREZwbzgwZ1FSUGliZ2ROQStFbjRpRUQzQUR3Z2tkRDlPLzV6ZmRMZEtjWVJDN2Q3RDBURkh3ZA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A153" s="8" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B153" s="9" t="inlineStr">
+        <is>
+          <t>Pilipino Mirror Online</t>
+        </is>
+      </c>
+      <c r="C153" s="10" t="inlineStr">
+        <is>
+          <t>(Target ng BSP) MAS MALAWAK NA PENSION, INSURANCE SERVICES PILIPINO Mirror</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="n"/>
+      <c r="E153" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F153" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G153" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19CZFJDdEhKOWlFa202Z0tMblZkTGFQeDJnKzI4cG1mQWVTN2czV0ZnWW9qaHFXNlZHdWhLTjh3T1JnWmMzMEhoM2pONkV1MFR0SUU0U0tOWll2UTViOU4wcVR6K2Y2Z3NzeE1wdk41QjdwRjNpU09iUWhUNUxNeHpWbnFMUHNnOFNNdFBGTzVIZGlOOXUvNkdwNGhuVks2WkhSRzNvd3EzL2w0SGlxM3MwNWQycjllMENIMUFxeVNqMUN6QnZORnhmU3czZXpEUA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A154" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B154" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin Online</t>
+        </is>
+      </c>
+      <c r="C154" s="10" t="inlineStr">
+        <is>
+          <t>Of politics and policy divergence</t>
+        </is>
+      </c>
+      <c r="D154" s="9" t="n"/>
+      <c r="E154" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F154" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G154" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19CNTJCZFhTalR2ZXRTQzF6VmcwZFhYbXFmOUxrekxkTEgvR0tTZHFsVVMrRE1ueDZ6WGU2a2hZeTQvZTdCb1VTMTdpVWJQU1p0bEpSVU51QVJ2bkNwTWdqK1NFdndpTkRZUS9VQk9VUTJmVkI3ZFVOWlp3OTU5Z0Qzb0hvRnNkVWliSjlqckNoZTZXZnBablk2bVVZMFlNT09VWG44dUtEK3Qxd25iM0VZd0x5bi9EUzlEMjc3dGltdURPSmk1cG10SDAwaGhBRw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A155" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B155" s="9" t="inlineStr">
+        <is>
+          <t>Newsbytes Philippines</t>
+        </is>
+      </c>
+      <c r="C155" s="10" t="inlineStr">
+        <is>
+          <t>Implementing rules and guidelines for Internet Transactions Act signed</t>
+        </is>
+      </c>
+      <c r="D155" s="9" t="n"/>
+      <c r="E155" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F155" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G155" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX184YlpZVTJqZjhmYzFTR3F2b0haS3UvcnNGbUl4cWRWYW56bmlaazNrVmJ0TGZCM3VVU1k2VnE5QjFoVmpyYVkwWk0zVjZiSnRmRlhPOTlPRC90K2dVYXB3M0NYZytwR3hQVXowVTJWNmdsS1JSekpxWWtNT2tJODJhV0tmcGpIL3pLa3QvU3JjUmJNVW9ENDlhN0NLOXM0ZVZWMEhaODVzMmVsUlZtdjA0MTV4a2VLT2tSbGlrYTMrSVpKb0FhSjNlbytxUDZWZg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A156" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B156" s="9" t="inlineStr">
+        <is>
+          <t>Newsbytes Philippines</t>
+        </is>
+      </c>
+      <c r="C156" s="10" t="inlineStr">
+        <is>
+          <t>In meeting with Dutch queen, digital banks vow to improve PH 'financial health'</t>
+        </is>
+      </c>
+      <c r="D156" s="9" t="n"/>
+      <c r="E156" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F156" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G156" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19zcEx2UkYydWlTRVBPbVhHWFRxV1pYUFFrQWFIeGsvV1hxTmJvY2pRK0tlSXczUFVxdFF2UUxFSm5SMWtoSjhDQkZ6RUo3NEFEWEYwbnd6bkxNTHMzMUlvUnR1S0FBdkpiTmQ3TFdHZ1NvWHpPdXh0R0hIZW5FTjhka2RIKytvWDFnd0dUNTFaMEhBbko0cHRuK1lWK3RwSXBWcG10OElaQ29kcVNtOWZQUDdEY3hKVkJ1dVVyVmpCVVNrZ0VXeU1pZGRoWll6cQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="195.75" customHeight="1" thickBot="1">
+      <c r="A157" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B157" s="9" t="inlineStr">
+        <is>
+          <t>ATIN ITO</t>
+        </is>
+      </c>
+      <c r="C157" s="10" t="inlineStr">
+        <is>
+          <t>PH financial resources seen hitting P32 T Atin Ito</t>
+        </is>
+      </c>
+      <c r="D157" s="9" t="n"/>
+      <c r="E157" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F157" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G157" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX193M0htdlhEZ3F4Z3RqdG9pWG0vdmRDMDZTU2o3TWJuT3pZaTlTZ0t2bG00c1dXZ3U2VlBteEJjWFdPSXlWUFpJQU5JVVZVTFF4SXVtYkdKa3Z6aGZ1eFJ1TTVPRHYwUnpVNXpXeFgyYjd1TGZHQnB1UTFKS0U5MXZlN2VLTElhT2xtc2xhaUpOWTlXVlFhSkxDL3pyUzhTVEh5LzJaMlZJVFNiQVhSUkVjWUx5WGJXZ0hDVUs3OFIvS0xCY0EyUGQrdFRDaEozTg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="195.75" customHeight="1" thickBot="1">
+      <c r="A158" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B158" s="9" t="inlineStr">
+        <is>
+          <t>Gmanetwork</t>
+        </is>
+      </c>
+      <c r="C158" s="10" t="inlineStr">
+        <is>
+          <t>Woman in Davao Oriental lost P35T savings to termites</t>
+        </is>
+      </c>
+      <c r="D158" s="9" t="n"/>
+      <c r="E158" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F158" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G158" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WUlFES0hWYkhNejhUcTdQYXZpa1ZrcHEvYTRpa0p0VWc4WEo1UUh5OHJHUTgxQUNiNmNqRTgrVVRYM0pYVmVPMXA1Ykg0SE43blZnUlhGSS8weFJwTVl6RXc0dGVwSVlPZ0R2MHR5VmRMd1AxUTZlYXcrT0YzQkF1ZkVEc2w2dVJ5UVdhYjhReVVVb2dKQmF4YTRyZXFPeS9YWFZlSHBXQk1UYmxCSXlTVEdBdEJNTkFIdFJHN2loejk4M1czbjBZR0lyQVBLbQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A159" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B159" s="9" t="inlineStr">
+        <is>
+          <t>Manila Standard Online</t>
+        </is>
+      </c>
+      <c r="C159" s="10" t="inlineStr">
+        <is>
+          <t>NEDA officials meet Queen Maxima to boost inclusive finance Manila Standard</t>
+        </is>
+      </c>
+      <c r="D159" s="9" t="n"/>
+      <c r="E159" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F159" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G159" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18yY0t0aUF1N2RnVnR1RWtmZ2FyU1NFZlhNeHlQN1Awd2NZQmtlVzBkeHB6WHVRazJHOEQ1SXFVdnV0UlQyblNJUWpzRGZmTHhEWmQ1amtoL3FyaytIRVlYQ3oyQkpkS0NUZXoxQTR3KzRDMUMxT3hZYzZGcXA4a2dYQnhuU2NGTkVwcjFhWnNNS05JQWxJNURsR2JhSHNrSTJXVkU2N091ZS9RblBucTNENnRXcGFzZVd5NkNGSmJUSkVncWY3TG80K2tEbXJLbg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="195.75" customHeight="1" thickBot="1">
+      <c r="A160" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B160" s="9" t="inlineStr">
+        <is>
+          <t>Philippines Times</t>
+        </is>
+      </c>
+      <c r="C160" s="10" t="inlineStr">
+        <is>
+          <t>BSP chief hindi nabigla sa mga hawkish signal ng US Fed Philippines Times</t>
+        </is>
+      </c>
+      <c r="D160" s="9" t="n"/>
+      <c r="E160" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F160" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G160" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX193UERlNnU1WUF1WjBabU00eGlrZXlNWkVSMkNCdXVNVjY3Snc0TkJzL050S20xQ2tYVUw5c3NnTll4cEsyKzJTRTZYU040Ri9UbUNad2JFU2sxN3ZOUXYraytOWGEwUWxrK1UrcjRWQ0ZmVUNmR3dGYnMvQVEvYlNtMGc3OGJseC9ZVFlBNjd5UkxMVVR1Z1daQytUVEdkUEVIZUJzVXAzVjk1QWVsYUh0Q2JmQnlKb25KWnFGQkVpU1BpSUd0bEpIdVc2MkZmcQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A161" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B161" s="9" t="inlineStr">
+        <is>
+          <t>Philippines Times</t>
+        </is>
+      </c>
+      <c r="C161" s="10" t="inlineStr">
+        <is>
+          <t>Pipigilan ng Pilipinas ang FX Spekulasyon habang Papalapit ang Peso sa Record Low Philippines Times</t>
+        </is>
+      </c>
+      <c r="D161" s="9" t="n"/>
+      <c r="E161" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F161" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G161" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19FZ3VVaVZMUE9yV3FKR1lYZExaTFR5czljdHBGcDFVdjF5S0x2TlUreldqYldkQlJOa3dkMkpjWHh1VFNyKzB4TlcweVJRL1J1SW1KdndqZUZLQzk2TzI5TFRaTWZmTTR1TE9IMFZ4dWZ5Zk9KMjd5V3U0bnA0WmxybkNVNVNCZXEwbjhSUUtoeU1nQytxK1ZOVkNmbDRWdmJRSnhDWkNHaDhPK2M4SVlnTGYyQklsK3lpZE00ZTY3OWJkZ1JPYnZ1Y0JBZFpvdg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A162" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B162" s="9" t="inlineStr">
+        <is>
+          <t>Pinoy Network</t>
+        </is>
+      </c>
+      <c r="C162" s="10" t="inlineStr">
+        <is>
+          <t>One Mindanao: BSP, giawhag ang mga financial consumer nga pahugtan ang seguridad sa ilang account</t>
+        </is>
+      </c>
+      <c r="D162" s="9" t="n"/>
+      <c r="E162" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F162" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G162" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19NeERlZWo1MnR6NXhSWXd0ZnRsRDI2UjBqQXNRVTF5ek5OdnBaaHFKSFBMSUlZMHRld1ROUGNtdGFIUjZnRkdDcmozNC85V0ZMV2xCaDU0aDdLY3RDRGE1RktRRlBOcEdxamdHbzU4cWpZOWZVZE5PcWNxMWVmNzdKeXFhaFNlbkxJeDdUcVVKbEtmbWxPYXNwZ0Y4T0tMcFg1SWY4OE5nQVQrWVpXd1VTWU45NU9GaGpHd25mUThUdStCYkpERGtlRWVtT25LWg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="180.75" customHeight="1" thickBot="1">
+      <c r="A163" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B163" s="9" t="inlineStr">
+        <is>
+          <t>Manila Standard Online</t>
+        </is>
+      </c>
+      <c r="C163" s="10" t="inlineStr">
+        <is>
+          <t>Nasugbu LGU asks banks to deny RCI loans Manila Standard</t>
+        </is>
+      </c>
+      <c r="D163" s="9" t="n"/>
+      <c r="E163" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F163" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G163" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX191ZER2YWZJbXp3OXV6NTBFczduNXM4ZmxRUWxQMEFoQmo5MjJwTVNSWEtMbnQyaXVoUDd0Z2FseEVQOGxUVG9DSnk5QUtaU3BSMWZESURKSW5jUGJDdDgzY01FNmxEMFlVZ0RuUzVlL3RkdWVscWR5cGpXWUZuTUtjNmVIMGdVdERoUjRqalc1OVBGdndxejNiMjJxc3Y0dkJad3ZNM0RlYjdlMTZtdy9PSDRPYnQxeEYzSDFETUdZK0NrMW0yeWtYdHA1bnhOUA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A164" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B164" s="9" t="inlineStr">
+        <is>
+          <t>Punto Central LUzon</t>
+        </is>
+      </c>
+      <c r="C164" s="10" t="inlineStr">
+        <is>
+          <t>LANDBANK to adopt QR feature in cash aid delivery Punto! Central Luzon</t>
+        </is>
+      </c>
+      <c r="D164" s="9" t="n"/>
+      <c r="E164" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F164" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G164" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19la25pN1hWOEo1eUplclcxZ09SQ1prOGtCYkp3dzA1QUNmd0dZVy91NlZ1ZnhXN2JtNHdBc0tCM1Z4cHhhOVRzeXFZdXErSlJPZXFyUnZCbDR6dGhmUy9LcjBHWjFHcE16ZnJ4T3BqVEx5cEN0OVdGRGpaY1hsWENLekxWUGtoMzhyOVNsR2JuRmErQmU2UGU1MDVhamp3S3pWRDlZeEFVS3NHOHVBOUFIVVVHbFZyU2dwMldpd3ltVFk3NG54UE5mQmw0MVpMZg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A165" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B165" s="9" t="inlineStr">
+        <is>
+          <t>The Filipino Times</t>
+        </is>
+      </c>
+      <c r="C165" s="10" t="inlineStr">
+        <is>
+          <t>Overseas Filipinos encouraged to venture into agribusiness</t>
+        </is>
+      </c>
+      <c r="D165" s="9" t="n"/>
+      <c r="E165" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F165" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G165" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19iV2ZVRWN2UCtjYy9mUVN1eEcyZHR2SjJzR0lRcER5ZEt5VDRNemdMbmZLbys3NWw3MXRZSEJjU2lTNzJ0NWNDRTNNM2drRENhNm1yOUE4bnVtMHZickdQR2UxcTdvNGlGc1FyRzlGK0FKU2JvUUtFb3Vuamc2b09hM2t0UzZscm8zYkljRnVrWnNxTmRXb3Y1eGJmQk1laXVxMXNkSGgyNDRLdGRNZ201V0JKSitjRXg1eUJKdXZUU1c2VW5sTFRDT0NoK1NkNg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A166" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B166" s="9" t="inlineStr">
+        <is>
+          <t>Context.PH</t>
+        </is>
+      </c>
+      <c r="C166" s="10" t="inlineStr">
+        <is>
+          <t>Nasugbu LGU seeks declaration of RCI officers, board members and supporters as persona non grata Context.ph</t>
+        </is>
+      </c>
+      <c r="D166" s="9" t="n"/>
+      <c r="E166" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F166" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G166" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19CS1RJTjU0Y1JIUDQvZ2k3RjdpaGlOVmpiL09XUFp5MlRDdGN2cUN4SFB1VkIzbVNDc1RaT2E2MTZYSHkwc0RqaU9UazA1dmNZYjhGZzNXVEQvOHIxOXRtZGRGcmNCcjJtQWJPTGxLQW1ta0VPd1pQVFVMVjFrNzRTdmxrR1dLaFhIM2hodjBGVzZ5dDY0Nk9BTXppRTdSMkM4UHhZZGNpcXlOaFFmRUZxYXREdVZJSUJjUVgxQmpBR3BwTG9sNTZxVHVDTFFjVw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A167" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B167" s="9" t="inlineStr">
+        <is>
+          <t>Bilyonaryo</t>
+        </is>
+      </c>
+      <c r="C167" s="10" t="inlineStr">
+        <is>
+          <t>Philippine financial system nears P32 trillion mark on bank loan surge</t>
+        </is>
+      </c>
+      <c r="D167" s="9" t="n"/>
+      <c r="E167" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F167" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G167" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19CRkN0SHpUOWlxaTQ5RG1DQlB4OWRWcnpDdDlvaWFYdXpHR3dyMnRrZmM4T1FTQVI4VjV5eWpMS0tFK2tKNm9hRjQ2T3RlNnRoamdGSE0xeWZtQzdRQy9CQk5XV2JDZ2VQS2E2UklxUy9IVnZsMmxsVlU2OTJmL3BXZC9nNlRtYkF1SnNMN3ZXUFRLcGVXVGFBWVdrbHFrU3JYUTdGSHhVQmVNdVMvRDJMYTc4QUF4Y0FEMnAxeHFxcU9EYTIrck42NVN3OVd3bw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="210.75" customHeight="1" thickBot="1">
+      <c r="A168" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B168" s="9" t="inlineStr">
+        <is>
+          <t>Context.PH</t>
+        </is>
+      </c>
+      <c r="C168" s="10" t="inlineStr">
+        <is>
+          <t>Toll road operators helping blunt food price inflation with rate rebate program Context.ph</t>
+        </is>
+      </c>
+      <c r="D168" s="9" t="n"/>
+      <c r="E168" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F168" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G168" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19nN2hhUEtUUmRYRGVxemtPQVc1a0RVZUUyMVhmZmkwQXZicGNLb3U0ZFhKRDZxZ0s5Wm1QR2lQRXFUZEliZWwvRFA4ZGNnYVZiUENCWWRPQXhhTCtmbytKR3JnTEpBa204UmZnODRUc1NTWlgzY09EZDJ3ekY2OGhSRXlVZG5SbjJVc1ZFbm0vcXRNR2FFUnIrUjhsRUFZVlRNaVpIRlhacnhuZW5ObWZscHNISnRqM0drL0tMVFU0UkZDZzBQVUE3N3NCS2ZZTg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="225.75" customHeight="1" thickBot="1">
+      <c r="A169" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B169" s="9" t="inlineStr">
+        <is>
+          <t>Fintech News Philippines</t>
+        </is>
+      </c>
+      <c r="C169" s="10" t="inlineStr">
+        <is>
+          <t>Peso RTGS Participants Mandated to Submit Compliance Reports by BSP Fintech News Philippines</t>
+        </is>
+      </c>
+      <c r="D169" s="9" t="n"/>
+      <c r="E169" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F169" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G169" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19LcnRlMEhmMDVhcGxMakVzQW1XMG5Bd1JKR25iMEhnTHhtdURBOHdWeW8wOHBYWmF5YkJYdHJ5a2Q5Q3lCanJicHlwN21QVUdvT1pUZTUvY1hXcE0zMFhzZFQ3QzJXUWZIUHU2QjdQcTVjelR3NmlMcmVIc0xVYlRZdVgxamhML0RaLzZzMkxuUEQvS0JTWnVBQVc3YU5pSzF6NklVMjBheER4Und1cFFGYVZUOUJVUlVsRWs4OGxEVFBOMzZDVDNTMm1IZDNLeA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A170" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B170" s="9" t="inlineStr">
+        <is>
+          <t>Gmanetwork</t>
+        </is>
+      </c>
+      <c r="C170" s="10" t="inlineStr">
+        <is>
+          <t>BSP wants wider access to pension, insurance services</t>
+        </is>
+      </c>
+      <c r="D170" s="9" t="n"/>
+      <c r="E170" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F170" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G170" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19VN2JLYUJQZ1VvaWZpMEZUNVJCWWpKMSs3ek1lSkR2ZE4wY0VUMndSSDhoM1FFbCthem5IQ21FcGlUZjlMY1hKcWF6RHVuZXcxQWZ2dkZQc1JQM0J4bzB6ZnFxVlovdUVTYSt5VU1tVWZ1d1VYZE85eDNWMzBQMUg5SGE2RnNSa2tjaXlXczQ2KzJaQTBRVXdkOEpTMVNtMDluZ1FZd2tMc0FHSnJOOFR1R003ZWYzU283WVdsRmtiMWp6U014S1hhYmc1Sks3MQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A171" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B171" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin Online</t>
+        </is>
+      </c>
+      <c r="C171" s="10" t="inlineStr">
+        <is>
+          <t>PH financial resources to reach P32 T midyear</t>
+        </is>
+      </c>
+      <c r="D171" s="9" t="n"/>
+      <c r="E171" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F171" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G171" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19LamJNSmJyWkZyMDF6di81K0xOVURjdkxRNFE1OCtMQ0szQ3hCcEFUSzRYZ2Y3YStXVzVWTkl1QVM1bzc0MTBIMUxPVHF6WEh5cm4rcjZsTGU1RkhLYXJ4MzNweXZwOXkwaUg1d21UYXd2SEdTMFp1Z1pScU1LRjlLWjRBb2grNzJPbkFPem5DcGlEQTFrandtdVhNQW10VUNWMUYzV1NGUGdxajZYVi9tRUNYZkRvYjZFQk9YUXEvMVVTVVhKdm1XZU0rcFRxaw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A172" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B172" s="9" t="inlineStr">
+        <is>
+          <t>Opinyon</t>
+        </is>
+      </c>
+      <c r="C172" s="10" t="inlineStr">
+        <is>
+          <t>Pork now P420kg in MM</t>
+        </is>
+      </c>
+      <c r="D172" s="9" t="inlineStr">
+        <is>
+          <t>Rose De La Cruz</t>
+        </is>
+      </c>
+      <c r="E172" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F172" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G172" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19GeTRmV0NpamMvVC85Rk5NNVRndjJMOXEyOFBqc1ZnakxOYzBXVndud2g4ZU1vc0RqZ2NPSWtvb2crTUd3aWZRNXdYeXhIVHhQb0FaOTluTHpRRmYxOS9hTnpYTXd3ajRpSXNNTm5BWU96VHExZWRQeHlaSEV2VWpYMW93a0VYMlZCVFd2K1prdWVOalYycVpvbjI1WXVoNVFsSW1hbWNzcUtHdVBEbGV4K0JZdGlQWlFtODErTEdJSmJ3ejFJZVIwR21YT0ZmTA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="240.75" customHeight="1" thickBot="1">
+      <c r="A173" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B173" s="9" t="inlineStr">
+        <is>
+          <t>metropoler</t>
+        </is>
+      </c>
+      <c r="C173" s="10" t="inlineStr">
+        <is>
+          <t>Boosting Financial Inclusion: Palawan Group and DOLE MIMAROPA join forces to aid unbanked beneficiaries | Metropoler</t>
+        </is>
+      </c>
+      <c r="D173" s="9" t="n"/>
+      <c r="E173" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F173" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G173" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19jeUZTbUVyS01GSzVaeTMrRDFnRzF2R2IrK1dRUnVhMTVCbUNPSzhlY1lENndrR2JXZTNGbDJPdFk4MFYxNWVqYWZmRnpTTzVSUDltaEsybDZMWUZTU0tlL1cxcGpod2ZVVzlLUS9lRU9VTmlCclBHUm5WMzVyamhxRmt6TVlqOFRnRFNKUVQwcWFnZFdYSmtoK0J6bW01TCsvVUtJVWU5b2VYdzVCNWVRTnFMelJBdW9kMTVObjdLWTNoNFNnR2VCVjF6clVjZA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A174" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B174" s="9" t="inlineStr">
+        <is>
+          <t>Diyaryo Milenyo</t>
+        </is>
+      </c>
+      <c r="C174" s="10" t="inlineStr">
+        <is>
+          <t>DTI leads interagency signing of Internet Transactions Act guidelines Diyaryo Milenyo</t>
+        </is>
+      </c>
+      <c r="D174" s="9" t="n"/>
+      <c r="E174" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F174" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G174" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19ZS1k3c0pVbjR2SHVLbmhVdHlmRVR3NzRRVTM2UnZHOTI2czd0OWcvaUdLNnZHZ3RJMUtlK3kzbzc1a0RnMk9aeGpKR3ZMeFp0SUQwZ2FUTWFXTDZyMHQ2NEZtMU9nMGFaNG9rRmdFR3RUQWVwSHQ3RkFmS2IyeFd5dnNnSkt3ZFVYVDJvZVpIdDl4VnplSmg0RjU3d3BrbnFVMFZGSSszWDYxblJERlM1NGJ3UHhnNjBKOTZNMVBSN3dDYTdWdnNyTVRIY0ZMQg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="210.75" customHeight="1" thickBot="1">
+      <c r="A175" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B175" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C175" s="10" t="inlineStr">
+        <is>
+          <t>Philippine central bank says intervened in forex market just to curb speculation BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D175" s="9" t="n"/>
+      <c r="E175" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F175" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G175" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19pd043TFZJd1VxVDMrSndtTVBBZU9ZQXpVSUhOb0RWbUl2VzVWMjluSkoxL0RnQjAxeUFCU2U1RkRSdmxUVUNCYzJkUlk0SGtsREZpa2xIaEtxbUpjdnlXZGlQQm1iYzBxR25aOFRpWG11bmJLNk0zb3I5Mm9KNnJOUzBBbkRvdFJmS3AwQ1F2bG9WRzRGb1dMcTR5U3BRQlBxc1JFNDhLT3hHVUg0eTk2VG5MaHpMWUhyMFc0TGhIU04rT1dDRHBWc0dON29jOA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="225.75" customHeight="1" thickBot="1">
+      <c r="A176" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B176" s="9" t="inlineStr">
+        <is>
+          <t>Ikot Ph</t>
+        </is>
+      </c>
+      <c r="C176" s="10" t="inlineStr">
+        <is>
+          <t>TIU LAUREL PUSHES FOR SUSTAINABLE PH AGRICULTURE IKOT.PH</t>
+        </is>
+      </c>
+      <c r="D176" s="9" t="n"/>
+      <c r="E176" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F176" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G176" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19RUW1lQVBib2QxTE9qNG9HNTZBQmtjT3ZoZVJ4RHNSdW1SNyt2cDVhWUJqUkoxeVA0NFNzYWpZTE1obHFEaWNUbGx4bmlBbUx2ckNUYjk0eGhyd3FGaUl3bVAzS1V4OHViakNiZmhPblozb0JrOCt5RVkxaFlkMUgzOWoxTnN0WHlWZ0N0Z084MGZGSm9NY21tTENmNytiWjFGcGpadzRPUmliZy9EbFo1MFcyb2ZoQ0MrVWI3bSt0cUxMUi80WE56dWhZUXlwQQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A177" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B177" s="9" t="inlineStr">
+        <is>
+          <t>Radyo Pilipinas Uno</t>
+        </is>
+      </c>
+      <c r="C177" s="10" t="inlineStr">
+        <is>
+          <t>BSP, nagbabala sa publiko kaugnay sa mga text advisory mula sa mga umanoy agent ng mga bank institution at ewallet</t>
+        </is>
+      </c>
+      <c r="D177" s="9" t="n"/>
+      <c r="E177" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F177" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G177" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX195a3VaUUlhcWEwMGlVL1d4UmlkVzVRa05iRzYzWFhzd0xEM2l3cEZkK0FLSFlSeDdzMDdDQks5TjJnNXNrZEVpa0QwRGpWY05ONS9wUlhKbDB3bDNxM2diTjVtM1IzWHJ2UmNZK0t1Mlc0UnVwdFlSRWowbjltdGFIT3lUZTJ0T2hPQ1ZPY0NQYjRIUCtjZVVsemNwS3ZJWXdEeDN1dVJoY3J2ZXd4d1M2VkhVMGV0LzEweUZIUlVJZ01iRlV2UU4vZTJJOWtQaw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A178" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B178" s="9" t="inlineStr">
+        <is>
+          <t>The Market Monitor</t>
+        </is>
+      </c>
+      <c r="C178" s="10" t="inlineStr">
+        <is>
+          <t>Economic leaders meet Queen Maxima of the Netherlands The Market Monitor</t>
+        </is>
+      </c>
+      <c r="D178" s="9" t="n"/>
+      <c r="E178" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F178" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G178" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19OYk5yZ2NIcVhyVDZqbnBHVjRLVlRkMjVtTzhEeWVuSGlNNTJ0NGtPWXNXdWdnK056aVhaQUdXWENTYUp6Q2h3WGhGamxyajFnZjZLbTJPU0pnakRhUGg4RGRZbUo1UkdoUlRkc0ZtaktlbVI1OFpBSG50SmV6R2Zqc2RMVjFGZjhmbzVUNmZjdEpmbXI3bDAzKzVRNkNzbHdxUGhOLzNuWTh6bnJSM2xNWkpsN1JoVGN4ZXJwVVJBdHE1a1BzQlNFa2lud1Z1ZA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A179" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B179" s="9" t="inlineStr">
+        <is>
+          <t>What a life!</t>
+        </is>
+      </c>
+      <c r="C179" s="10" t="inlineStr">
+        <is>
+          <t>GUIDE: How to Apply for Loan in PayMaya (Steps, Requirements, Process)</t>
+        </is>
+      </c>
+      <c r="D179" s="9" t="n"/>
+      <c r="E179" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F179" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G179" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX190dE5yTm1IZ0FvVXRETXBvZmdIbHZURjZVYU9tSUZnWkptMldjZDdTTy9yeDRKUXdCRUx2elorTFVlM2ZkdWhEaUtyVk1Zcm9VdncwK3ZiLzlsV0JGSWEzS3JXM2JaUVRRNTc3SUtiZ2dqQmxGVUptR0wrRGZxNUR1ZXZERkVwa1JneW1KcVZLZHFybjE0cWN4d1lUdUVTT0dkZjY3L2I3dzQxVCt5VTRyY2ozbXptSlV1bmFnblV1Znd4dDhoMG9XUW5zZnZaVg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="285.75" customHeight="1" thickBot="1">
+      <c r="A180" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B180" s="9" t="inlineStr">
+        <is>
+          <t>The Market Monitor</t>
+        </is>
+      </c>
+      <c r="C180" s="10" t="inlineStr">
+        <is>
+          <t>LANDBANK to adopt QR feature in cash aid delivery The Market Monitor</t>
+        </is>
+      </c>
+      <c r="D180" s="9" t="n"/>
+      <c r="E180" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F180" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G180" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX192YmlMZG1tdUdWcHlZL1EyU2VFYXR4cjBnZlRtemJVS253UUZBSEgvRWxmQ1JNNDF2NFc1d1lueEJ5dFlHTm1ISTBEZWxrajkwM0YwSitocnJIM096NnYwaHhaSllxWmVaVXErOTdOdFl5OERmTm5SVElrUGVBZDhzc1RoWTdMUXJjQzZxYS9wY2toMXkvZElZUEdnVERDZSt0aDdtcHIzMksrT0pNcTVWSzU5blg1ZDZDM1Nmb1lyS25mNzlrSnBscjd1Y3Y5VA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="195.75" customHeight="1" thickBot="1">
+      <c r="A181" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B181" s="9" t="inlineStr">
+        <is>
+          <t>GMA News Online</t>
+        </is>
+      </c>
+      <c r="C181" s="10" t="inlineStr">
+        <is>
+          <t>Woman in Davao Oriental loses P35K savings to termites</t>
+        </is>
+      </c>
+      <c r="D181" s="9" t="n"/>
+      <c r="E181" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F181" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G181" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX195eTRsZEcyNXVjR25jdUhNazZFNUNkZ0NGbnpubnZBcHpIRGw4cDNYcE12c2UxTFFSVWNzQnM0RFJsdU9DZW10Yml1eGVDN0NGZUdFZUd3SDJuSE5qWEVzNlVPNHdPUDIzNHhiOWJNL0txcjBERlJ0UjFqZmZLajQrNVM4bWxLR3NxUkhCSnUybU1QQmpQajh1d2VMOSt2QnVrY1YvN0xJNTdUdXVOV2QzaDB0YTA5RUdQaUZYZW0zUXlSY1ZrS1JTVmh4VVZ6Uw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="225.75" customHeight="1" thickBot="1">
+      <c r="A182" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B182" s="9" t="inlineStr">
+        <is>
+          <t>Philstar</t>
+        </is>
+      </c>
+      <c r="C182" s="10" t="inlineStr">
+        <is>
+          <t>Air fares to go up as peso weakens</t>
+        </is>
+      </c>
+      <c r="D182" s="9" t="n"/>
+      <c r="E182" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F182" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G182" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19rYjE0U01iVmhZTXB2WnE4eGZvemM0bmtyMzc0dzNMc05UbGd1SnoyQWNKaWhRL0UwM0VtNWw0RzFSN25WZUliL0Z4Um1yOGtXcFBrL2l4YU9QZ3RBMWJqMEFmUlJDVmlmUFhaS1h1aUw1VXBHYWN6WXJlNlY0MWJtbDMxZ1JrS0JNaGJXbnBKN096cDRaZFBmMnNaQU93bjJ2SGxhazl4eGxPYTFTZGRsQlhRSll0dlF2b3lEdzBab0JvQkxHWThUR0htc3JDeA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A183" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B183" s="9" t="inlineStr">
+        <is>
+          <t>Inquirer.NET</t>
+        </is>
+      </c>
+      <c r="C183" s="10" t="inlineStr">
+        <is>
+          <t>Landbank eyes biggest bond sale ever</t>
+        </is>
+      </c>
+      <c r="D183" s="9" t="inlineStr">
+        <is>
+          <t>Ian Nicolas P. Cigaral</t>
+        </is>
+      </c>
+      <c r="E183" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F183" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G183" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19JNjFsdDZBUUFwMXNvekpHeHB5eFg0RklrM0g4RXk0bjZoN1RuREdPcWdqbjJaYkk1S2JpVmlIRk56aVY2YW9QNjdqK2c1bHFYWHRWTDRHc3dENHhxeHVHdWMvSW5qRWJlSUVRZTZ6eC9rbTVpU1dVdkR5ajlqM0Uyb0FCaXhPU0pDOVRTcG5XTkJkYzhRK0o5Z0psbFBpOEtxaFEyaEFFUlFoQ0dNTGtmam5TRzRvc1NHdDkzMFBOQklsOUtJMVZTdVVTNVBPOQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="255.75" customHeight="1" thickBot="1">
+      <c r="A184" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B184" s="9" t="inlineStr">
+        <is>
+          <t>Inquirer.NET</t>
+        </is>
+      </c>
+      <c r="C184" s="10" t="inlineStr">
+        <is>
+          <t>Waning consumption feared</t>
+        </is>
+      </c>
+      <c r="D184" s="9" t="inlineStr">
+        <is>
+          <t>Ian Nicolas P. Cigaral</t>
+        </is>
+      </c>
+      <c r="E184" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F184" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G184" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX193Qm5LVXV6VTNLTXlBSnBjem5vcm54RHRtTUVJWjRnbHZmdHdMSVdWa0NpTHoyS0R6SGNxM3gwS0xreGxucTNqNTNja0VPQjFOVUdPRDQ3bDdCRUJOUHQvMlZneWJOblBiejZYVEw5ZGlOQWhNUHVDVCtncTNyKzdEWXA2azdoNXFmcHBvck05TXVMcWRjZ0xxWTRmQjE5S0huckJydE1lemZya1NnaS9hWW96U0xhTTk1ZGJpUktTNXEyUzlWb0h3QUt1K1RuNg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A185" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B185" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C185" s="10" t="inlineStr">
+        <is>
+          <t>The peso depreciation | John Mangun</t>
+        </is>
+      </c>
+      <c r="D185" s="9" t="n"/>
+      <c r="E185" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F185" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G185" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19yQUtjSmZSS0ZqdU9jMnhJNjJ1Zkp0aWU3VE1IUmYzMTd4Y3BTa1dpTEk4YWh0emt4SlNHYm1oVCtqQXFYOGRDTXpmK0xWSlJGRlpVWHcyY214NTZkWTVGU1BndWI2eEFubmY2MDFRUTE0M2FiaC83bkhuR2dKekt4cDU1WUIrbzE0V3FOVjhNQXFVNTZiZERPcS9KNGhpMFZCYkx5UnY3bTlNU2xyUFpWamE3MlYyRzBtaWlPN1ZuRzhiVWd5YWpVZU1hUEQ0TA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A186" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B186" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C186" s="10" t="inlineStr">
+        <is>
+          <t>'Food, oil costs could rise on peso decline' | Cai U. Ordinario</t>
+        </is>
+      </c>
+      <c r="D186" s="9" t="n"/>
+      <c r="E186" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F186" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G186" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX181T1huc3ZvOG1BNDdWNE5DY0h3ZkF3N21MUnlXL3kwVkJKU0FucG85TnJ4RGpyZGIzaTAyWk85K3ZQUzZCOTBnaVVIUFVRZnpjcEx2SVBZQWlMZDhrMWVHN3ZPSXpWMkNZcm1hd3NYR00ya0JSWkthNC9vNnBxdm1PbzhnaG1POFV1WmswM2srUW4xb0VCY0NCNHdadkZBVVZuRXkzZlpNMkt2cVJJb0Q3SW1vYVJlK2VyZ2hqNmVmMW9PYnBkYk02Q3NXTlV3aA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A187" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B187" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times Online</t>
+        </is>
+      </c>
+      <c r="C187" s="10" t="inlineStr">
+        <is>
+          <t>HEADLINES: ExWescom chief says he made no secret deal | May 23, 2024</t>
+        </is>
+      </c>
+      <c r="D187" s="9" t="inlineStr">
+        <is>
+          <t>The Manila Timesjaime J. Yambao</t>
+        </is>
+      </c>
+      <c r="E187" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F187" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G187" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19MY2UzZWpRVmhhZ3JmWFRtWVk5WVVxZkk1UGkxNTdGZ2hTUFhRSURncC9wTDRWb2t2dmFsRUhFVmRjQnQ3UnlxUVVnRHIrK1VvZDg3VnpvTE04NFZhU2dLZFd0YU16bVJobDRJd2pwbmc5aTVHU2NJMEJ3OWZ5cGZwbUFaeHdlK0x4WkRUTW1JNEYxemtJWENqeDY4eWNDUVZmQzlxbmZXTEIxQlVweENJeE5CM2xPYStHREpyNFR6TW1Ob1NGbXRwMzkrRi9QbA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A188" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B188" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times Online</t>
+        </is>
+      </c>
+      <c r="C188" s="10" t="inlineStr">
+        <is>
+          <t>Peso regains ground but PSEi drops anew</t>
+        </is>
+      </c>
+      <c r="D188" s="9" t="inlineStr">
+        <is>
+          <t>The Manila Timesjaime J. Yambao</t>
+        </is>
+      </c>
+      <c r="E188" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F188" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G188" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19BYUxFS0J5MEprZVhicm9mZEVLYzJJN2N1L2FwN2xtQS9GSmNweEU1bkNYa0lnVmF0RFRlRzhhbGcxVjJtM2JyTkw2SFJsU0s4RVp1OEF5aUQ0em8wT1FLZUdQeDZmaDFpRWVRd05RSHdtRkUva3NoYlVweUZNK2tseXhlbExXRURqZ1ZvMDlyVkpOMHlqdFprY0ZOOEl4Uzh6Q1VyeEcybHZyM2U3dGR0YVpqdzltalZpUUhaejVKOGlWSXh6ZU9pd2dETGVWWg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A189" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B189" s="9" t="inlineStr">
+        <is>
+          <t>Manila Times Online</t>
+        </is>
+      </c>
+      <c r="C189" s="10" t="inlineStr">
+        <is>
+          <t>Timing of BSP cuts uncertain analysts</t>
+        </is>
+      </c>
+      <c r="D189" s="9" t="n"/>
+      <c r="E189" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F189" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G189" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WSWZwb1l3b09MYTM2a3hpcWx4aW9hZW9nQU1TK1NkK2RobHAyNGVIcCtFbmlQdTlxMkZ0b2d3T1hrL0N5RzVkVVJZekJqcWNxMjMzN2d6MHlTV3JEc2JaYmNXeVY4V0hIVUZ5VDFTUGw1NEkvSDZTb0xMT0dNVnRIeEpBNExqSENlaityTXpvck5jYVM1VUF0Qk5wOXRvRzlDSVBJVGxpRkxvSUZIWGpSOUFSTVBUcGVvSDV5VUpqWnFFWTlVUGtQbk92M3lQVg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A190" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B190" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C190" s="10" t="inlineStr">
+        <is>
+          <t>Yields on BSP's term deposits inch up BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D190" s="9" t="n"/>
+      <c r="E190" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F190" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G190" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19rRDY4SE1rUFh6Qi82VEhvQnhndVVYUDQ3RjNBZnBiaUVEK3h3bGtvRFp0RndPWmVBQWxrdEJyYkxpRDFjOTEwbTFKamloZzJtZkFPSEVWaGh3cU96OG5PbHB3TkhvMEJqRUZzcmVXamRvcjJrQ0I4TW5rT0loRytRdkdWVFAxb2lVQW94ZE1RVW1zMmxTYjBNUjJxR3YvT0krYmNHbXZTSTkrWlVHemlaREhXSHNSRG4zU0p5Nk9vNGVEWGUxL01zbG9jYTdicw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A191" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B191" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C191" s="10" t="inlineStr">
+        <is>
+          <t>Cap on credit card charges now up for review, BSP says BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D191" s="9" t="n"/>
+      <c r="E191" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F191" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G191" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX196WTdiUVd1SStLc1NLREQwWGQrMWVES1FCM0hPallSS0tvbGd3a0ZxNHgwOVZZYmpBeE9rTWl4K0F5bzM0cC9rVnI0Y3lzN2VvcWZ3V0lURDhzL3lUL3QxZlVZcDFpUkM0Yzg0a3F2dHJYYVhVdElvZFFqRVJJVzMwWnU2SUFYd0VFSUJkWHJWbnowU3ozZTVia3NyKzVuR0svT1V3ZnlrbXp1YWVzeHNoeTZtUWY3V0laOStsenFRb0EvSnNXNDVYL0EvMEg3bw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A192" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B192" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C192" s="10" t="inlineStr">
+        <is>
+          <t>Country Builders Bank rebrands as Top Bank Philippines BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D192" s="9" t="n"/>
+      <c r="E192" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F192" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G192" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX193bWtpeXF2Umc4QjJPZEs3cUlUU0h3OHdKTk1tMXVKa1FBZGFBTnJJNlBTQk9HVXp1WGFsRHcxV282SjBMOFRybWdxUTM3QWVOTFkwSVdDWjBRU3hmKzZaMUM4VGtWQzhqbGpuNTlXb2VGd1p3NkFza1ZjNUJzUGIySDBNc3dYTkdNalBWZ0ZPQmNTRDZZcmdFTXBIY0dSTU9LQTJ0RjNmL0RGUElkcVQ0UmtHYVI3ZmtUbmZjM0FpZUdDTzNuOFQ2cnFxTVJzNw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A193" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B193" s="9" t="inlineStr">
+        <is>
+          <t>Pinoy Network</t>
+        </is>
+      </c>
+      <c r="C193" s="10" t="inlineStr">
+        <is>
+          <t>Analyst: 'Divergence' of rate cut comments by Fed, BSP abetted peso weakening ANC</t>
+        </is>
+      </c>
+      <c r="D193" s="9" t="n"/>
+      <c r="E193" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F193" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G193" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19IdUYzTjRvSytkTUdqRUQ3Z1RPekM5QmlKSVlhUmwyVXgvRzMxaWlXWFJ1YVB6bnFlcWNzbkpNZmNCTXpKakY2MG9Sbml6ZGxKN2F4dHNUam51RmR4T01pbHRyUFhHL3RGbE1icWRTQ0Z0bE9iZUFabDdGTW1wMEFid1NEaGZzRlM3Mnh1KzR4UDFMQzAxdW42OXJ6eWFwNVA3a095SVdaemR1UXh3T29QbEdiblc1TEc1S1I4M0ZxNG1UdU1ZbS9PdDZCVWhnNw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A194" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B194" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C194" s="10" t="inlineStr">
+        <is>
+          <t>Peso's nonstop fall may stoke prices BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D194" s="9" t="n"/>
+      <c r="E194" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F194" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G194" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WdlF5VTZBS0pSREJZeVVSRUZRTU12SVBoRmlPT1RlSGFWZkVadXlFcmJHT3hFWGdBYklWVlArWGN6bTRRMms3RVFOSWhEb25LOURFbWpGbktSVkJFL3A0dlk3Q0ZxYTFHR1dWYVJzdjdNUlZuZ0NMWThORGdSY0lldGdLcG5wbWdnUzRvSFVnT0dRNExXRlhHdFNFT0VmTkpvbHpsVzNudUZqRDU5SThnQjlrWHI4aGNrV0VmTFM2SENpaTFQMEdSTVQyRVUzWA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A195" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B195" s="9" t="inlineStr">
+        <is>
+          <t>Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="C195" s="10" t="inlineStr">
+        <is>
+          <t>Cap on credit card charges now up for review, BSP says Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="D195" s="9" t="n"/>
+      <c r="E195" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F195" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G195" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19aZTNoa1VWZ0s3bzY3Mk0yTVp5TkoxM2w2RndDS3dHSHkxdkdxa1h4KzB4cVA0cXJCcVExZm40V0Q2aHdMVktCQUpxMklnMERnZ2RmVGt2MUpxVXZWUzgzcEtGVFhGRHBsa29zMGxURGVObGh1c0w5blBxTkNiUk8xNFQwNmRCOHE0aEFDSzNpQnJhNXg1RFhEVnBxbnhadVJPL2pKUmhOMzBPZDBXNXJ2V25OY3NKakt0U1lSWjRaWnphU09xdnFYUG9uQzZUVw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A196" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B196" s="9" t="inlineStr">
+        <is>
+          <t>Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="C196" s="10" t="inlineStr">
+        <is>
+          <t>Yields on BSP's term deposits inch up Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="D196" s="9" t="n"/>
+      <c r="E196" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F196" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G196" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX190UDFVa0hvN2ZwbU93NW5iMkQ3eTd6aEhyRlVmWjdJNlVLMWtUZEpTMHIrakFtc0tqRDFCdWJBaXVxMDhwYTdxVHNGVXlJR2M3SHVDSnBCZ2M2Z2NPQm01a0gra2xrbTlEOC9jQWRGM1pSemZCd291dlVKNGxNcVJCWnUxRFdVQnk0Y3EvKzVmNlA0SStqT3BqK04xRTkxZ1Zxd2Z6WDVFNEdhYWNYMzFqbDZBWUd4bERGb3VEMDNPYkIzVEJTWnRVT0dGdk1KOQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A197" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B197" s="9" t="inlineStr">
+        <is>
+          <t>Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="C197" s="10" t="inlineStr">
+        <is>
+          <t>Peso's nonstop fall may stoke prices Profit Insider Hub</t>
+        </is>
+      </c>
+      <c r="D197" s="9" t="n"/>
+      <c r="E197" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F197" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G197" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18zd0tiQ2RLTnZDeEZ2c1V0SC9BWFZ2Zm5aOTZmM25CTmxlVXF3NDlKanFObHpFY3hYMEl4ajlobUdrZjBXWjFXK0N0V3NMR0U0cC9nemRtMDVsaHhSbFFQb2RVM2ZxWm41aWJ4OTRiMVRPRWc0aFBrQVB6eUFrdGtXQ2c5NW5ubUZVQ2VWMDVIWHNXa0NXanBzSWJMYnV6cnNyaUducFZvUnN4bm1ld2JoeDNzUlVVaGJmVjk1N2NjT09YbHNsUnBOcm1sT0g1bA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A198" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B198" s="9" t="inlineStr">
+        <is>
+          <t>Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="C198" s="10" t="inlineStr">
+        <is>
+          <t>Peso's nonstop fall may stoke prices Business Solution Profit</t>
+        </is>
+      </c>
+      <c r="D198" s="9" t="n"/>
+      <c r="E198" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F198" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G198" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX181Q1paNHNWNGNXNG9VSDBhMHJwSGF6clczSFJ5Ty9BUC9zWG5QZnQ4OHhsYTFyNjR1ZTh4WXZBTmZiZXZrSTYxdTllcW85VUFFczZoNTdWRnVrd1VuQUlyc2EzZUZ1QWlLbE1rZjdrNnluOEZIenhEV2pxbDdJN2t3cjBxaS9iWjdBTWV5dGthSU5DekltQS9vTTRZaStJV2dFeDVncmtRU21tdDBqYXUzQW4yTGtHdmY1eWJuQ2EwRVNITCtMZGRWdlM3ZGJRaQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A199" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B199" s="9" t="inlineStr">
+        <is>
+          <t>Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="C199" s="10" t="inlineStr">
+        <is>
+          <t>Peso's nonstop fall may stoke prices Trade Like Gorillas</t>
+        </is>
+      </c>
+      <c r="D199" s="9" t="n"/>
+      <c r="E199" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F199" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G199" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19GRlBqTERWUnhDYktseS9GdXZhVWREdllFcjA0R21FUk1MdndtaGdMdWxja3VwVExHemNGK1dFSi9GdHg5bDZCRmdSY0JvR0kzcU9XaW5QdFY1WG04aXV1amNFc0FWa2I5N0JVcEExV2E0MGhoUG5qN1hudC8vMnBlSnQ3VEd0YkVWU1JXOE95VkZiV3BWWmpuWFFiZUhQcjR1RkFMUkhXRU5Xd3ZIemZPZ1ZLb1pkVVpDZFNWWm1CNEJRTEExK0sycDZjcFBuQQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A200" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B200" s="9" t="inlineStr">
+        <is>
+          <t>Malaya Business Insight</t>
+        </is>
+      </c>
+      <c r="C200" s="10" t="inlineStr">
+        <is>
+          <t>GCash facilitates remittance, bills payment abroad</t>
+        </is>
+      </c>
+      <c r="D200" s="9" t="n"/>
+      <c r="E200" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F200" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G200" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX194cE9tQVpyZDJuTHNlaEZrUkpHOTZiZXFTUENCNW1DTDVzR0hHbjdoK0s5L1Flcmc1U2FwN1VPZ3YvRTMzQUhYdzFzRnNlNk83Z3AwbnozcEkwMUZIa1NHeHVyY21jWm1IWVBuZ1JWczdUVW5ITFMwYnpoY2xvWUhTazNvVnppb1dlQXNzakJwTG9BK3lqYk0yZjI3bjVQMjFPZDFkenFMRkRCdVVlU2lScnRDTy9tMlhtbVIxRVU0cXhYUlZlc3V5VmxZclhtSg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A201" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B201" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin Online</t>
+        </is>
+      </c>
+      <c r="C201" s="10" t="inlineStr">
+        <is>
+          <t>₱58₱59 per dollar: Déjà vu?</t>
+        </is>
+      </c>
+      <c r="D201" s="9" t="n"/>
+      <c r="E201" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F201" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G201" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19hOGR1UTNtUThIV2RuV2xkRTA3QXZXR0ErQzRpandLT1Zjd0xGOWFNVGZEcDQzdDh4K2FSWjZjMFI4SndtTjlnSklJa3dvdmhWd0htc2xqQWlNUFZTR1JKZ0J1NnJZNVlPRjVQbVV0TXNqM1FJVXAyb1dZQmZDM3daR09Hcm4yeHp3T2hKTGxid1pyQ1FlSDdDNXd2eCtKeVpqTm9jL3ErUjl4d1N1T21aSHJ0RE5QVFJzVW9mYW9pV2JhMGJLWVoyUUtqMUpZbg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A202" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B202" s="9" t="inlineStr">
+        <is>
+          <t>Daily guardian</t>
+        </is>
+      </c>
+      <c r="C202" s="10" t="inlineStr">
+        <is>
+          <t>LANDBANK to use QR Codes for cash aid</t>
+        </is>
+      </c>
+      <c r="D202" s="9" t="n"/>
+      <c r="E202" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F202" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G202" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19tdTRXRUdpMkxXVGdHWHZxNjhCblBuZ2tBV21ZUDhjNkZlRDUyZHNLdFlPSmh5TlVBa1lmRlNjMGdtQ0ZXWGFpL1RjQndQbHdsOEVURHYxcC9sVTJnZ1RkelYwSzZuRFV4ODlvRzFSeHBBRG5DM0V6NzVmM3JLVmdMSjkyT1ZxaWFweHZKNGU3ZzVGdlF4TndrQTQyQVZXSGVZMWlYSzRFdzhsRGFZMVd4QVVTa3hVSVdBekw0UmlIWDNzN0RYL3M1TDhBbndZeg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A203" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B203" s="9" t="inlineStr">
+        <is>
+          <t>Pilipino Mirror Online</t>
+        </is>
+      </c>
+      <c r="C203" s="10" t="inlineStr">
+        <is>
+          <t>PISO NAKABAWI KONTRA DOLYAR PILIPINO Mirror</t>
+        </is>
+      </c>
+      <c r="D203" s="9" t="n"/>
+      <c r="E203" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F203" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G203" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19HWHJNbkFjTVNBWDkvSXVUTVlMQ0dES2FyMENVVWZKL3N3QkNOamZ0aU94U3lmcnFCVlZxNGZRaHZHSGw2THZZa2RFK3UwL0ZYb2JwRWxPRnFzc0tMY0lNWmZJVEx4andka1R4S1lieHpWSUV6Q1JYbDFCa3p2MnVySjZCVGZDK2NxVmJEOHZhN3FKVzZRUFNaT1Y1UjZHSzRSZDVvb1BNSW0vYlpacXh3UE9Qb0hFalFVVUZZNG9TbkF5RkNHbjJVQ20yT3dqZg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A204" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B204" s="9" t="inlineStr">
+        <is>
+          <t>Philstar</t>
+        </is>
+      </c>
+      <c r="C204" s="10" t="inlineStr">
+        <is>
+          <t>BSP yet to finalize credit card cap review</t>
+        </is>
+      </c>
+      <c r="D204" s="9" t="inlineStr">
+        <is>
+          <t>Keisha B. Ta-Asan</t>
+        </is>
+      </c>
+      <c r="E204" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F204" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G204" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX191Wm9hS2I3QWNzb1lLSklkdzFUNDN4TWw4Z0tVcHdNSWNrdWhueFk4WTVvVFBvdWxCQVZrUC9ydi9EOTZ1U0tCeWJoL0FMS1hmVTh0eWlqYVlTRXRKTjlvY252NCtyQVNqMlFRa3ZrYVRGeGZBZ1dLNWxmdnhSSHNJOXNIN1QrcWFCdnF6d0cwZ092WUZSTlJoVDlJSmhhUmt3RElEZ0VQUjJudi9SMFptcWFhNmZRcElMZDhPblhTR2hLekJuK2ZjSWVYTzl1eQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A205" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B205" s="9" t="inlineStr">
+        <is>
+          <t>Philstar</t>
+        </is>
+      </c>
+      <c r="C205" s="10" t="inlineStr">
+        <is>
+          <t>Landbank plans record P50 billion bond issue in Q4</t>
+        </is>
+      </c>
+      <c r="D205" s="9" t="inlineStr">
+        <is>
+          <t>Louise Maureen Simeon</t>
+        </is>
+      </c>
+      <c r="E205" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F205" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G205" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19QcHpBZDIyRjk2UkR3NGoraC9nK1VBelNsMFJVaTkzNFN2NW90L3FDN3FJTVBrMDhQYWx3SXRCMDB0bEcwWU5YK0x5QmYyUTdIMXBaN3ZISnpwOXdIT01BUFl4d2pwT1JjK1BIbG9hM0VmRGZ1Vkx0V0R5T1NyNkZTZGxDQnEvVFdWMHc5S2NPMHNLV2hHMnpwdVlrbXFNbzZMVVB3bE9Gc0JrclRDRDlqa3RYNXl3MUx6Z0kvbWc0bDU3bzdRcENZbjhBbEhFQQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A206" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B206" s="9" t="inlineStr">
+        <is>
+          <t>Philstar</t>
+        </is>
+      </c>
+      <c r="C206" s="10" t="inlineStr">
+        <is>
+          <t>Country Builders rebrands as Top Bank, eyes expansion via mergers</t>
+        </is>
+      </c>
+      <c r="D206" s="9" t="inlineStr">
+        <is>
+          <t>Keisha B. Ta-Asan</t>
+        </is>
+      </c>
+      <c r="E206" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F206" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G206" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX183blB6eFJYYzNTRytTNlRYWHVQTHZUejhUWVZPU2FpTjUraG5kcm5vNWxqcVVwKy9HVTlWZXZNVFNZRGs5Uk1GQUkzbW5MNTZsM0Y5aE5tcS9kbFB6LzV4L2FId0dUMStJNFNPbXpsMWZMSDB6SURMK1VoYWxZSit5NTByUHJnbUFmeDZBVGJiSzBkV2Z3Y3AyaXFsU2lnVXlKbDVlS3BPQktIUmV3UjFxSU9YMkREM0FOenI2dTF0Vi9YRFdiR1ZhYnRWYWVhZQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A207" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B207" s="9" t="inlineStr">
+        <is>
+          <t>AdoboTech Online</t>
+        </is>
+      </c>
+      <c r="C207" s="10" t="inlineStr">
+        <is>
+          <t>UN Special Advocate Queen Maxima Commends GCash for Helping Advance Financial Inclusion in the Philippines</t>
+        </is>
+      </c>
+      <c r="D207" s="9" t="n"/>
+      <c r="E207" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F207" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G207" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19QQWh0eEMzUTV4OS9jdk1veVF3S2UrSXZYaEFXaGNKNUVzY2FsYUgveHgybi9KTk01SGZuVUl4QXFXb3VEcm0wVmtwa2ZZVUFZUGM0NUlobDBnN2E0b0FYdCs0OVhxeWFmdVF2eVh1U0NxczZrZmdrY2tSbWZqakw0dHJZd1l4Y0ZhaUxjYm0yL1Mxd1h2azJOZlBrSENCbE50RytjZjA0ZXhMZUUvaWJoM1hrQllobkdwUS85YWk4QVBmT0xtcTJ4T0F2OWpodA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A208" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B208" s="9" t="inlineStr">
+        <is>
+          <t>Business Mirror</t>
+        </is>
+      </c>
+      <c r="C208" s="10" t="inlineStr">
+        <is>
+          <t>LandBank taps Traxion for cards with QR codes | Reine Juvierre Alberto</t>
+        </is>
+      </c>
+      <c r="D208" s="9" t="n"/>
+      <c r="E208" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F208" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G208" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19xbnNqYzRjbllBcFgrZi94UmpVc1NKaklZU1E5aXRIb2J4Z1ZDSkxVZGx2UzE0SCtBOVVieHhaUzNib0VXcFBWbkd4dWdtRlA2NkM0YWU2UGhkYmhkTTdXTTREbkxJTDVaRnBVemNYVldEb25IRmpPbGc2MEdHOWFJVkhsYzJZcStjOGRscjlMQm9xNFRFS21YRmxZdDFSSS9tVzFJb0xQUmxnSUtSeVBLTnNPVnM3VkhITVNINmxlYThPZ2poeUx1WEVsQUpnNA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A209" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B209" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin Online</t>
+        </is>
+      </c>
+      <c r="C209" s="10" t="inlineStr">
+        <is>
+          <t>Setting the path</t>
+        </is>
+      </c>
+      <c r="D209" s="9" t="n"/>
+      <c r="E209" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F209" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G209" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX185eTNtT3lDbFBYb0dQemN2VVNqT1JwOTkrVHF0VnpYV01pMWQxdGFCNzdPYVpYVzZWY3BhWW84aHRGWUMrRkQzemZRS2EwSEtsWHlDVzNwMDdEUDZzcXhGU1YrQ1Y4cmxtMSt3djFsRkFGUFVSR2ZmWmxTSXlIQ1E0ZDJVQjdTd1Zvd056dm1NVlNhc0NUSDd2WW5BZHVKWUJlSDgxV28xdWxtMXZzNE9ZUUczTm9udys0K0NLQ0hxZ2dJdTJiU3N4VHZOYXZXYw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A210" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B210" s="9" t="inlineStr">
+        <is>
+          <t>Radyo Pilipinas Uno</t>
+        </is>
+      </c>
+      <c r="C210" s="10" t="inlineStr">
+        <is>
+          <t>NEDA at United Nations, magtutulungan para paunlarin ang inclusive finance sa Pilipinas</t>
+        </is>
+      </c>
+      <c r="D210" s="9" t="n"/>
+      <c r="E210" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F210" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G210" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19LemlORDhQUmtFWEhoQndjbExjZXRhMk02bEpXRGpVYmtvYzFMMU1iZ3VEalJLQW0zMTh5NXpadk81NnNOY1d4QmVLQmxGd1RYbm9wY2dVQWlvWnNvYldDa3I5N0ZZNzBkeVI1ZCtlcTNKZVU1NlZJS28ycytGMnBYM0tycS82MUJ2Njk5V0p0d0tFdHo2ajMrbjh4VzZFdDNjdVNTUXNhemZtRlUzZk1uNnVFTDU4VlNvemQzTFZBT3Z0TzlrMWJYdHNRWXJleA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A211" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B211" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C211" s="10" t="inlineStr">
+        <is>
+          <t>Peso rebounds on profit taking BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D211" s="9" t="n"/>
+      <c r="E211" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F211" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G211" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19RRnpSNnV5YkJzdFk0V2hOQWk5eVBOLzBDM2RoMDN3dzBmai83TEpiMG9mYVoyS3JXNGlRNDdIUGh0cGRxSU4xaHR4YVJsZ3JVcE5SbUNpNW51cmpGRTk1VFhMV20wMXZhVTNiT3U1a0dic3VublhGUEF2TXVXUFBzV0xtRnVIajVTcEFIQnIyS2xuc2N4NTB5T3h3bm5Xd0FsRFJPLzFUNFN1NE00RXJsdmZiR3liTWRha2RLZ2hRWlFMbDEwb2xGSzRLbVQvMA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A212" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B212" s="9" t="inlineStr">
+        <is>
+          <t>Business World Online</t>
+        </is>
+      </c>
+      <c r="C212" s="10" t="inlineStr">
+        <is>
+          <t>Tatak Pinoy programs backed by P350 million in funding BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="D212" s="9" t="n"/>
+      <c r="E212" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F212" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G212" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX180OWQzV1RwMzA2V3N4U0hkenlUSm51bmdIRmhkNFhaUU4zTWNPN1NFRUo5NVhFdk1DcC9YTnY0TlJqYTkrVU5ERHo5cGNsYlNxOHQ2Q1BJNlFNK1Z0elhPSk9KZVpOVDVQYklrT3BHS0xISHZuYWRUY0t2TE0wZW42eTZUUjFOT3ZuNU9sOUc2WnFVcGJyQk9aejMzazRtZ1RGSTZ0S1pGRXE2UHdhLzRWWUxiaWN6Y2ZibmswTlQ0K0d3VmI2dlRnVWs3Z3plNQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A213" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B213" s="9" t="inlineStr">
+        <is>
+          <t>Philippines Times</t>
+        </is>
+      </c>
+      <c r="C213" s="10" t="inlineStr">
+        <is>
+          <t>Ipinakilala ng Pilipinas ang Bagong Single ETravel Code Philippines Times</t>
+        </is>
+      </c>
+      <c r="D213" s="9" t="n"/>
+      <c r="E213" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F213" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G213" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19RYnd5UUJWVnVjQnUxK0hhdXVDWGxXWjFPVDBkL1V6dHAzeHVWeGQzeFNmaDQ3NEZLWkE3c2hudmtodlVCSGxPTVpIMHZIUEZUaGNHeWlJRUVVN2NXNnQ1LzRnWUxrWVNNbnRKSHQ1dTdVYjMvaFA0Y3V4YXl2WGxEQWdtdmZjNXNqTkp3QldOU1M3TU9tS08xOThYT0dhNmZPMXZ1UEhrRDFIWGF2MTA4Z0R1aTdYSXNYRkRjYzRCVW5JTEFjdVVrUjJxeUxlWg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="255.75" customHeight="1" thickBot="1">
+      <c r="A214" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B214" s="9" t="inlineStr">
+        <is>
+          <t>Manila Standard Online</t>
+        </is>
+      </c>
+      <c r="C214" s="10" t="inlineStr">
+        <is>
+          <t>LandBank to adopt QR feature in cash aid delivery Manila Standard</t>
+        </is>
+      </c>
+      <c r="D214" s="9" t="n"/>
+      <c r="E214" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F214" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G214" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX190Znl2ZVRUN1lMbFBjVzlERDczMnFDVmRqSi9KSFZmdkVoNWw0dmpobjVNSGRyeXJZSTk5Q2U4b0VKVUJQdlJmS3g5am83YXpaSW1JcHYvakNDSzBabWt4c00xVTdUcXAwWmUyUm5UN1hybVgrTThCQWoxeGwvVWVDM2g2amQ3eEtMWHZUSnV2NnBWSVlWT2p1RHViTk41OEdrd0lDaE1RUm12Y0RUeFBuMlRUamVUWmV3aXo3Vk83emVZRmo2OTJYTUxWUjZnTg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A215" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B215" s="9" t="inlineStr">
+        <is>
+          <t>Metro Cebu News</t>
+        </is>
+      </c>
+      <c r="C215" s="10" t="inlineStr">
+        <is>
+          <t>Peso Weakens to P58.27 Against US Dollar, Weakest Since November 2022</t>
+        </is>
+      </c>
+      <c r="D215" s="9" t="inlineStr">
+        <is>
+          <t>Aljun Cainghog</t>
+        </is>
+      </c>
+      <c r="E215" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F215" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G215" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19JVWdscWxmMTZSY1ZvYW5LVEZTSFZGbkRLUiswZFdhTjZaaXFSMVZFc0IybE00K0kzODVTT2xhTm1ZT1RnUm5jMVJSWmx3c2gxZmJEbW8wRHRDVDdRVGZNcGwyUEM4T0JzdGxUcXFuMTZIcHRnLy9KVW11ZHBFNVA0b2dHNXozdlhQR0NraWxqK3d0Y0hwZmVTRzl3ODFCT3FGYWNvdWs2MTNib21yRVI2dkNxWjR6WnFUWFlpdFNWbmJLdXJYSkJwZGtOb0plNg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A216" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B216" s="9" t="inlineStr">
+        <is>
+          <t>Head Topics</t>
+        </is>
+      </c>
+      <c r="C216" s="10" t="inlineStr">
+        <is>
+          <t>Peso rebounds, but still at P58:$1 level</t>
+        </is>
+      </c>
+      <c r="D216" s="9" t="n"/>
+      <c r="E216" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F216" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G216" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19NSEVYbjg3MzZmUzNhZXF1K3ovNE5pQ3BaTjZXL2dDcVh5TUFvRFA1cG9vUU9qU0VSRlBiNHFTSE5LdmdrSlQ1d21NdkdCdm8yZ3NOVG5HbTdzTW5sR253a0JNc0o5OXNRaFkwZU5lOEF1NzV0MHgrZ0dCMmNWVHBPZTA1QjR4VFgvWVlGeFFINk5Cd1RlVklIRFJCdjVHd2FXbkxvTWdWc2hiajM3VDVJSVNtbWdCZHI5eUNLZGlKSzl5dmdJSmF4Z1hWbmlZRw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="180.75" customHeight="1" thickBot="1">
+      <c r="A217" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B217" s="9" t="inlineStr">
+        <is>
+          <t>Gmanetwork</t>
+        </is>
+      </c>
+      <c r="C217" s="10" t="inlineStr">
+        <is>
+          <t>Peso rebounds, but still at P58:$1 level</t>
+        </is>
+      </c>
+      <c r="D217" s="9" t="n"/>
+      <c r="E217" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F217" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G217" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19rQmZnQ1Z0MWV4V3FPclVGSkFqWlV3QmNwWDliUFpxOEE4MnQrWEJLa2hBR1ZvMWdzemg5NSszOUczTTBkcjkwZVNDc2EvalNqanpQeUFmVC9ldmtRUEdQMHlaREVlS1Z2R3ZWTDIwamxhTmpEZWw2SFdxMUl5djRaLzhBUXdpc0p5VUFFa2k3amVsdDNTMm9wSjhwZDNVclc0QmVoUVU4WVNSYktpNVpzSzIxb3RLZitpVS9aR052eTc3dk52NG9EaHcrZ0RLUg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A218" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B218" s="9" t="inlineStr">
+        <is>
+          <t>Gmanetwork</t>
+        </is>
+      </c>
+      <c r="C218" s="10" t="inlineStr">
+        <is>
+          <t>Landbank adopting QR feature in cash aid disbursement</t>
+        </is>
+      </c>
+      <c r="D218" s="9" t="n"/>
+      <c r="E218" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F218" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G218" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19tdE9UZXF5UGdIQTd5N21EWU5vODFSWEZ4SDhPV2d6SDVFZWlwdmdEUEhIaHkraWxpMUpTcms1NzFVMUVydjhtOFQ1U1dtbXdoOTBhbHllYWVWUmFsUnJ5QTFnSWxaUzFCZG5uTmxNUm94alFXb0ZvVFo5Wmg5TXg4MTZtaFNLNFlCaVR0OWU4UGxaUm9mdHRpbnNBcm9TWHZyWUtDRlcxajVjcndBcnpoaSswclNnNnA1ZGlPQmJ2bWR1c3ZlOExUQ2Uxd0NENQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="180.75" customHeight="1" thickBot="1">
+      <c r="A219" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B219" s="9" t="inlineStr">
+        <is>
+          <t>Opinyon</t>
+        </is>
+      </c>
+      <c r="C219" s="10" t="inlineStr">
+        <is>
+          <t>Queen of Netherlands visits BSP</t>
+        </is>
+      </c>
+      <c r="D219" s="9" t="inlineStr">
+        <is>
+          <t>Rose De La Cruz</t>
+        </is>
+      </c>
+      <c r="E219" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F219" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G219" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19ibmNTWExlQWZ3eTY2b3JhSElEZE9xMzhHM1JCbyt5ZVJMR2RoTmo2Mm1VclRrRFlrQmtmemovMzQ1dXJHWkZlN1lrTWhEVXRJaDFyZjZoRjFmS29ZYXQ3UmZtc2tFdzdwMjUyZUo0a0xVWnZOWXdqbXF6NEN3SUJycldEcS9ENkJtUkJ1MnQ2N3c1OC9uRHNYb1hUT2xlUng4SGF1ZVdIdnBCZ3l1bFpuOGVoYVFEUlZtbHppYkV6VUJ4RDZ3WnpHT1JBenBkQQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A220" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B220" s="9" t="inlineStr">
+        <is>
+          <t>Manila Bulletin Online</t>
+        </is>
+      </c>
+      <c r="C220" s="10" t="inlineStr">
+        <is>
+          <t>BSP requires report on payment system's use and compliance</t>
+        </is>
+      </c>
+      <c r="D220" s="9" t="n"/>
+      <c r="E220" s="9" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="F220" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G220" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19vdFJaY213ODVDNUFwMmwweEYvRm1kVjVLMGJaT3poTHRyOUlFQ0RhY0ZRb05tWUwzejAzN25wSTVwZ1M2aExpcTV6bDFyY2p1ZkhoUVk2c2k2OVFUdEtFRktVcXhRL2IxVjJRcWJiNWJvc3BwWll2di9uNnl3U1hYMm1OMWxPWVZGNmdyV0d4blpicXI0V1ZWN1hkUDN2dllhUG1rdVp6MytXdGxmRStpaWFkSGsxMGFqM1NsQjdpOWE0YnI5clF5bjFwYlVHbQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A221" s="8" t="n">
+        <v>45437</v>
+      </c>
+      <c r="B221" s="9" t="inlineStr">
+        <is>
+          <t>Currentph</t>
+        </is>
+      </c>
+      <c r="C221" s="10" t="inlineStr">
+        <is>
+          <t>BUSINESS NEWS ROUND UP FOR MAY 20 TO 24 BSP EYES RATE CUTS AHEAD OF US</t>
+        </is>
+      </c>
+      <c r="D221" s="9" t="n"/>
+      <c r="E221" s="9" t="inlineStr">
+        <is>
           <t>Blogs</t>
         </is>
       </c>
-      <c r="F91" s="9" t="inlineStr">
-        <is>
-          <t>BSP NEWS</t>
-        </is>
-      </c>
-      <c r="G91" s="9" t="inlineStr">
-        <is>
-          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19WSTAwb3pKRUVvT0lLQVd2NkpDR1lMc3p6TU1ON0tWblg1VFRMcytUK3NPVUlaMEl2OENreFVUcU4rQjV5ckE4aWhZRHBVdXYraE5QdTluVnkvYkdHcCtaUHJsQ1NHYXBTNGVGTHJWRjhxY1dlTERhWFJyZ3dwbEIrdkV1d3VkeE0zRHhSWWxndGJqZUhHM2hNemNuRng3YUlEOHV4TERVWGFaaSsvS2NtMSszYjgvM29iTUdPd2ZnbVpwNkt0V09HOGo3Z3ZjTg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="92" ht="135.75" customHeight="1" thickBot="1">
-      <c r="A92" s="11" t="n"/>
-    </row>
-    <row r="93" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A93" s="11" t="n"/>
-    </row>
-    <row r="94" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A94" s="11" t="n"/>
-    </row>
-    <row r="95" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A95" s="16" t="inlineStr">
+      <c r="F221" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G221" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19RZjJnZ1BvaEcrN3VPek0xRHpWdTRqYVhEVStrV3ovdmd3TDN6VFpJc2oxVyszdFFzQ3RCZU91UCsyTGp4UEJLTk9OZFhxUnE3ak1RcjlkMi9sL1VqWlNHMVBhcktVUUh2a0xvZjJITWoxVDJOZElaVnJtRytFZ2RmNXVlUFhiVjF2VkZTRk9sVFdiMjVPNTc1ZEp2MHI1N0FaaEk4QnNZZUt0aDFHREpmM3l2akRQaFJ1MXAxdG5jRDNSNFdDVjZ2YmsySlZYRA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A222" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B222" s="9" t="inlineStr">
+        <is>
+          <t>Bob Reyes Online</t>
+        </is>
+      </c>
+      <c r="C222" s="10" t="inlineStr">
+        <is>
+          <t>Digital Banks Vow to Revolutionize Financial Health in the Philippines The Filipino Tech Explainer</t>
+        </is>
+      </c>
+      <c r="D222" s="9" t="n"/>
+      <c r="E222" s="9" t="inlineStr">
+        <is>
+          <t>Blogs</t>
+        </is>
+      </c>
+      <c r="F222" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G222" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19KbnRadE81cGROL3E1SW1tbmxKaEh4NHRlQTZ3T3NYT05oZzRjVjliTzFmQmZaN28ycS9ZWExHd1dSRUtBWXJkc2wwbitxNDZwdHFPd3VULzMvazBmVXdmaVQ2dEdTTy9tRHRtNEt6MnNiYmNRN05LYUpnZ1RDNWU3bHh6RlFzQ1lkVi9kUVlYTkJWZlBiQm9ISS9TUlUrY0tKTzhUanJKa1pJT3NVOGtURUJBOTkwMnNlN3NFaEVRS3orWHl0cW9kL1Fqb1N6aw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A223" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B223" s="9" t="inlineStr">
+        <is>
+          <t>AppGadget</t>
+        </is>
+      </c>
+      <c r="C223" s="10" t="inlineStr">
+        <is>
+          <t>GCash Simplifies and Secures Overseas Money Transfers Through Official Remittance Partners</t>
+        </is>
+      </c>
+      <c r="D223" s="9" t="inlineStr">
+        <is>
+          <t>Jervie David Montejar</t>
+        </is>
+      </c>
+      <c r="E223" s="9" t="inlineStr">
+        <is>
+          <t>Blogs</t>
+        </is>
+      </c>
+      <c r="F223" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G223" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19DU0VNQzJFb3lDSGFoNGJGYUhwWTlHVkdUaG4rWmFOUFpITTVPVnJUT0Fab3VNWGNyVG1tdEFtWTdGMG1Sekt6QXZkUXloVzRRbDc5YTlRNjN6RW1WQW1aL3o0VXF3Y0tpL2RSV3MvcnQ2RFhqSjNkMy9GcTlrZ0xlUnZlRDcxa3ZoZy8xN0hCLzFycFp5N2wzUXgvMldMdUtVaDk5TzN3ajJMaTRLTUFSdDczSS85UitxWmU4NmFlbzVHbHIveDduSmRhenBHNQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A224" s="8" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B224" s="9" t="inlineStr">
+        <is>
+          <t>Amazing Jing for Life</t>
+        </is>
+      </c>
+      <c r="C224" s="10" t="inlineStr">
+        <is>
+          <t>Home Credit Philippines: The financial ally for every Filipino</t>
+        </is>
+      </c>
+      <c r="D224" s="9" t="n"/>
+      <c r="E224" s="9" t="inlineStr">
+        <is>
+          <t>Blogs</t>
+        </is>
+      </c>
+      <c r="F224" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G224" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19mNGg5UU9haWRDVHlPYkxRSkFpeW93YVBVTmVjSDFrU29BVVdPK0RmK0VVaUMyQ2E5UG9JcVdnejNaUm1OSzZUSUpyemdDVlAvVER3QVJDMUF1cytVMitYSS94eG5XdG1ENkJET01YTWdwMHcrTklzVXppM0hxbENxV0NMZE5aOHoxTFZsbWZZcHFhcEkxYkJ5VXZUM0ZaV1ZUVFd2SEhsWGNteDZ5OEYvcWFoMjZVMm1VWGttbktMSXE1VElCK2trbDA2eGFrYw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A225" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B225" s="9" t="inlineStr">
+        <is>
+          <t>Dot Daily Dose</t>
+        </is>
+      </c>
+      <c r="C225" s="10" t="inlineStr">
+        <is>
+          <t>DOLE MIMAROPA and Palawan Group of Companies: A Partnership Empowering Unbanked Beneficiaries in the Region Dot Daily Dose</t>
+        </is>
+      </c>
+      <c r="D225" s="9" t="n"/>
+      <c r="E225" s="9" t="inlineStr">
+        <is>
+          <t>Blogs</t>
+        </is>
+      </c>
+      <c r="F225" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G225" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX18zVDRuME1USmszUGRjYUFRN0ZNQ21CdEdMTkQ4MGVzUDBRVFg1eTlIcjBrQnJQQ1VGell2M1luVis3aDlVa1Z6MWxFL0Y4azFtOUJCV1M1akMzaHJIay93T1NVczkxZUNxdnhCRG1uTjVPOW9xdnNKclh0U0o5K0tGV3cyV0J4UmMxVTBsT1IxRXFzWmhsd056c1dGNjZOWnlzb054bkJzMEJGTytkT3FtMDBxU3REeUtva0hYRHFtSW5hNFVVRWorSlZ1eUlsbw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="90.75" customHeight="1" thickBot="1">
+      <c r="A226" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B226" s="9" t="inlineStr">
+        <is>
+          <t>Business Diary - Online</t>
+        </is>
+      </c>
+      <c r="C226" s="10" t="inlineStr">
+        <is>
+          <t>GCash Makes Sending Money From Abroad Easier, More Secure Through Official Remittance Partners</t>
+        </is>
+      </c>
+      <c r="D226" s="9" t="n"/>
+      <c r="E226" s="9" t="inlineStr">
+        <is>
+          <t>Blogs</t>
+        </is>
+      </c>
+      <c r="F226" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G226" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX19VS01UaWs2V1Y2SjZabjljRWNXdlpVOUxVT2JSYW9WVHZxUG5RR1B6UUdIeWdOVlJxRzZKM1V1OXB6QjRnbi8vbVJJRHhhN0hrVXFsME5YM0xWOGtSNG4rbDg3SlE0MlJscWJpUHowWmxQbWFCUlhFRTBPVEVVRFdxSlFieGpNOGdNeGtwTC9Gcll6U2RnT2tWRHRtaG1FY2I0NCtoSHB1ZTJVL3YyK3MzZ2JrUm5pc3VkT0MwVDVmWXkzKzNRWm1PWG12K0UyZQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="135.75" customHeight="1" thickBot="1">
+      <c r="A227" s="8" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B227" s="9" t="inlineStr">
+        <is>
+          <t>Currentph</t>
+        </is>
+      </c>
+      <c r="C227" s="10" t="inlineStr">
+        <is>
+          <t>Peso drops to P58 to a US dollar; delays in policy rate reductions affect</t>
+        </is>
+      </c>
+      <c r="D227" s="9" t="n"/>
+      <c r="E227" s="9" t="inlineStr">
+        <is>
+          <t>Blogs</t>
+        </is>
+      </c>
+      <c r="F227" s="9" t="inlineStr">
+        <is>
+          <t>BSP NEWS</t>
+        </is>
+      </c>
+      <c r="G227" s="9" t="inlineStr">
+        <is>
+          <t>https://app.media-meter.com/main/view-article/U2FsdGVkX193WFF0YTJZVDdzdFRlL0twa0lYMFZZUEloQVU4NW9nUmszd05JaWJDMHZncFlsOVlReHM0aGhja0h4aks4UFhGVkdwRmNjMGZ6dnY1NzN0V01VUlVwN0dXSFBweThhekVrWS91TXkyQVlGUitsYlB3aXNiUDlQNENITFlJcHRBdUZhbGhuSzBOVW95M3Y3clJNRWc3VktndWRrM1pRSWpVMEN4RU5KNC9IRkhoeERVaFNuZ0ZUVFN4b1oxeDRBNjExY00vV2RUTA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A228" s="11" t="n"/>
+    </row>
+    <row r="229" ht="195.75" customHeight="1" thickBot="1">
+      <c r="A229" s="11" t="n"/>
+    </row>
+    <row r="230" ht="195.75" customHeight="1" thickBot="1">
+      <c r="A230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A231" s="17" t="inlineStr">
         <is>
           <t>Powered by Media Meter, Inc.</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="285.75" customHeight="1" thickBot="1"/>
-    <row r="97" ht="210.75" customHeight="1" thickBot="1">
-      <c r="A97" s="3" t="inlineStr">
+    <row r="232" ht="300.75" customHeight="1" thickBot="1"/>
+    <row r="233" ht="210.75" customHeight="1" thickBot="1">
+      <c r="A233" s="15" t="inlineStr">
         <is>
           <t>For Inquiries and concern please contact 02 4144496 or 02 9617322 or email: info@media-meter.com</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="150.75" customHeight="1" thickBot="1"/>
-    <row r="99"/>
-    <row r="100">
-      <c r="A100" s="2" t="n"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="102" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="234" ht="150.75" customHeight="1" thickBot="1"/>
+    <row r="235"/>
+    <row r="236">
+      <c r="A236" s="2" t="n"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="238" ht="15.75" customHeight="1" thickBot="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
